--- a/Wiki/Areas/ServiceReclamations/Content/АнализРекламаций.xlsx
+++ b/Wiki/Areas/ServiceReclamations/Content/АнализРекламаций.xlsx
@@ -25,8 +25,8 @@
   </definedNames>
   <calcPr calcId="152511" refMode="R1C1"/>
   <pivotCaches>
-    <pivotCache cacheId="64" r:id="rId6"/>
-    <pivotCache cacheId="67" r:id="rId7"/>
+    <pivotCache cacheId="375" r:id="rId6"/>
+    <pivotCache cacheId="376" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2918,7 +2918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3018,15 +3018,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3040,11 +3031,59 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="48">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3147,6 +3186,15 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor rgb="FFC5D9F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3158,7 +3206,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3167,75 +3214,14 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFC5D9F1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3294,6 +3280,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3321,178 +3308,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3501,15 +3333,7 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFC5D9F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3518,14 +3342,25 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFC5D9F1"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -3650,12 +3485,12 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ОтчетРекламации" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="89"/>
-      <tableStyleElement type="headerRow" dxfId="88"/>
+      <tableStyleElement type="wholeTable" dxfId="47"/>
+      <tableStyleElement type="headerRow" dxfId="46"/>
     </tableStyle>
     <tableStyle name="Стиль сводной таблицы 1" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="87"/>
-      <tableStyleElement type="headerRow" dxfId="86"/>
+      <tableStyleElement type="wholeTable" dxfId="45"/>
+      <tableStyleElement type="headerRow" dxfId="44"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -11378,7 +11213,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица1" cacheId="67" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица1" cacheId="376" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="B4:AN17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -11614,7 +11449,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица1" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Год отгрузки">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="СводнаяТаблица1" cacheId="375" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="5" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Год отгрузки">
   <location ref="C6:H14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -11704,31 +11539,48 @@
     <dataField name="Количество по полю Кол-во заказов" fld="17" subtotal="count" baseField="1" baseItem="390114584"/>
   </dataFields>
   <formats count="16">
-    <format dxfId="55">
+    <format dxfId="18">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="14" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
+    <format dxfId="13">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="14" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="14" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="10">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
@@ -11738,38 +11590,21 @@
       </pivotArea>
     </format>
     <format dxfId="8">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="14" count="0"/>
-        </references>
-      </pivotArea>
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="14" count="0"/>
-        </references>
-      </pivotArea>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="4">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="3">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -11832,52 +11667,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица_ExternalData_1" displayName="Таблица_ExternalData_1" ref="A2:R327" tableType="queryTable" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица_ExternalData_1" displayName="Таблица_ExternalData_1" ref="A2:R327" tableType="queryTable" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="A2:R327"/>
   <sortState ref="A7:R304">
     <sortCondition ref="J2:J327"/>
   </sortState>
   <tableColumns count="18">
-    <tableColumn id="74" uniqueName="74" name="№ п/п" queryTableFieldId="1" dataDxfId="37"/>
-    <tableColumn id="75" uniqueName="75" name="№ рекламации" queryTableFieldId="2" dataDxfId="36"/>
-    <tableColumn id="76" uniqueName="76" name="№ заказа/ов" queryTableFieldId="3" dataDxfId="35"/>
-    <tableColumn id="77" uniqueName="77" name="Покупатель" queryTableFieldId="4" dataDxfId="34"/>
-    <tableColumn id="78" uniqueName="78" name="Дата отгрузки" queryTableFieldId="5" dataDxfId="33"/>
-    <tableColumn id="79" uniqueName="79" name="Год отгрузки" queryTableFieldId="6" dataDxfId="32"/>
-    <tableColumn id="80" uniqueName="80" name="Тип рекламации Project" queryTableFieldId="7" dataDxfId="31"/>
-    <tableColumn id="81" uniqueName="81" name="Описание рекламации (текст)" queryTableFieldId="8" dataDxfId="30"/>
-    <tableColumn id="82" uniqueName="82" name="Причина возникновения рекламации" queryTableFieldId="9" dataDxfId="29"/>
-    <tableColumn id="83" uniqueName="83" name="Дата открытия рекламации" queryTableFieldId="10" dataDxfId="28"/>
-    <tableColumn id="84" uniqueName="84" name="Год возникновения рекламации" queryTableFieldId="11" dataDxfId="27"/>
-    <tableColumn id="85" uniqueName="85" name="Месяц" queryTableFieldId="12" dataDxfId="26"/>
-    <tableColumn id="86" uniqueName="86" name="Дата получения ректамации в СМК" queryTableFieldId="13" dataDxfId="25"/>
-    <tableColumn id="87" uniqueName="87" name="Дата закрытия рекламации" queryTableFieldId="14" dataDxfId="24"/>
-    <tableColumn id="88" uniqueName="88" name="Год" queryTableFieldId="15" dataDxfId="23"/>
-    <tableColumn id="89" uniqueName="89" name="Срок устранения, дней" queryTableFieldId="16" dataDxfId="22"/>
-    <tableColumn id="90" uniqueName="90" name="Возможные причины рекламации" queryTableFieldId="17" dataDxfId="21"/>
-    <tableColumn id="91" uniqueName="91" name="Кол-во заказов" queryTableFieldId="18" dataDxfId="20"/>
+    <tableColumn id="74" uniqueName="74" name="№ п/п" queryTableFieldId="1" dataDxfId="41"/>
+    <tableColumn id="75" uniqueName="75" name="№ рекламации" queryTableFieldId="2" dataDxfId="40"/>
+    <tableColumn id="76" uniqueName="76" name="№ заказа/ов" queryTableFieldId="3" dataDxfId="39"/>
+    <tableColumn id="77" uniqueName="77" name="Покупатель" queryTableFieldId="4" dataDxfId="38"/>
+    <tableColumn id="78" uniqueName="78" name="Дата отгрузки" queryTableFieldId="5" dataDxfId="37"/>
+    <tableColumn id="79" uniqueName="79" name="Год отгрузки" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="80" uniqueName="80" name="Тип рекламации Project" queryTableFieldId="7" dataDxfId="36"/>
+    <tableColumn id="81" uniqueName="81" name="Описание рекламации (текст)" queryTableFieldId="8" dataDxfId="35"/>
+    <tableColumn id="82" uniqueName="82" name="Причина возникновения рекламации" queryTableFieldId="9" dataDxfId="34"/>
+    <tableColumn id="83" uniqueName="83" name="Дата открытия рекламации" queryTableFieldId="10" dataDxfId="33"/>
+    <tableColumn id="84" uniqueName="84" name="Год возникновения рекламации" queryTableFieldId="11" dataDxfId="1"/>
+    <tableColumn id="85" uniqueName="85" name="Месяц" queryTableFieldId="12" dataDxfId="32"/>
+    <tableColumn id="86" uniqueName="86" name="Дата получения ректамации в СМК" queryTableFieldId="13" dataDxfId="31"/>
+    <tableColumn id="87" uniqueName="87" name="Дата закрытия рекламации" queryTableFieldId="14" dataDxfId="30"/>
+    <tableColumn id="88" uniqueName="88" name="Год" queryTableFieldId="15" dataDxfId="0"/>
+    <tableColumn id="89" uniqueName="89" name="Срок устранения, дней" queryTableFieldId="16" dataDxfId="29"/>
+    <tableColumn id="90" uniqueName="90" name="Возможные причины рекламации" queryTableFieldId="17" dataDxfId="28"/>
+    <tableColumn id="91" uniqueName="91" name="Кол-во заказов" queryTableFieldId="18" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="ОтчетРекламации" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица_ExternalData_13" displayName="Таблица_ExternalData_13" ref="A2:B318" tableType="queryTable" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица_ExternalData_13" displayName="Таблица_ExternalData_13" ref="A2:B318" tableType="queryTable" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A2:B318"/>
   <tableColumns count="2">
-    <tableColumn id="9" uniqueName="9" name="№ заказа" queryTableFieldId="1" dataDxfId="17"/>
-    <tableColumn id="10" uniqueName="10" name="Количество" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="9" uniqueName="9" name="№ заказа" queryTableFieldId="1" dataDxfId="24"/>
+    <tableColumn id="10" uniqueName="10" name="Количество" queryTableFieldId="2" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="ОтчетРекламации" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица_ExternalData_2" displayName="Таблица_ExternalData_2" ref="D2:E41" tableType="queryTable" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица_ExternalData_2" displayName="Таблица_ExternalData_2" ref="D2:E41" tableType="queryTable" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="D2:E41"/>
   <tableColumns count="2">
-    <tableColumn id="1" uniqueName="1" name="Покупатель" queryTableFieldId="1" dataDxfId="19"/>
-    <tableColumn id="2" uniqueName="2" name="Количество" queryTableFieldId="2" dataDxfId="18"/>
+    <tableColumn id="1" uniqueName="1" name="Покупатель" queryTableFieldId="1" dataDxfId="20"/>
+    <tableColumn id="2" uniqueName="2" name="Количество" queryTableFieldId="2" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="ОтчетРекламации" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12152,7 +11987,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12161,40 +11996,41 @@
     <col min="2" max="2" width="17.140625" style="8" customWidth="1"/>
     <col min="3" max="4" width="17.42578125" style="8" customWidth="1"/>
     <col min="5" max="5" width="16" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="49" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="8" customWidth="1"/>
     <col min="8" max="8" width="37.7109375" style="8" customWidth="1"/>
     <col min="9" max="9" width="62.42578125" style="8" customWidth="1"/>
     <col min="10" max="10" width="40.42578125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" style="49" customWidth="1"/>
     <col min="12" max="12" width="22.42578125" style="8" customWidth="1"/>
-    <col min="13" max="15" width="22.42578125" style="9" customWidth="1"/>
+    <col min="13" max="14" width="22.42578125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" style="49" customWidth="1"/>
     <col min="16" max="17" width="22.42578125" style="8" customWidth="1"/>
     <col min="18" max="18" width="19" style="8" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="6" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
       <c r="T1" s="7"/>
     </row>
     <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
@@ -12213,7 +12049,7 @@
       <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="47" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="10" t="s">
@@ -12228,7 +12064,7 @@
       <c r="J2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="47" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="10" t="s">
@@ -12240,7 +12076,7 @@
       <c r="N2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="47" t="s">
         <v>14</v>
       </c>
       <c r="P2" s="10" t="s">
@@ -12269,7 +12105,7 @@
       <c r="E3" s="36">
         <v>41887</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="48">
         <v>2014</v>
       </c>
       <c r="G3" s="35" t="s">
@@ -12284,7 +12120,7 @@
       <c r="J3" s="36">
         <v>42738</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="48">
         <v>2017</v>
       </c>
       <c r="L3" s="35">
@@ -12296,7 +12132,7 @@
       <c r="N3" s="36">
         <v>42762</v>
       </c>
-      <c r="O3" s="36">
+      <c r="O3" s="48">
         <v>2017</v>
       </c>
       <c r="P3" s="35">
@@ -12326,7 +12162,7 @@
       <c r="E4" s="36">
         <v>42712</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="48">
         <v>2016</v>
       </c>
       <c r="G4" s="35" t="s">
@@ -12341,7 +12177,7 @@
       <c r="J4" s="36">
         <v>42745</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="48">
         <v>2017</v>
       </c>
       <c r="L4" s="35">
@@ -12353,7 +12189,7 @@
       <c r="N4" s="36">
         <v>42856</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="48">
         <v>2017</v>
       </c>
       <c r="P4" s="35">
@@ -12383,7 +12219,7 @@
       <c r="E5" s="36">
         <v>42724</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="48">
         <v>2016</v>
       </c>
       <c r="G5" s="35" t="s">
@@ -12398,7 +12234,7 @@
       <c r="J5" s="36">
         <v>42746</v>
       </c>
-      <c r="K5" s="36">
+      <c r="K5" s="48">
         <v>2017</v>
       </c>
       <c r="L5" s="35">
@@ -12410,7 +12246,7 @@
       <c r="N5" s="36">
         <v>42762</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="48">
         <v>2017</v>
       </c>
       <c r="P5" s="35">
@@ -12440,7 +12276,7 @@
       <c r="E6" s="36">
         <v>42691</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="48">
         <v>2016</v>
       </c>
       <c r="G6" s="35" t="s">
@@ -12455,7 +12291,7 @@
       <c r="J6" s="36">
         <v>42748</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="48">
         <v>2017</v>
       </c>
       <c r="L6" s="35">
@@ -12467,7 +12303,7 @@
       <c r="N6" s="36">
         <v>42796</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="48">
         <v>2017</v>
       </c>
       <c r="P6" s="35">
@@ -12497,7 +12333,7 @@
       <c r="E7" s="36">
         <v>42752</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="48">
         <v>2017</v>
       </c>
       <c r="G7" s="35" t="s">
@@ -12512,7 +12348,7 @@
       <c r="J7" s="36">
         <v>42768</v>
       </c>
-      <c r="K7" s="36">
+      <c r="K7" s="48">
         <v>2017</v>
       </c>
       <c r="L7" s="35">
@@ -12524,7 +12360,7 @@
       <c r="N7" s="36">
         <v>42768</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="48">
         <v>2017</v>
       </c>
       <c r="P7" s="35">
@@ -12554,7 +12390,7 @@
       <c r="E8" s="36">
         <v>42691</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="48">
         <v>2016</v>
       </c>
       <c r="G8" s="35" t="s">
@@ -12569,7 +12405,7 @@
       <c r="J8" s="36">
         <v>42782</v>
       </c>
-      <c r="K8" s="36">
+      <c r="K8" s="48">
         <v>2017</v>
       </c>
       <c r="L8" s="35">
@@ -12581,7 +12417,7 @@
       <c r="N8" s="36">
         <v>42801</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="48">
         <v>2017</v>
       </c>
       <c r="P8" s="35">
@@ -12611,7 +12447,7 @@
       <c r="E9" s="36">
         <v>42695</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="48">
         <v>2016</v>
       </c>
       <c r="G9" s="35" t="s">
@@ -12626,7 +12462,7 @@
       <c r="J9" s="36">
         <v>42782</v>
       </c>
-      <c r="K9" s="36">
+      <c r="K9" s="48">
         <v>2017</v>
       </c>
       <c r="L9" s="35">
@@ -12638,7 +12474,7 @@
       <c r="N9" s="36">
         <v>42860</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="48">
         <v>2017</v>
       </c>
       <c r="P9" s="35">
@@ -12668,7 +12504,7 @@
       <c r="E10" s="36">
         <v>42724</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="48">
         <v>2016</v>
       </c>
       <c r="G10" s="35" t="s">
@@ -12683,7 +12519,7 @@
       <c r="J10" s="36">
         <v>42786</v>
       </c>
-      <c r="K10" s="36">
+      <c r="K10" s="48">
         <v>2017</v>
       </c>
       <c r="L10" s="35">
@@ -12695,7 +12531,7 @@
       <c r="N10" s="36">
         <v>42857</v>
       </c>
-      <c r="O10" s="36">
+      <c r="O10" s="48">
         <v>2017</v>
       </c>
       <c r="P10" s="35">
@@ -12725,7 +12561,7 @@
       <c r="E11" s="36">
         <v>42731</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="48">
         <v>2016</v>
       </c>
       <c r="G11" s="35" t="s">
@@ -12740,7 +12576,7 @@
       <c r="J11" s="36">
         <v>42786</v>
       </c>
-      <c r="K11" s="36">
+      <c r="K11" s="48">
         <v>2017</v>
       </c>
       <c r="L11" s="35">
@@ -12752,7 +12588,7 @@
       <c r="N11" s="36">
         <v>42860</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="48">
         <v>2017</v>
       </c>
       <c r="P11" s="35">
@@ -12782,7 +12618,7 @@
       <c r="E12" s="36">
         <v>42720</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="48">
         <v>2016</v>
       </c>
       <c r="G12" s="35" t="s">
@@ -12797,7 +12633,7 @@
       <c r="J12" s="36">
         <v>42786</v>
       </c>
-      <c r="K12" s="36">
+      <c r="K12" s="48">
         <v>2017</v>
       </c>
       <c r="L12" s="35">
@@ -12809,7 +12645,7 @@
       <c r="N12" s="36">
         <v>42982</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="48">
         <v>2017</v>
       </c>
       <c r="P12" s="35">
@@ -12839,7 +12675,7 @@
       <c r="E13" s="36">
         <v>42732</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="48">
         <v>2016</v>
       </c>
       <c r="G13" s="35" t="s">
@@ -12854,7 +12690,7 @@
       <c r="J13" s="36">
         <v>42786</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="48">
         <v>2017</v>
       </c>
       <c r="L13" s="35">
@@ -12866,7 +12702,7 @@
       <c r="N13" s="36">
         <v>42857</v>
       </c>
-      <c r="O13" s="36">
+      <c r="O13" s="48">
         <v>2017</v>
       </c>
       <c r="P13" s="35">
@@ -12896,7 +12732,7 @@
       <c r="E14" s="36">
         <v>42733</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="48">
         <v>2016</v>
       </c>
       <c r="G14" s="35" t="s">
@@ -12911,7 +12747,7 @@
       <c r="J14" s="36">
         <v>42786</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="48">
         <v>2017</v>
       </c>
       <c r="L14" s="35">
@@ -12923,7 +12759,7 @@
       <c r="N14" s="36">
         <v>42982</v>
       </c>
-      <c r="O14" s="36">
+      <c r="O14" s="48">
         <v>2017</v>
       </c>
       <c r="P14" s="35">
@@ -12953,7 +12789,7 @@
       <c r="E15" s="36">
         <v>42493</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="48">
         <v>2016</v>
       </c>
       <c r="G15" s="35" t="s">
@@ -12968,7 +12804,7 @@
       <c r="J15" s="36">
         <v>42803</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="48">
         <v>2017</v>
       </c>
       <c r="L15" s="35">
@@ -12980,7 +12816,7 @@
       <c r="N15" s="36">
         <v>42815</v>
       </c>
-      <c r="O15" s="36">
+      <c r="O15" s="48">
         <v>2017</v>
       </c>
       <c r="P15" s="35">
@@ -13010,7 +12846,7 @@
       <c r="E16" s="36">
         <v>42493</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="48">
         <v>2016</v>
       </c>
       <c r="G16" s="35" t="s">
@@ -13025,7 +12861,7 @@
       <c r="J16" s="36">
         <v>42803</v>
       </c>
-      <c r="K16" s="36">
+      <c r="K16" s="48">
         <v>2017</v>
       </c>
       <c r="L16" s="35">
@@ -13037,7 +12873,7 @@
       <c r="N16" s="36">
         <v>42815</v>
       </c>
-      <c r="O16" s="36">
+      <c r="O16" s="48">
         <v>2017</v>
       </c>
       <c r="P16" s="35">
@@ -13067,7 +12903,7 @@
       <c r="E17" s="36">
         <v>42783</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="48">
         <v>2017</v>
       </c>
       <c r="G17" s="35" t="s">
@@ -13082,7 +12918,7 @@
       <c r="J17" s="36">
         <v>42803</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="48">
         <v>2017</v>
       </c>
       <c r="L17" s="35">
@@ -13094,7 +12930,7 @@
       <c r="N17" s="36">
         <v>42815</v>
       </c>
-      <c r="O17" s="36">
+      <c r="O17" s="48">
         <v>2017</v>
       </c>
       <c r="P17" s="35">
@@ -13124,7 +12960,7 @@
       <c r="E18" s="36">
         <v>42783</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="48">
         <v>2017</v>
       </c>
       <c r="G18" s="35" t="s">
@@ -13139,7 +12975,7 @@
       <c r="J18" s="36">
         <v>42803</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="48">
         <v>2017</v>
       </c>
       <c r="L18" s="35">
@@ -13151,7 +12987,7 @@
       <c r="N18" s="36">
         <v>42815</v>
       </c>
-      <c r="O18" s="36">
+      <c r="O18" s="48">
         <v>2017</v>
       </c>
       <c r="P18" s="35">
@@ -13181,7 +13017,7 @@
       <c r="E19" s="36">
         <v>42781</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="48">
         <v>2017</v>
       </c>
       <c r="G19" s="35" t="s">
@@ -13196,7 +13032,7 @@
       <c r="J19" s="36">
         <v>42803</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="48">
         <v>2017</v>
       </c>
       <c r="L19" s="35">
@@ -13208,7 +13044,7 @@
       <c r="N19" s="36">
         <v>42815</v>
       </c>
-      <c r="O19" s="36">
+      <c r="O19" s="48">
         <v>2017</v>
       </c>
       <c r="P19" s="35">
@@ -13238,7 +13074,7 @@
       <c r="E20" s="36">
         <v>42781</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="48">
         <v>2017</v>
       </c>
       <c r="G20" s="35" t="s">
@@ -13253,7 +13089,7 @@
       <c r="J20" s="36">
         <v>42803</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="48">
         <v>2017</v>
       </c>
       <c r="L20" s="35">
@@ -13265,7 +13101,7 @@
       <c r="N20" s="36">
         <v>42815</v>
       </c>
-      <c r="O20" s="36">
+      <c r="O20" s="48">
         <v>2017</v>
       </c>
       <c r="P20" s="35">
@@ -13295,7 +13131,7 @@
       <c r="E21" s="36">
         <v>42781</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="48">
         <v>2017</v>
       </c>
       <c r="G21" s="35" t="s">
@@ -13310,7 +13146,7 @@
       <c r="J21" s="36">
         <v>42803</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="48">
         <v>2017</v>
       </c>
       <c r="L21" s="35">
@@ -13322,7 +13158,7 @@
       <c r="N21" s="36">
         <v>42815</v>
       </c>
-      <c r="O21" s="36">
+      <c r="O21" s="48">
         <v>2017</v>
       </c>
       <c r="P21" s="35">
@@ -13352,7 +13188,7 @@
       <c r="E22" s="36">
         <v>42788</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="48">
         <v>2017</v>
       </c>
       <c r="G22" s="35" t="s">
@@ -13367,7 +13203,7 @@
       <c r="J22" s="36">
         <v>42807</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="48">
         <v>2017</v>
       </c>
       <c r="L22" s="35">
@@ -13379,7 +13215,7 @@
       <c r="N22" s="36">
         <v>42815</v>
       </c>
-      <c r="O22" s="36">
+      <c r="O22" s="48">
         <v>2017</v>
       </c>
       <c r="P22" s="35">
@@ -13409,7 +13245,7 @@
       <c r="E23" s="36">
         <v>42593</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="48">
         <v>2016</v>
       </c>
       <c r="G23" s="35" t="s">
@@ -13424,7 +13260,7 @@
       <c r="J23" s="36">
         <v>42807</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="48">
         <v>2017</v>
       </c>
       <c r="L23" s="35">
@@ -13436,7 +13272,7 @@
       <c r="N23" s="36">
         <v>42813</v>
       </c>
-      <c r="O23" s="36">
+      <c r="O23" s="48">
         <v>2017</v>
       </c>
       <c r="P23" s="35">
@@ -13466,7 +13302,7 @@
       <c r="E24" s="36">
         <v>42788</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="48">
         <v>2017</v>
       </c>
       <c r="G24" s="35" t="s">
@@ -13481,7 +13317,7 @@
       <c r="J24" s="36">
         <v>42807</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="48">
         <v>2017</v>
       </c>
       <c r="L24" s="35">
@@ -13493,7 +13329,7 @@
       <c r="N24" s="36">
         <v>42815</v>
       </c>
-      <c r="O24" s="36">
+      <c r="O24" s="48">
         <v>2017</v>
       </c>
       <c r="P24" s="35">
@@ -13523,7 +13359,7 @@
       <c r="E25" s="36">
         <v>42730</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="48">
         <v>2016</v>
       </c>
       <c r="G25" s="35" t="s">
@@ -13538,7 +13374,7 @@
       <c r="J25" s="36">
         <v>42808</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="48">
         <v>2017</v>
       </c>
       <c r="L25" s="35">
@@ -13550,7 +13386,7 @@
       <c r="N25" s="36">
         <v>42845</v>
       </c>
-      <c r="O25" s="36">
+      <c r="O25" s="48">
         <v>2017</v>
       </c>
       <c r="P25" s="35">
@@ -13580,7 +13416,7 @@
       <c r="E26" s="36">
         <v>42138</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="48">
         <v>2015</v>
       </c>
       <c r="G26" s="35" t="s">
@@ -13595,7 +13431,7 @@
       <c r="J26" s="36">
         <v>42810</v>
       </c>
-      <c r="K26" s="36">
+      <c r="K26" s="48">
         <v>2017</v>
       </c>
       <c r="L26" s="35">
@@ -13607,7 +13443,7 @@
       <c r="N26" s="36">
         <v>42832</v>
       </c>
-      <c r="O26" s="36">
+      <c r="O26" s="48">
         <v>2017</v>
       </c>
       <c r="P26" s="35">
@@ -13637,7 +13473,7 @@
       <c r="E27" s="36">
         <v>42368</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="48">
         <v>2015</v>
       </c>
       <c r="G27" s="35" t="s">
@@ -13652,7 +13488,7 @@
       <c r="J27" s="36">
         <v>42823</v>
       </c>
-      <c r="K27" s="36">
+      <c r="K27" s="48">
         <v>2017</v>
       </c>
       <c r="L27" s="35">
@@ -13664,7 +13500,7 @@
       <c r="N27" s="36">
         <v>42857</v>
       </c>
-      <c r="O27" s="36">
+      <c r="O27" s="48">
         <v>2017</v>
       </c>
       <c r="P27" s="35">
@@ -13694,7 +13530,7 @@
       <c r="E28" s="36">
         <v>42429</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="48">
         <v>2016</v>
       </c>
       <c r="G28" s="35" t="s">
@@ -13709,7 +13545,7 @@
       <c r="J28" s="36">
         <v>42823</v>
       </c>
-      <c r="K28" s="36">
+      <c r="K28" s="48">
         <v>2017</v>
       </c>
       <c r="L28" s="35">
@@ -13721,7 +13557,7 @@
       <c r="N28" s="36">
         <v>42831</v>
       </c>
-      <c r="O28" s="36">
+      <c r="O28" s="48">
         <v>2017</v>
       </c>
       <c r="P28" s="35">
@@ -13751,7 +13587,7 @@
       <c r="E29" s="36">
         <v>42804</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="48">
         <v>2017</v>
       </c>
       <c r="G29" s="35" t="s">
@@ -13766,7 +13602,7 @@
       <c r="J29" s="36">
         <v>42824</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="48">
         <v>2017</v>
       </c>
       <c r="L29" s="35">
@@ -13778,7 +13614,7 @@
       <c r="N29" s="36">
         <v>42853</v>
       </c>
-      <c r="O29" s="36">
+      <c r="O29" s="48">
         <v>2017</v>
       </c>
       <c r="P29" s="35">
@@ -13808,7 +13644,7 @@
       <c r="E30" s="36">
         <v>42249</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="48">
         <v>2015</v>
       </c>
       <c r="G30" s="35" t="s">
@@ -13823,7 +13659,7 @@
       <c r="J30" s="36">
         <v>42830</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="48">
         <v>2017</v>
       </c>
       <c r="L30" s="35">
@@ -13835,7 +13671,7 @@
       <c r="N30" s="36">
         <v>42879</v>
       </c>
-      <c r="O30" s="36">
+      <c r="O30" s="48">
         <v>2017</v>
       </c>
       <c r="P30" s="35">
@@ -13865,7 +13701,7 @@
       <c r="E31" s="36">
         <v>42809</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="48">
         <v>2017</v>
       </c>
       <c r="G31" s="35" t="s">
@@ -13880,7 +13716,7 @@
       <c r="J31" s="36">
         <v>42830</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="48">
         <v>2017</v>
       </c>
       <c r="L31" s="35">
@@ -13892,7 +13728,7 @@
       <c r="N31" s="36">
         <v>42892</v>
       </c>
-      <c r="O31" s="36">
+      <c r="O31" s="48">
         <v>2017</v>
       </c>
       <c r="P31" s="35">
@@ -13922,7 +13758,7 @@
       <c r="E32" s="36">
         <v>42556</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="48">
         <v>2016</v>
       </c>
       <c r="G32" s="35" t="s">
@@ -13937,7 +13773,7 @@
       <c r="J32" s="36">
         <v>42836</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="48">
         <v>2017</v>
       </c>
       <c r="L32" s="35">
@@ -13949,7 +13785,7 @@
       <c r="N32" s="36">
         <v>42846</v>
       </c>
-      <c r="O32" s="36">
+      <c r="O32" s="48">
         <v>2017</v>
       </c>
       <c r="P32" s="35">
@@ -13979,7 +13815,7 @@
       <c r="E33" s="36">
         <v>42440</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="48">
         <v>2016</v>
       </c>
       <c r="G33" s="35" t="s">
@@ -13994,7 +13830,7 @@
       <c r="J33" s="36">
         <v>42843</v>
       </c>
-      <c r="K33" s="36">
+      <c r="K33" s="48">
         <v>2017</v>
       </c>
       <c r="L33" s="35">
@@ -14006,7 +13842,7 @@
       <c r="N33" s="36">
         <v>42860</v>
       </c>
-      <c r="O33" s="36">
+      <c r="O33" s="48">
         <v>2017</v>
       </c>
       <c r="P33" s="35">
@@ -14036,7 +13872,7 @@
       <c r="E34" s="36">
         <v>42822</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="48">
         <v>2017</v>
       </c>
       <c r="G34" s="35" t="s">
@@ -14051,7 +13887,7 @@
       <c r="J34" s="36">
         <v>42843</v>
       </c>
-      <c r="K34" s="36">
+      <c r="K34" s="48">
         <v>2017</v>
       </c>
       <c r="L34" s="35">
@@ -14063,7 +13899,7 @@
       <c r="N34" s="36">
         <v>42844</v>
       </c>
-      <c r="O34" s="36">
+      <c r="O34" s="48">
         <v>2017</v>
       </c>
       <c r="P34" s="35">
@@ -14093,7 +13929,7 @@
       <c r="E35" s="36">
         <v>42811</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="48">
         <v>2017</v>
       </c>
       <c r="G35" s="35" t="s">
@@ -14108,7 +13944,7 @@
       <c r="J35" s="36">
         <v>42845</v>
       </c>
-      <c r="K35" s="36">
+      <c r="K35" s="48">
         <v>2017</v>
       </c>
       <c r="L35" s="35">
@@ -14120,7 +13956,7 @@
       <c r="N35" s="36">
         <v>42893</v>
       </c>
-      <c r="O35" s="36">
+      <c r="O35" s="48">
         <v>2017</v>
       </c>
       <c r="P35" s="35">
@@ -14150,7 +13986,7 @@
       <c r="E36" s="36">
         <v>42829</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="48">
         <v>2017</v>
       </c>
       <c r="G36" s="35" t="s">
@@ -14165,7 +14001,7 @@
       <c r="J36" s="36">
         <v>42853</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="48">
         <v>2017</v>
       </c>
       <c r="L36" s="35">
@@ -14177,7 +14013,7 @@
       <c r="N36" s="36">
         <v>42936</v>
       </c>
-      <c r="O36" s="36">
+      <c r="O36" s="48">
         <v>2017</v>
       </c>
       <c r="P36" s="35">
@@ -14207,7 +14043,7 @@
       <c r="E37" s="36">
         <v>42836</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="48">
         <v>2017</v>
       </c>
       <c r="G37" s="35" t="s">
@@ -14222,7 +14058,7 @@
       <c r="J37" s="36">
         <v>42858</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="48">
         <v>2017</v>
       </c>
       <c r="L37" s="35">
@@ -14234,7 +14070,7 @@
       <c r="N37" s="36">
         <v>42860</v>
       </c>
-      <c r="O37" s="36">
+      <c r="O37" s="48">
         <v>2017</v>
       </c>
       <c r="P37" s="35">
@@ -14264,7 +14100,7 @@
       <c r="E38" s="36">
         <v>42846</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="48">
         <v>2017</v>
       </c>
       <c r="G38" s="35" t="s">
@@ -14279,7 +14115,7 @@
       <c r="J38" s="36">
         <v>42867</v>
       </c>
-      <c r="K38" s="36">
+      <c r="K38" s="48">
         <v>2017</v>
       </c>
       <c r="L38" s="35">
@@ -14291,7 +14127,7 @@
       <c r="N38" s="36">
         <v>42870</v>
       </c>
-      <c r="O38" s="36">
+      <c r="O38" s="48">
         <v>2017</v>
       </c>
       <c r="P38" s="35">
@@ -14321,7 +14157,7 @@
       <c r="E39" s="36">
         <v>42489</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="48">
         <v>2016</v>
       </c>
       <c r="G39" s="35" t="s">
@@ -14336,7 +14172,7 @@
       <c r="J39" s="36">
         <v>42879</v>
       </c>
-      <c r="K39" s="36">
+      <c r="K39" s="48">
         <v>2017</v>
       </c>
       <c r="L39" s="35">
@@ -14348,7 +14184,7 @@
       <c r="N39" s="36">
         <v>42884</v>
       </c>
-      <c r="O39" s="36">
+      <c r="O39" s="48">
         <v>2017</v>
       </c>
       <c r="P39" s="35">
@@ -14378,7 +14214,7 @@
       <c r="E40" s="36">
         <v>42867</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="48">
         <v>2017</v>
       </c>
       <c r="G40" s="35" t="s">
@@ -14393,7 +14229,7 @@
       <c r="J40" s="36">
         <v>42887</v>
       </c>
-      <c r="K40" s="36">
+      <c r="K40" s="48">
         <v>2017</v>
       </c>
       <c r="L40" s="35">
@@ -14405,7 +14241,7 @@
       <c r="N40" s="36">
         <v>42888</v>
       </c>
-      <c r="O40" s="36">
+      <c r="O40" s="48">
         <v>2017</v>
       </c>
       <c r="P40" s="35">
@@ -14435,7 +14271,7 @@
       <c r="E41" s="36">
         <v>42804</v>
       </c>
-      <c r="F41" s="36">
+      <c r="F41" s="48">
         <v>2017</v>
       </c>
       <c r="G41" s="35" t="s">
@@ -14450,7 +14286,7 @@
       <c r="J41" s="36">
         <v>42920</v>
       </c>
-      <c r="K41" s="36">
+      <c r="K41" s="48">
         <v>2017</v>
       </c>
       <c r="L41" s="35">
@@ -14462,7 +14298,7 @@
       <c r="N41" s="36">
         <v>42927</v>
       </c>
-      <c r="O41" s="36">
+      <c r="O41" s="48">
         <v>2017</v>
       </c>
       <c r="P41" s="35">
@@ -14492,7 +14328,7 @@
       <c r="E42" s="36">
         <v>42409</v>
       </c>
-      <c r="F42" s="36">
+      <c r="F42" s="48">
         <v>2016</v>
       </c>
       <c r="G42" s="35" t="s">
@@ -14507,7 +14343,7 @@
       <c r="J42" s="36">
         <v>42920</v>
       </c>
-      <c r="K42" s="36">
+      <c r="K42" s="48">
         <v>2017</v>
       </c>
       <c r="L42" s="35">
@@ -14519,7 +14355,7 @@
       <c r="N42" s="36">
         <v>42964</v>
       </c>
-      <c r="O42" s="36">
+      <c r="O42" s="48">
         <v>2017</v>
       </c>
       <c r="P42" s="35">
@@ -14549,7 +14385,7 @@
       <c r="E43" s="36">
         <v>42811</v>
       </c>
-      <c r="F43" s="36">
+      <c r="F43" s="48">
         <v>2017</v>
       </c>
       <c r="G43" s="35" t="s">
@@ -14564,7 +14400,7 @@
       <c r="J43" s="36">
         <v>42922</v>
       </c>
-      <c r="K43" s="36">
+      <c r="K43" s="48">
         <v>2017</v>
       </c>
       <c r="L43" s="35">
@@ -14576,7 +14412,7 @@
       <c r="N43" s="36">
         <v>42922</v>
       </c>
-      <c r="O43" s="36">
+      <c r="O43" s="48">
         <v>2017</v>
       </c>
       <c r="P43" s="35">
@@ -14606,7 +14442,7 @@
       <c r="E44" s="36">
         <v>42368</v>
       </c>
-      <c r="F44" s="36">
+      <c r="F44" s="48">
         <v>2015</v>
       </c>
       <c r="G44" s="35" t="s">
@@ -14621,7 +14457,7 @@
       <c r="J44" s="36">
         <v>42922</v>
       </c>
-      <c r="K44" s="36">
+      <c r="K44" s="48">
         <v>2017</v>
       </c>
       <c r="L44" s="35">
@@ -14633,7 +14469,7 @@
       <c r="N44" s="36">
         <v>42986</v>
       </c>
-      <c r="O44" s="36">
+      <c r="O44" s="48">
         <v>2017</v>
       </c>
       <c r="P44" s="35">
@@ -14663,7 +14499,7 @@
       <c r="E45" s="36">
         <v>42899</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="48">
         <v>2017</v>
       </c>
       <c r="G45" s="35" t="s">
@@ -14678,7 +14514,7 @@
       <c r="J45" s="36">
         <v>42926</v>
       </c>
-      <c r="K45" s="36">
+      <c r="K45" s="48">
         <v>2017</v>
       </c>
       <c r="L45" s="35">
@@ -14690,7 +14526,7 @@
       <c r="N45" s="36">
         <v>42955</v>
       </c>
-      <c r="O45" s="36">
+      <c r="O45" s="48">
         <v>2017</v>
       </c>
       <c r="P45" s="35">
@@ -14720,7 +14556,7 @@
       <c r="E46" s="36">
         <v>42888</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="48">
         <v>2017</v>
       </c>
       <c r="G46" s="35" t="s">
@@ -14735,7 +14571,7 @@
       <c r="J46" s="36">
         <v>42933</v>
       </c>
-      <c r="K46" s="36">
+      <c r="K46" s="48">
         <v>2017</v>
       </c>
       <c r="L46" s="35">
@@ -14747,7 +14583,7 @@
       <c r="N46" s="36">
         <v>42944</v>
       </c>
-      <c r="O46" s="36">
+      <c r="O46" s="48">
         <v>2017</v>
       </c>
       <c r="P46" s="35">
@@ -14777,7 +14613,7 @@
       <c r="E47" s="36">
         <v>42251</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="48">
         <v>2015</v>
       </c>
       <c r="G47" s="35" t="s">
@@ -14792,7 +14628,7 @@
       <c r="J47" s="36">
         <v>42933</v>
       </c>
-      <c r="K47" s="36">
+      <c r="K47" s="48">
         <v>2017</v>
       </c>
       <c r="L47" s="35">
@@ -14804,7 +14640,7 @@
       <c r="N47" s="36">
         <v>42933</v>
       </c>
-      <c r="O47" s="36">
+      <c r="O47" s="48">
         <v>2017</v>
       </c>
       <c r="P47" s="35">
@@ -14834,7 +14670,7 @@
       <c r="E48" s="36">
         <v>42811</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="48">
         <v>2017</v>
       </c>
       <c r="G48" s="35" t="s">
@@ -14849,7 +14685,7 @@
       <c r="J48" s="36">
         <v>42933</v>
       </c>
-      <c r="K48" s="36">
+      <c r="K48" s="48">
         <v>2017</v>
       </c>
       <c r="L48" s="35">
@@ -14861,7 +14697,7 @@
       <c r="N48" s="36">
         <v>43013</v>
       </c>
-      <c r="O48" s="36">
+      <c r="O48" s="48">
         <v>2017</v>
       </c>
       <c r="P48" s="35">
@@ -14891,7 +14727,7 @@
       <c r="E49" s="36">
         <v>42837</v>
       </c>
-      <c r="F49" s="36">
+      <c r="F49" s="48">
         <v>2017</v>
       </c>
       <c r="G49" s="35" t="s">
@@ -14906,7 +14742,7 @@
       <c r="J49" s="36">
         <v>42934</v>
       </c>
-      <c r="K49" s="36">
+      <c r="K49" s="48">
         <v>2017</v>
       </c>
       <c r="L49" s="35">
@@ -14918,7 +14754,7 @@
       <c r="N49" s="36">
         <v>42948</v>
       </c>
-      <c r="O49" s="36">
+      <c r="O49" s="48">
         <v>2017</v>
       </c>
       <c r="P49" s="35">
@@ -14948,7 +14784,7 @@
       <c r="E50" s="36">
         <v>42440</v>
       </c>
-      <c r="F50" s="36">
+      <c r="F50" s="48">
         <v>2016</v>
       </c>
       <c r="G50" s="35" t="s">
@@ -14963,7 +14799,7 @@
       <c r="J50" s="36">
         <v>42940</v>
       </c>
-      <c r="K50" s="36">
+      <c r="K50" s="48">
         <v>2017</v>
       </c>
       <c r="L50" s="35">
@@ -14975,7 +14811,7 @@
       <c r="N50" s="36">
         <v>42940</v>
       </c>
-      <c r="O50" s="36">
+      <c r="O50" s="48">
         <v>2017</v>
       </c>
       <c r="P50" s="35">
@@ -15005,7 +14841,7 @@
       <c r="E51" s="36">
         <v>42916</v>
       </c>
-      <c r="F51" s="36">
+      <c r="F51" s="48">
         <v>2017</v>
       </c>
       <c r="G51" s="35" t="s">
@@ -15020,7 +14856,7 @@
       <c r="J51" s="36">
         <v>42947</v>
       </c>
-      <c r="K51" s="36">
+      <c r="K51" s="48">
         <v>2017</v>
       </c>
       <c r="L51" s="35">
@@ -15032,7 +14868,7 @@
       <c r="N51" s="36">
         <v>43080</v>
       </c>
-      <c r="O51" s="36">
+      <c r="O51" s="48">
         <v>2017</v>
       </c>
       <c r="P51" s="35">
@@ -15062,7 +14898,7 @@
       <c r="E52" s="36">
         <v>42930</v>
       </c>
-      <c r="F52" s="36">
+      <c r="F52" s="48">
         <v>2017</v>
       </c>
       <c r="G52" s="35" t="s">
@@ -15077,7 +14913,7 @@
       <c r="J52" s="36">
         <v>42954</v>
       </c>
-      <c r="K52" s="36">
+      <c r="K52" s="48">
         <v>2017</v>
       </c>
       <c r="L52" s="35">
@@ -15089,7 +14925,7 @@
       <c r="N52" s="36">
         <v>43066</v>
       </c>
-      <c r="O52" s="36">
+      <c r="O52" s="48">
         <v>2017</v>
       </c>
       <c r="P52" s="35">
@@ -15119,7 +14955,7 @@
       <c r="E53" s="36">
         <v>42933</v>
       </c>
-      <c r="F53" s="36">
+      <c r="F53" s="48">
         <v>2017</v>
       </c>
       <c r="G53" s="35" t="s">
@@ -15134,7 +14970,7 @@
       <c r="J53" s="36">
         <v>42954</v>
       </c>
-      <c r="K53" s="36">
+      <c r="K53" s="48">
         <v>2017</v>
       </c>
       <c r="L53" s="35">
@@ -15146,7 +14982,7 @@
       <c r="N53" s="36">
         <v>43066</v>
       </c>
-      <c r="O53" s="36">
+      <c r="O53" s="48">
         <v>2017</v>
       </c>
       <c r="P53" s="35">
@@ -15176,7 +15012,7 @@
       <c r="E54" s="36">
         <v>42941</v>
       </c>
-      <c r="F54" s="36">
+      <c r="F54" s="48">
         <v>2017</v>
       </c>
       <c r="G54" s="35" t="s">
@@ -15191,7 +15027,7 @@
       <c r="J54" s="36">
         <v>42957</v>
       </c>
-      <c r="K54" s="36">
+      <c r="K54" s="48">
         <v>2017</v>
       </c>
       <c r="L54" s="35">
@@ -15203,7 +15039,7 @@
       <c r="N54" s="36">
         <v>42975</v>
       </c>
-      <c r="O54" s="36">
+      <c r="O54" s="48">
         <v>2017</v>
       </c>
       <c r="P54" s="35">
@@ -15233,7 +15069,7 @@
       <c r="E55" s="36">
         <v>42947</v>
       </c>
-      <c r="F55" s="36">
+      <c r="F55" s="48">
         <v>2017</v>
       </c>
       <c r="G55" s="35" t="s">
@@ -15248,7 +15084,7 @@
       <c r="J55" s="36">
         <v>42965</v>
       </c>
-      <c r="K55" s="36">
+      <c r="K55" s="48">
         <v>2017</v>
       </c>
       <c r="L55" s="35">
@@ -15260,7 +15096,7 @@
       <c r="N55" s="36">
         <v>43066</v>
       </c>
-      <c r="O55" s="36">
+      <c r="O55" s="48">
         <v>2017</v>
       </c>
       <c r="P55" s="35">
@@ -15290,7 +15126,7 @@
       <c r="E56" s="36">
         <v>42958</v>
       </c>
-      <c r="F56" s="36">
+      <c r="F56" s="48">
         <v>2017</v>
       </c>
       <c r="G56" s="35" t="s">
@@ -15305,7 +15141,7 @@
       <c r="J56" s="36">
         <v>42972</v>
       </c>
-      <c r="K56" s="36">
+      <c r="K56" s="48">
         <v>2017</v>
       </c>
       <c r="L56" s="35">
@@ -15317,7 +15153,7 @@
       <c r="N56" s="36">
         <v>43080</v>
       </c>
-      <c r="O56" s="36">
+      <c r="O56" s="48">
         <v>2017</v>
       </c>
       <c r="P56" s="35">
@@ -15347,7 +15183,7 @@
       <c r="E57" s="36">
         <v>42958</v>
       </c>
-      <c r="F57" s="36">
+      <c r="F57" s="48">
         <v>2017</v>
       </c>
       <c r="G57" s="35" t="s">
@@ -15362,7 +15198,7 @@
       <c r="J57" s="36">
         <v>42982</v>
       </c>
-      <c r="K57" s="36">
+      <c r="K57" s="48">
         <v>2017</v>
       </c>
       <c r="L57" s="35">
@@ -15374,7 +15210,7 @@
       <c r="N57" s="36">
         <v>43000</v>
       </c>
-      <c r="O57" s="36">
+      <c r="O57" s="48">
         <v>2017</v>
       </c>
       <c r="P57" s="35">
@@ -15404,7 +15240,7 @@
       <c r="E58" s="36">
         <v>42961</v>
       </c>
-      <c r="F58" s="36">
+      <c r="F58" s="48">
         <v>2017</v>
       </c>
       <c r="G58" s="35" t="s">
@@ -15419,7 +15255,7 @@
       <c r="J58" s="36">
         <v>42982</v>
       </c>
-      <c r="K58" s="36">
+      <c r="K58" s="48">
         <v>2017</v>
       </c>
       <c r="L58" s="35">
@@ -15431,7 +15267,7 @@
       <c r="N58" s="36">
         <v>43080</v>
       </c>
-      <c r="O58" s="36">
+      <c r="O58" s="48">
         <v>2017</v>
       </c>
       <c r="P58" s="35">
@@ -15461,7 +15297,7 @@
       <c r="E59" s="36">
         <v>42963</v>
       </c>
-      <c r="F59" s="36">
+      <c r="F59" s="48">
         <v>2017</v>
       </c>
       <c r="G59" s="35" t="s">
@@ -15476,7 +15312,7 @@
       <c r="J59" s="36">
         <v>42983</v>
       </c>
-      <c r="K59" s="36">
+      <c r="K59" s="48">
         <v>2017</v>
       </c>
       <c r="L59" s="35">
@@ -15488,7 +15324,7 @@
       <c r="N59" s="36">
         <v>43021</v>
       </c>
-      <c r="O59" s="36">
+      <c r="O59" s="48">
         <v>2017</v>
       </c>
       <c r="P59" s="35">
@@ -15518,7 +15354,7 @@
       <c r="E60" s="36">
         <v>42915</v>
       </c>
-      <c r="F60" s="36">
+      <c r="F60" s="48">
         <v>2017</v>
       </c>
       <c r="G60" s="35" t="s">
@@ -15533,7 +15369,7 @@
       <c r="J60" s="36">
         <v>42986</v>
       </c>
-      <c r="K60" s="36">
+      <c r="K60" s="48">
         <v>2017</v>
       </c>
       <c r="L60" s="35">
@@ -15545,7 +15381,7 @@
       <c r="N60" s="36">
         <v>43013</v>
       </c>
-      <c r="O60" s="36">
+      <c r="O60" s="48">
         <v>2017</v>
       </c>
       <c r="P60" s="35">
@@ -15575,7 +15411,7 @@
       <c r="E61" s="36">
         <v>42446</v>
       </c>
-      <c r="F61" s="36">
+      <c r="F61" s="48">
         <v>2016</v>
       </c>
       <c r="G61" s="35" t="s">
@@ -15590,7 +15426,7 @@
       <c r="J61" s="36">
         <v>42986</v>
       </c>
-      <c r="K61" s="36">
+      <c r="K61" s="48">
         <v>2017</v>
       </c>
       <c r="L61" s="35">
@@ -15602,7 +15438,7 @@
       <c r="N61" s="36">
         <v>43011</v>
       </c>
-      <c r="O61" s="36">
+      <c r="O61" s="48">
         <v>2017</v>
       </c>
       <c r="P61" s="35">
@@ -15632,7 +15468,7 @@
       <c r="E62" s="36">
         <v>42489</v>
       </c>
-      <c r="F62" s="36">
+      <c r="F62" s="48">
         <v>2016</v>
       </c>
       <c r="G62" s="35" t="s">
@@ -15647,7 +15483,7 @@
       <c r="J62" s="36">
         <v>42989</v>
       </c>
-      <c r="K62" s="36">
+      <c r="K62" s="48">
         <v>2017</v>
       </c>
       <c r="L62" s="35">
@@ -15659,7 +15495,7 @@
       <c r="N62" s="36">
         <v>42992</v>
       </c>
-      <c r="O62" s="36">
+      <c r="O62" s="48">
         <v>2017</v>
       </c>
       <c r="P62" s="35">
@@ -15689,7 +15525,7 @@
       <c r="E63" s="36">
         <v>42411</v>
       </c>
-      <c r="F63" s="36">
+      <c r="F63" s="48">
         <v>2016</v>
       </c>
       <c r="G63" s="35" t="s">
@@ -15704,7 +15540,7 @@
       <c r="J63" s="36">
         <v>43025</v>
       </c>
-      <c r="K63" s="36">
+      <c r="K63" s="48">
         <v>2017</v>
       </c>
       <c r="L63" s="35">
@@ -15716,7 +15552,7 @@
       <c r="N63" s="36">
         <v>43241</v>
       </c>
-      <c r="O63" s="36">
+      <c r="O63" s="48">
         <v>2017</v>
       </c>
       <c r="P63" s="35">
@@ -15746,7 +15582,7 @@
       <c r="E64" s="36">
         <v>42963</v>
       </c>
-      <c r="F64" s="36">
+      <c r="F64" s="48">
         <v>2017</v>
       </c>
       <c r="G64" s="35" t="s">
@@ -15761,7 +15597,7 @@
       <c r="J64" s="36">
         <v>43028</v>
       </c>
-      <c r="K64" s="36">
+      <c r="K64" s="48">
         <v>2017</v>
       </c>
       <c r="L64" s="35">
@@ -15773,7 +15609,7 @@
       <c r="N64" s="36">
         <v>43137</v>
       </c>
-      <c r="O64" s="36">
+      <c r="O64" s="48">
         <v>2017</v>
       </c>
       <c r="P64" s="35">
@@ -15803,7 +15639,7 @@
       <c r="E65" s="36">
         <v>42775</v>
       </c>
-      <c r="F65" s="36">
+      <c r="F65" s="48">
         <v>2017</v>
       </c>
       <c r="G65" s="35" t="s">
@@ -15818,7 +15654,7 @@
       <c r="J65" s="36">
         <v>43031</v>
       </c>
-      <c r="K65" s="36">
+      <c r="K65" s="48">
         <v>2017</v>
       </c>
       <c r="L65" s="35">
@@ -15830,7 +15666,7 @@
       <c r="N65" s="36">
         <v>43112</v>
       </c>
-      <c r="O65" s="36">
+      <c r="O65" s="48">
         <v>2017</v>
       </c>
       <c r="P65" s="35">
@@ -15860,7 +15696,7 @@
       <c r="E66" s="36">
         <v>43012</v>
       </c>
-      <c r="F66" s="36">
+      <c r="F66" s="48">
         <v>2017</v>
       </c>
       <c r="G66" s="35" t="s">
@@ -15875,7 +15711,7 @@
       <c r="J66" s="36">
         <v>43031</v>
       </c>
-      <c r="K66" s="36">
+      <c r="K66" s="48">
         <v>2017</v>
       </c>
       <c r="L66" s="35">
@@ -15887,7 +15723,7 @@
       <c r="N66" s="36">
         <v>43048</v>
       </c>
-      <c r="O66" s="36">
+      <c r="O66" s="48">
         <v>2017</v>
       </c>
       <c r="P66" s="35">
@@ -15917,7 +15753,7 @@
       <c r="E67" s="36">
         <v>42418</v>
       </c>
-      <c r="F67" s="36">
+      <c r="F67" s="48">
         <v>2016</v>
       </c>
       <c r="G67" s="35" t="s">
@@ -15932,7 +15768,7 @@
       <c r="J67" s="36">
         <v>43031</v>
       </c>
-      <c r="K67" s="36">
+      <c r="K67" s="48">
         <v>2017</v>
       </c>
       <c r="L67" s="35">
@@ -15944,7 +15780,7 @@
       <c r="N67" s="36">
         <v>43060</v>
       </c>
-      <c r="O67" s="36">
+      <c r="O67" s="48">
         <v>2017</v>
       </c>
       <c r="P67" s="35">
@@ -15974,7 +15810,7 @@
       <c r="E68" s="36">
         <v>42866</v>
       </c>
-      <c r="F68" s="36">
+      <c r="F68" s="48">
         <v>2017</v>
       </c>
       <c r="G68" s="35" t="s">
@@ -15989,7 +15825,7 @@
       <c r="J68" s="36">
         <v>43031</v>
       </c>
-      <c r="K68" s="36">
+      <c r="K68" s="48">
         <v>2017</v>
       </c>
       <c r="L68" s="35">
@@ -16001,7 +15837,7 @@
       <c r="N68" s="36">
         <v>43111</v>
       </c>
-      <c r="O68" s="36">
+      <c r="O68" s="48">
         <v>2017</v>
       </c>
       <c r="P68" s="35">
@@ -16031,7 +15867,7 @@
       <c r="E69" s="36">
         <v>42831</v>
       </c>
-      <c r="F69" s="36">
+      <c r="F69" s="48">
         <v>2017</v>
       </c>
       <c r="G69" s="35" t="s">
@@ -16046,7 +15882,7 @@
       <c r="J69" s="36">
         <v>43034</v>
       </c>
-      <c r="K69" s="36">
+      <c r="K69" s="48">
         <v>2017</v>
       </c>
       <c r="L69" s="35">
@@ -16058,7 +15894,7 @@
       <c r="N69" s="36">
         <v>43073</v>
       </c>
-      <c r="O69" s="36">
+      <c r="O69" s="48">
         <v>2017</v>
       </c>
       <c r="P69" s="35">
@@ -16088,7 +15924,7 @@
       <c r="E70" s="36">
         <v>42703</v>
       </c>
-      <c r="F70" s="36">
+      <c r="F70" s="48">
         <v>2016</v>
       </c>
       <c r="G70" s="35" t="s">
@@ -16103,7 +15939,7 @@
       <c r="J70" s="36">
         <v>43035</v>
       </c>
-      <c r="K70" s="36">
+      <c r="K70" s="48">
         <v>2017</v>
       </c>
       <c r="L70" s="35">
@@ -16115,7 +15951,7 @@
       <c r="N70" s="36">
         <v>43259</v>
       </c>
-      <c r="O70" s="36">
+      <c r="O70" s="48">
         <v>2017</v>
       </c>
       <c r="P70" s="35">
@@ -16145,7 +15981,7 @@
       <c r="E71" s="36">
         <v>42963</v>
       </c>
-      <c r="F71" s="36">
+      <c r="F71" s="48">
         <v>2017</v>
       </c>
       <c r="G71" s="35" t="s">
@@ -16160,7 +15996,7 @@
       <c r="J71" s="36">
         <v>43035</v>
       </c>
-      <c r="K71" s="36">
+      <c r="K71" s="48">
         <v>2017</v>
       </c>
       <c r="L71" s="35">
@@ -16172,7 +16008,7 @@
       <c r="N71" s="36">
         <v>43137</v>
       </c>
-      <c r="O71" s="36">
+      <c r="O71" s="48">
         <v>2017</v>
       </c>
       <c r="P71" s="35">
@@ -16202,7 +16038,7 @@
       <c r="E72" s="36">
         <v>42958</v>
       </c>
-      <c r="F72" s="36">
+      <c r="F72" s="48">
         <v>2017</v>
       </c>
       <c r="G72" s="35" t="s">
@@ -16217,7 +16053,7 @@
       <c r="J72" s="36">
         <v>43039</v>
       </c>
-      <c r="K72" s="36">
+      <c r="K72" s="48">
         <v>2017</v>
       </c>
       <c r="L72" s="35">
@@ -16229,7 +16065,7 @@
       <c r="N72" s="36">
         <v>43062</v>
       </c>
-      <c r="O72" s="36">
+      <c r="O72" s="48">
         <v>2017</v>
       </c>
       <c r="P72" s="35">
@@ -16259,7 +16095,7 @@
       <c r="E73" s="36">
         <v>42880</v>
       </c>
-      <c r="F73" s="36">
+      <c r="F73" s="48">
         <v>2017</v>
       </c>
       <c r="G73" s="35" t="s">
@@ -16274,7 +16110,7 @@
       <c r="J73" s="36">
         <v>43039</v>
       </c>
-      <c r="K73" s="36">
+      <c r="K73" s="48">
         <v>2017</v>
       </c>
       <c r="L73" s="35">
@@ -16286,7 +16122,7 @@
       <c r="N73" s="36">
         <v>43096</v>
       </c>
-      <c r="O73" s="36">
+      <c r="O73" s="48">
         <v>2017</v>
       </c>
       <c r="P73" s="35">
@@ -16316,7 +16152,7 @@
       <c r="E74" s="36">
         <v>42916</v>
       </c>
-      <c r="F74" s="36">
+      <c r="F74" s="48">
         <v>2017</v>
       </c>
       <c r="G74" s="35" t="s">
@@ -16331,7 +16167,7 @@
       <c r="J74" s="36">
         <v>43039</v>
       </c>
-      <c r="K74" s="36">
+      <c r="K74" s="48">
         <v>2017</v>
       </c>
       <c r="L74" s="35">
@@ -16343,7 +16179,7 @@
       <c r="N74" s="36">
         <v>43080</v>
       </c>
-      <c r="O74" s="36">
+      <c r="O74" s="48">
         <v>2017</v>
       </c>
       <c r="P74" s="35">
@@ -16373,7 +16209,7 @@
       <c r="E75" s="36">
         <v>43007</v>
       </c>
-      <c r="F75" s="36">
+      <c r="F75" s="48">
         <v>2017</v>
       </c>
       <c r="G75" s="35" t="s">
@@ -16388,7 +16224,7 @@
       <c r="J75" s="36">
         <v>43039</v>
       </c>
-      <c r="K75" s="36">
+      <c r="K75" s="48">
         <v>2017</v>
       </c>
       <c r="L75" s="35">
@@ -16400,7 +16236,7 @@
       <c r="N75" s="36">
         <v>43080</v>
       </c>
-      <c r="O75" s="36">
+      <c r="O75" s="48">
         <v>2017</v>
       </c>
       <c r="P75" s="35">
@@ -16430,7 +16266,7 @@
       <c r="E76" s="36">
         <v>42788</v>
       </c>
-      <c r="F76" s="36">
+      <c r="F76" s="48">
         <v>2017</v>
       </c>
       <c r="G76" s="35" t="s">
@@ -16445,7 +16281,7 @@
       <c r="J76" s="36">
         <v>43040</v>
       </c>
-      <c r="K76" s="36">
+      <c r="K76" s="48">
         <v>2017</v>
       </c>
       <c r="L76" s="35">
@@ -16457,7 +16293,7 @@
       <c r="N76" s="36">
         <v>43117</v>
       </c>
-      <c r="O76" s="36">
+      <c r="O76" s="48">
         <v>2017</v>
       </c>
       <c r="P76" s="35">
@@ -16487,7 +16323,7 @@
       <c r="E77" s="36">
         <v>42972</v>
       </c>
-      <c r="F77" s="36">
+      <c r="F77" s="48">
         <v>2017</v>
       </c>
       <c r="G77" s="35" t="s">
@@ -16502,7 +16338,7 @@
       <c r="J77" s="36">
         <v>43041</v>
       </c>
-      <c r="K77" s="36">
+      <c r="K77" s="48">
         <v>2017</v>
       </c>
       <c r="L77" s="35">
@@ -16514,7 +16350,7 @@
       <c r="N77" s="36">
         <v>43064</v>
       </c>
-      <c r="O77" s="36">
+      <c r="O77" s="48">
         <v>2017</v>
       </c>
       <c r="P77" s="35">
@@ -16544,7 +16380,7 @@
       <c r="E78" s="36">
         <v>43025</v>
       </c>
-      <c r="F78" s="36">
+      <c r="F78" s="48">
         <v>2017</v>
       </c>
       <c r="G78" s="35" t="s">
@@ -16559,7 +16395,7 @@
       <c r="J78" s="36">
         <v>43042</v>
       </c>
-      <c r="K78" s="36">
+      <c r="K78" s="48">
         <v>2017</v>
       </c>
       <c r="L78" s="35">
@@ -16571,7 +16407,7 @@
       <c r="N78" s="36">
         <v>43050</v>
       </c>
-      <c r="O78" s="36">
+      <c r="O78" s="48">
         <v>2017</v>
       </c>
       <c r="P78" s="35">
@@ -16601,7 +16437,7 @@
       <c r="E79" s="36">
         <v>43025</v>
       </c>
-      <c r="F79" s="36">
+      <c r="F79" s="48">
         <v>2017</v>
       </c>
       <c r="G79" s="35" t="s">
@@ -16616,7 +16452,7 @@
       <c r="J79" s="36">
         <v>43048</v>
       </c>
-      <c r="K79" s="36">
+      <c r="K79" s="48">
         <v>2017</v>
       </c>
       <c r="L79" s="35">
@@ -16628,7 +16464,7 @@
       <c r="N79" s="36">
         <v>43060</v>
       </c>
-      <c r="O79" s="36">
+      <c r="O79" s="48">
         <v>2017</v>
       </c>
       <c r="P79" s="35">
@@ -16658,7 +16494,7 @@
       <c r="E80" s="36">
         <v>42811</v>
       </c>
-      <c r="F80" s="36">
+      <c r="F80" s="48">
         <v>2017</v>
       </c>
       <c r="G80" s="35" t="s">
@@ -16673,7 +16509,7 @@
       <c r="J80" s="36">
         <v>43074</v>
       </c>
-      <c r="K80" s="36">
+      <c r="K80" s="48">
         <v>2017</v>
       </c>
       <c r="L80" s="35">
@@ -16685,7 +16521,7 @@
       <c r="N80" s="36">
         <v>43130</v>
       </c>
-      <c r="O80" s="36">
+      <c r="O80" s="48">
         <v>2017</v>
       </c>
       <c r="P80" s="35">
@@ -16715,7 +16551,7 @@
       <c r="E81" s="36">
         <v>43007</v>
       </c>
-      <c r="F81" s="36">
+      <c r="F81" s="48">
         <v>2017</v>
       </c>
       <c r="G81" s="35" t="s">
@@ -16730,7 +16566,7 @@
       <c r="J81" s="36">
         <v>43076</v>
       </c>
-      <c r="K81" s="36">
+      <c r="K81" s="48">
         <v>2017</v>
       </c>
       <c r="L81" s="35">
@@ -16742,7 +16578,7 @@
       <c r="N81" s="36">
         <v>43245</v>
       </c>
-      <c r="O81" s="36">
+      <c r="O81" s="48">
         <v>2017</v>
       </c>
       <c r="P81" s="35">
@@ -16772,7 +16608,7 @@
       <c r="E82" s="36">
         <v>42811</v>
       </c>
-      <c r="F82" s="36">
+      <c r="F82" s="48">
         <v>2017</v>
       </c>
       <c r="G82" s="35" t="s">
@@ -16787,7 +16623,7 @@
       <c r="J82" s="36">
         <v>43077</v>
       </c>
-      <c r="K82" s="36">
+      <c r="K82" s="48">
         <v>2017</v>
       </c>
       <c r="L82" s="35">
@@ -16799,7 +16635,7 @@
       <c r="N82" s="36">
         <v>43087</v>
       </c>
-      <c r="O82" s="36">
+      <c r="O82" s="48">
         <v>2017</v>
       </c>
       <c r="P82" s="35">
@@ -16829,7 +16665,7 @@
       <c r="E83" s="36">
         <v>43021</v>
       </c>
-      <c r="F83" s="36">
+      <c r="F83" s="48">
         <v>2017</v>
       </c>
       <c r="G83" s="35" t="s">
@@ -16844,7 +16680,7 @@
       <c r="J83" s="36">
         <v>43097</v>
       </c>
-      <c r="K83" s="36">
+      <c r="K83" s="48">
         <v>2017</v>
       </c>
       <c r="L83" s="35">
@@ -16856,7 +16692,7 @@
       <c r="N83" s="36">
         <v>43097</v>
       </c>
-      <c r="O83" s="36">
+      <c r="O83" s="48">
         <v>2017</v>
       </c>
       <c r="P83" s="35">
@@ -16886,7 +16722,7 @@
       <c r="E84" s="36">
         <v>42642</v>
       </c>
-      <c r="F84" s="36">
+      <c r="F84" s="48">
         <v>2016</v>
       </c>
       <c r="G84" s="35" t="s">
@@ -16901,7 +16737,7 @@
       <c r="J84" s="36">
         <v>43104</v>
       </c>
-      <c r="K84" s="36">
+      <c r="K84" s="48">
         <v>2018</v>
       </c>
       <c r="L84" s="35">
@@ -16913,7 +16749,7 @@
       <c r="N84" s="36">
         <v>43153</v>
       </c>
-      <c r="O84" s="36">
+      <c r="O84" s="48">
         <v>2018</v>
       </c>
       <c r="P84" s="35">
@@ -16943,7 +16779,7 @@
       <c r="E85" s="36">
         <v>42368</v>
       </c>
-      <c r="F85" s="36">
+      <c r="F85" s="48">
         <v>2015</v>
       </c>
       <c r="G85" s="35" t="s">
@@ -16958,7 +16794,7 @@
       <c r="J85" s="36">
         <v>43105</v>
       </c>
-      <c r="K85" s="36">
+      <c r="K85" s="48">
         <v>2018</v>
       </c>
       <c r="L85" s="35">
@@ -16970,7 +16806,7 @@
       <c r="N85" s="36">
         <v>43130</v>
       </c>
-      <c r="O85" s="36">
+      <c r="O85" s="48">
         <v>2018</v>
       </c>
       <c r="P85" s="35">
@@ -17000,7 +16836,7 @@
       <c r="E86" s="36">
         <v>42368</v>
       </c>
-      <c r="F86" s="36">
+      <c r="F86" s="48">
         <v>2015</v>
       </c>
       <c r="G86" s="35" t="s">
@@ -17015,7 +16851,7 @@
       <c r="J86" s="36">
         <v>43105</v>
       </c>
-      <c r="K86" s="36">
+      <c r="K86" s="48">
         <v>2018</v>
       </c>
       <c r="L86" s="35">
@@ -17027,7 +16863,7 @@
       <c r="N86" s="36">
         <v>43130</v>
       </c>
-      <c r="O86" s="36">
+      <c r="O86" s="48">
         <v>2018</v>
       </c>
       <c r="P86" s="35">
@@ -17057,7 +16893,7 @@
       <c r="E87" s="36">
         <v>42831</v>
       </c>
-      <c r="F87" s="36">
+      <c r="F87" s="48">
         <v>2017</v>
       </c>
       <c r="G87" s="35" t="s">
@@ -17072,7 +16908,7 @@
       <c r="J87" s="36">
         <v>43108</v>
       </c>
-      <c r="K87" s="36">
+      <c r="K87" s="48">
         <v>2018</v>
       </c>
       <c r="L87" s="35">
@@ -17084,7 +16920,7 @@
       <c r="N87" s="36">
         <v>43173</v>
       </c>
-      <c r="O87" s="36">
+      <c r="O87" s="48">
         <v>2018</v>
       </c>
       <c r="P87" s="35">
@@ -17114,7 +16950,7 @@
       <c r="E88" s="36">
         <v>43095</v>
       </c>
-      <c r="F88" s="36">
+      <c r="F88" s="48">
         <v>2017</v>
       </c>
       <c r="G88" s="35" t="s">
@@ -17129,7 +16965,7 @@
       <c r="J88" s="36">
         <v>43108</v>
       </c>
-      <c r="K88" s="36">
+      <c r="K88" s="48">
         <v>2018</v>
       </c>
       <c r="L88" s="35">
@@ -17141,7 +16977,7 @@
       <c r="N88" s="36">
         <v>43213</v>
       </c>
-      <c r="O88" s="36">
+      <c r="O88" s="48">
         <v>2018</v>
       </c>
       <c r="P88" s="35">
@@ -17171,7 +17007,7 @@
       <c r="E89" s="36">
         <v>43034</v>
       </c>
-      <c r="F89" s="36">
+      <c r="F89" s="48">
         <v>2017</v>
       </c>
       <c r="G89" s="35" t="s">
@@ -17186,7 +17022,7 @@
       <c r="J89" s="36">
         <v>43108</v>
       </c>
-      <c r="K89" s="36">
+      <c r="K89" s="48">
         <v>2018</v>
       </c>
       <c r="L89" s="35">
@@ -17198,7 +17034,7 @@
       <c r="N89" s="36">
         <v>43070</v>
       </c>
-      <c r="O89" s="36">
+      <c r="O89" s="48">
         <v>2018</v>
       </c>
       <c r="P89" s="35">
@@ -17228,7 +17064,7 @@
       <c r="E90" s="36">
         <v>42958</v>
       </c>
-      <c r="F90" s="36">
+      <c r="F90" s="48">
         <v>2017</v>
       </c>
       <c r="G90" s="35" t="s">
@@ -17243,7 +17079,7 @@
       <c r="J90" s="36">
         <v>43112</v>
       </c>
-      <c r="K90" s="36">
+      <c r="K90" s="48">
         <v>2018</v>
       </c>
       <c r="L90" s="35">
@@ -17255,7 +17091,7 @@
       <c r="N90" s="36">
         <v>43136</v>
       </c>
-      <c r="O90" s="36">
+      <c r="O90" s="48">
         <v>2018</v>
       </c>
       <c r="P90" s="35">
@@ -17285,7 +17121,7 @@
       <c r="E91" s="36">
         <v>42724</v>
       </c>
-      <c r="F91" s="36">
+      <c r="F91" s="48">
         <v>2016</v>
       </c>
       <c r="G91" s="35" t="s">
@@ -17300,7 +17136,7 @@
       <c r="J91" s="36">
         <v>43112</v>
       </c>
-      <c r="K91" s="36">
+      <c r="K91" s="48">
         <v>2018</v>
       </c>
       <c r="L91" s="35">
@@ -17312,7 +17148,7 @@
       <c r="N91" s="36">
         <v>43237</v>
       </c>
-      <c r="O91" s="36">
+      <c r="O91" s="48">
         <v>2018</v>
       </c>
       <c r="P91" s="35">
@@ -17342,7 +17178,7 @@
       <c r="E92" s="36">
         <v>43105</v>
       </c>
-      <c r="F92" s="36">
+      <c r="F92" s="48">
         <v>2018</v>
       </c>
       <c r="G92" s="35" t="s">
@@ -17357,7 +17193,7 @@
       <c r="J92" s="36">
         <v>43125</v>
       </c>
-      <c r="K92" s="36">
+      <c r="K92" s="48">
         <v>2018</v>
       </c>
       <c r="L92" s="35">
@@ -17369,7 +17205,7 @@
       <c r="N92" s="36">
         <v>43157</v>
       </c>
-      <c r="O92" s="36">
+      <c r="O92" s="48">
         <v>2018</v>
       </c>
       <c r="P92" s="35">
@@ -17399,7 +17235,7 @@
       <c r="E93" s="36">
         <v>42556</v>
       </c>
-      <c r="F93" s="36">
+      <c r="F93" s="48">
         <v>2016</v>
       </c>
       <c r="G93" s="35" t="s">
@@ -17414,7 +17250,7 @@
       <c r="J93" s="36">
         <v>43130</v>
       </c>
-      <c r="K93" s="36">
+      <c r="K93" s="48">
         <v>2018</v>
       </c>
       <c r="L93" s="35">
@@ -17426,7 +17262,7 @@
       <c r="N93" s="36">
         <v>43136</v>
       </c>
-      <c r="O93" s="36">
+      <c r="O93" s="48">
         <v>2018</v>
       </c>
       <c r="P93" s="35">
@@ -17456,7 +17292,7 @@
       <c r="E94" s="36">
         <v>43070</v>
       </c>
-      <c r="F94" s="36">
+      <c r="F94" s="48">
         <v>2017</v>
       </c>
       <c r="G94" s="35" t="s">
@@ -17471,7 +17307,7 @@
       <c r="J94" s="36">
         <v>43131</v>
       </c>
-      <c r="K94" s="36">
+      <c r="K94" s="48">
         <v>2018</v>
       </c>
       <c r="L94" s="35">
@@ -17483,7 +17319,7 @@
       <c r="N94" s="36">
         <v>43173</v>
       </c>
-      <c r="O94" s="36">
+      <c r="O94" s="48">
         <v>2018</v>
       </c>
       <c r="P94" s="35">
@@ -17513,7 +17349,7 @@
       <c r="E95" s="36">
         <v>42368</v>
       </c>
-      <c r="F95" s="36">
+      <c r="F95" s="48">
         <v>2015</v>
       </c>
       <c r="G95" s="35" t="s">
@@ -17528,7 +17364,7 @@
       <c r="J95" s="36">
         <v>43146</v>
       </c>
-      <c r="K95" s="36">
+      <c r="K95" s="48">
         <v>2018</v>
       </c>
       <c r="L95" s="35">
@@ -17540,7 +17376,7 @@
       <c r="N95" s="36">
         <v>43193</v>
       </c>
-      <c r="O95" s="36">
+      <c r="O95" s="48">
         <v>2018</v>
       </c>
       <c r="P95" s="35">
@@ -17570,7 +17406,7 @@
       <c r="E96" s="36">
         <v>43034</v>
       </c>
-      <c r="F96" s="36">
+      <c r="F96" s="48">
         <v>2017</v>
       </c>
       <c r="G96" s="35" t="s">
@@ -17585,7 +17421,7 @@
       <c r="J96" s="36">
         <v>43150</v>
       </c>
-      <c r="K96" s="36">
+      <c r="K96" s="48">
         <v>2018</v>
       </c>
       <c r="L96" s="35">
@@ -17597,7 +17433,7 @@
       <c r="N96" s="36">
         <v>43201</v>
       </c>
-      <c r="O96" s="36">
+      <c r="O96" s="48">
         <v>2018</v>
       </c>
       <c r="P96" s="35">
@@ -17627,7 +17463,7 @@
       <c r="E97" s="36">
         <v>43126</v>
       </c>
-      <c r="F97" s="36">
+      <c r="F97" s="48">
         <v>2018</v>
       </c>
       <c r="G97" s="35" t="s">
@@ -17642,7 +17478,7 @@
       <c r="J97" s="36">
         <v>43160</v>
       </c>
-      <c r="K97" s="36">
+      <c r="K97" s="48">
         <v>2018</v>
       </c>
       <c r="L97" s="35">
@@ -17654,7 +17490,7 @@
       <c r="N97" s="36">
         <v>43217</v>
       </c>
-      <c r="O97" s="36">
+      <c r="O97" s="48">
         <v>2018</v>
       </c>
       <c r="P97" s="35">
@@ -17684,7 +17520,7 @@
       <c r="E98" s="36">
         <v>42846</v>
       </c>
-      <c r="F98" s="36">
+      <c r="F98" s="48">
         <v>2017</v>
       </c>
       <c r="G98" s="35" t="s">
@@ -17699,7 +17535,7 @@
       <c r="J98" s="36">
         <v>43161</v>
       </c>
-      <c r="K98" s="36">
+      <c r="K98" s="48">
         <v>2018</v>
       </c>
       <c r="L98" s="35">
@@ -17711,7 +17547,7 @@
       <c r="N98" s="36">
         <v>43161</v>
       </c>
-      <c r="O98" s="36">
+      <c r="O98" s="48">
         <v>2018</v>
       </c>
       <c r="P98" s="35">
@@ -17741,7 +17577,7 @@
       <c r="E99" s="36">
         <v>43151</v>
       </c>
-      <c r="F99" s="36">
+      <c r="F99" s="48">
         <v>2018</v>
       </c>
       <c r="G99" s="35" t="s">
@@ -17756,7 +17592,7 @@
       <c r="J99" s="36">
         <v>43173</v>
       </c>
-      <c r="K99" s="36">
+      <c r="K99" s="48">
         <v>2018</v>
       </c>
       <c r="L99" s="35">
@@ -17768,7 +17604,7 @@
       <c r="N99" s="36">
         <v>43188</v>
       </c>
-      <c r="O99" s="36">
+      <c r="O99" s="48">
         <v>2018</v>
       </c>
       <c r="P99" s="35">
@@ -17798,7 +17634,7 @@
       <c r="E100" s="36">
         <v>42502</v>
       </c>
-      <c r="F100" s="36">
+      <c r="F100" s="48">
         <v>2016</v>
       </c>
       <c r="G100" s="35" t="s">
@@ -17813,7 +17649,7 @@
       <c r="J100" s="36">
         <v>43174</v>
       </c>
-      <c r="K100" s="36">
+      <c r="K100" s="48">
         <v>2018</v>
       </c>
       <c r="L100" s="35">
@@ -17825,7 +17661,7 @@
       <c r="N100" s="36">
         <v>43203</v>
       </c>
-      <c r="O100" s="36">
+      <c r="O100" s="48">
         <v>2018</v>
       </c>
       <c r="P100" s="35">
@@ -17855,7 +17691,7 @@
       <c r="E101" s="36">
         <v>42528</v>
       </c>
-      <c r="F101" s="36">
+      <c r="F101" s="48">
         <v>2016</v>
       </c>
       <c r="G101" s="35" t="s">
@@ -17870,7 +17706,7 @@
       <c r="J101" s="36">
         <v>43174</v>
       </c>
-      <c r="K101" s="36">
+      <c r="K101" s="48">
         <v>2018</v>
       </c>
       <c r="L101" s="35">
@@ -17882,7 +17718,7 @@
       <c r="N101" s="36">
         <v>43203</v>
       </c>
-      <c r="O101" s="36">
+      <c r="O101" s="48">
         <v>2018</v>
       </c>
       <c r="P101" s="35">
@@ -17912,7 +17748,7 @@
       <c r="E102" s="36">
         <v>43025</v>
       </c>
-      <c r="F102" s="36">
+      <c r="F102" s="48">
         <v>2017</v>
       </c>
       <c r="G102" s="35" t="s">
@@ -17927,7 +17763,7 @@
       <c r="J102" s="36">
         <v>43180</v>
       </c>
-      <c r="K102" s="36">
+      <c r="K102" s="48">
         <v>2018</v>
       </c>
       <c r="L102" s="35">
@@ -17939,7 +17775,7 @@
       <c r="N102" s="36">
         <v>43271</v>
       </c>
-      <c r="O102" s="36">
+      <c r="O102" s="48">
         <v>2018</v>
       </c>
       <c r="P102" s="35">
@@ -17969,7 +17805,7 @@
       <c r="E103" s="36">
         <v>43157</v>
       </c>
-      <c r="F103" s="36">
+      <c r="F103" s="48">
         <v>2018</v>
       </c>
       <c r="G103" s="35" t="s">
@@ -17984,7 +17820,7 @@
       <c r="J103" s="36">
         <v>43181</v>
       </c>
-      <c r="K103" s="36">
+      <c r="K103" s="48">
         <v>2018</v>
       </c>
       <c r="L103" s="35">
@@ -17996,7 +17832,7 @@
       <c r="N103" s="36">
         <v>43205</v>
       </c>
-      <c r="O103" s="36">
+      <c r="O103" s="48">
         <v>2018</v>
       </c>
       <c r="P103" s="35">
@@ -18026,7 +17862,7 @@
       <c r="E104" s="36">
         <v>42811</v>
       </c>
-      <c r="F104" s="36">
+      <c r="F104" s="48">
         <v>2017</v>
       </c>
       <c r="G104" s="35" t="s">
@@ -18041,7 +17877,7 @@
       <c r="J104" s="36">
         <v>43185</v>
       </c>
-      <c r="K104" s="36">
+      <c r="K104" s="48">
         <v>2018</v>
       </c>
       <c r="L104" s="35">
@@ -18053,7 +17889,7 @@
       <c r="N104" s="36">
         <v>43185</v>
       </c>
-      <c r="O104" s="36">
+      <c r="O104" s="48">
         <v>2018</v>
       </c>
       <c r="P104" s="35">
@@ -18083,7 +17919,7 @@
       <c r="E105" s="36">
         <v>42811</v>
       </c>
-      <c r="F105" s="36">
+      <c r="F105" s="48">
         <v>2017</v>
       </c>
       <c r="G105" s="35" t="s">
@@ -18098,7 +17934,7 @@
       <c r="J105" s="36">
         <v>43185</v>
       </c>
-      <c r="K105" s="36">
+      <c r="K105" s="48">
         <v>2018</v>
       </c>
       <c r="L105" s="35">
@@ -18110,7 +17946,7 @@
       <c r="N105" s="36">
         <v>43185</v>
       </c>
-      <c r="O105" s="36">
+      <c r="O105" s="48">
         <v>2018</v>
       </c>
       <c r="P105" s="35">
@@ -18140,7 +17976,7 @@
       <c r="E106" s="36">
         <v>43161</v>
       </c>
-      <c r="F106" s="36">
+      <c r="F106" s="48">
         <v>2018</v>
       </c>
       <c r="G106" s="35" t="s">
@@ -18155,7 +17991,7 @@
       <c r="J106" s="36">
         <v>43186</v>
       </c>
-      <c r="K106" s="36">
+      <c r="K106" s="48">
         <v>2018</v>
       </c>
       <c r="L106" s="35">
@@ -18167,7 +18003,7 @@
       <c r="N106" s="36">
         <v>43244</v>
       </c>
-      <c r="O106" s="36">
+      <c r="O106" s="48">
         <v>2018</v>
       </c>
       <c r="P106" s="35">
@@ -18197,7 +18033,7 @@
       <c r="E107" s="36">
         <v>43012</v>
       </c>
-      <c r="F107" s="36">
+      <c r="F107" s="48">
         <v>2017</v>
       </c>
       <c r="G107" s="35" t="s">
@@ -18212,7 +18048,7 @@
       <c r="J107" s="36">
         <v>43188</v>
       </c>
-      <c r="K107" s="36">
+      <c r="K107" s="48">
         <v>2018</v>
       </c>
       <c r="L107" s="35">
@@ -18224,7 +18060,7 @@
       <c r="N107" s="36">
         <v>43201</v>
       </c>
-      <c r="O107" s="36">
+      <c r="O107" s="48">
         <v>2018</v>
       </c>
       <c r="P107" s="35">
@@ -18254,7 +18090,7 @@
       <c r="E108" s="36">
         <v>42773</v>
       </c>
-      <c r="F108" s="36">
+      <c r="F108" s="48">
         <v>2017</v>
       </c>
       <c r="G108" s="35" t="s">
@@ -18269,7 +18105,7 @@
       <c r="J108" s="36">
         <v>43189</v>
       </c>
-      <c r="K108" s="36">
+      <c r="K108" s="48">
         <v>2018</v>
       </c>
       <c r="L108" s="35">
@@ -18281,7 +18117,7 @@
       <c r="N108" s="36">
         <v>43231</v>
       </c>
-      <c r="O108" s="36">
+      <c r="O108" s="48">
         <v>2018</v>
       </c>
       <c r="P108" s="35">
@@ -18311,7 +18147,7 @@
       <c r="E109" s="36">
         <v>42824</v>
       </c>
-      <c r="F109" s="36">
+      <c r="F109" s="48">
         <v>2017</v>
       </c>
       <c r="G109" s="35" t="s">
@@ -18326,7 +18162,7 @@
       <c r="J109" s="36">
         <v>43192</v>
       </c>
-      <c r="K109" s="36">
+      <c r="K109" s="48">
         <v>2018</v>
       </c>
       <c r="L109" s="35">
@@ -18338,7 +18174,7 @@
       <c r="N109" s="36">
         <v>43214</v>
       </c>
-      <c r="O109" s="36">
+      <c r="O109" s="48">
         <v>2018</v>
       </c>
       <c r="P109" s="35">
@@ -18368,7 +18204,7 @@
       <c r="E110" s="36">
         <v>43161</v>
       </c>
-      <c r="F110" s="36">
+      <c r="F110" s="48">
         <v>2018</v>
       </c>
       <c r="G110" s="35" t="s">
@@ -18383,7 +18219,7 @@
       <c r="J110" s="36">
         <v>43201</v>
       </c>
-      <c r="K110" s="36">
+      <c r="K110" s="48">
         <v>2018</v>
       </c>
       <c r="L110" s="35">
@@ -18395,7 +18231,7 @@
       <c r="N110" s="36">
         <v>43244</v>
       </c>
-      <c r="O110" s="36">
+      <c r="O110" s="48">
         <v>2018</v>
       </c>
       <c r="P110" s="35">
@@ -18425,7 +18261,7 @@
       <c r="E111" s="36">
         <v>42642</v>
       </c>
-      <c r="F111" s="36">
+      <c r="F111" s="48">
         <v>2016</v>
       </c>
       <c r="G111" s="35" t="s">
@@ -18440,7 +18276,7 @@
       <c r="J111" s="36">
         <v>43201</v>
       </c>
-      <c r="K111" s="36">
+      <c r="K111" s="48">
         <v>2018</v>
       </c>
       <c r="L111" s="35">
@@ -18452,7 +18288,7 @@
       <c r="N111" s="36">
         <v>43320</v>
       </c>
-      <c r="O111" s="36">
+      <c r="O111" s="48">
         <v>2018</v>
       </c>
       <c r="P111" s="35">
@@ -18482,7 +18318,7 @@
       <c r="E112" s="36">
         <v>43178</v>
       </c>
-      <c r="F112" s="36">
+      <c r="F112" s="48">
         <v>2018</v>
       </c>
       <c r="G112" s="35" t="s">
@@ -18497,7 +18333,7 @@
       <c r="J112" s="36">
         <v>43202</v>
       </c>
-      <c r="K112" s="36">
+      <c r="K112" s="48">
         <v>2018</v>
       </c>
       <c r="L112" s="35">
@@ -18509,7 +18345,7 @@
       <c r="N112" s="36">
         <v>43202</v>
       </c>
-      <c r="O112" s="36">
+      <c r="O112" s="48">
         <v>2018</v>
       </c>
       <c r="P112" s="35">
@@ -18539,7 +18375,7 @@
       <c r="E113" s="36">
         <v>43147</v>
       </c>
-      <c r="F113" s="36">
+      <c r="F113" s="48">
         <v>2018</v>
       </c>
       <c r="G113" s="35" t="s">
@@ -18554,7 +18390,7 @@
       <c r="J113" s="36">
         <v>43202</v>
       </c>
-      <c r="K113" s="36">
+      <c r="K113" s="48">
         <v>2018</v>
       </c>
       <c r="L113" s="35">
@@ -18566,7 +18402,7 @@
       <c r="N113" s="36">
         <v>43231</v>
       </c>
-      <c r="O113" s="36">
+      <c r="O113" s="48">
         <v>2018</v>
       </c>
       <c r="P113" s="35">
@@ -18596,7 +18432,7 @@
       <c r="E114" s="36">
         <v>43161</v>
       </c>
-      <c r="F114" s="36">
+      <c r="F114" s="48">
         <v>2018</v>
       </c>
       <c r="G114" s="35" t="s">
@@ -18611,7 +18447,7 @@
       <c r="J114" s="36">
         <v>43227</v>
       </c>
-      <c r="K114" s="36">
+      <c r="K114" s="48">
         <v>2018</v>
       </c>
       <c r="L114" s="35">
@@ -18623,7 +18459,7 @@
       <c r="N114" s="36">
         <v>43244</v>
       </c>
-      <c r="O114" s="36">
+      <c r="O114" s="48">
         <v>2018</v>
       </c>
       <c r="P114" s="35">
@@ -18653,7 +18489,7 @@
       <c r="E115" s="36">
         <v>43216</v>
       </c>
-      <c r="F115" s="36">
+      <c r="F115" s="48">
         <v>2018</v>
       </c>
       <c r="G115" s="35" t="s">
@@ -18668,7 +18504,7 @@
       <c r="J115" s="36">
         <v>43238</v>
       </c>
-      <c r="K115" s="36">
+      <c r="K115" s="48">
         <v>2018</v>
       </c>
       <c r="L115" s="35">
@@ -18680,7 +18516,7 @@
       <c r="N115" s="36">
         <v>43283</v>
       </c>
-      <c r="O115" s="36">
+      <c r="O115" s="48">
         <v>2018</v>
       </c>
       <c r="P115" s="35">
@@ -18710,7 +18546,7 @@
       <c r="E116" s="36">
         <v>43193</v>
       </c>
-      <c r="F116" s="36">
+      <c r="F116" s="48">
         <v>2018</v>
       </c>
       <c r="G116" s="35" t="s">
@@ -18725,7 +18561,7 @@
       <c r="J116" s="36">
         <v>43238</v>
       </c>
-      <c r="K116" s="36">
+      <c r="K116" s="48">
         <v>2018</v>
       </c>
       <c r="L116" s="35">
@@ -18737,7 +18573,7 @@
       <c r="N116" s="36">
         <v>43238</v>
       </c>
-      <c r="O116" s="36">
+      <c r="O116" s="48">
         <v>2018</v>
       </c>
       <c r="P116" s="35">
@@ -18767,7 +18603,7 @@
       <c r="E117" s="36">
         <v>43213</v>
       </c>
-      <c r="F117" s="36">
+      <c r="F117" s="48">
         <v>2018</v>
       </c>
       <c r="G117" s="35" t="s">
@@ -18782,7 +18618,7 @@
       <c r="J117" s="36">
         <v>43243</v>
       </c>
-      <c r="K117" s="36">
+      <c r="K117" s="48">
         <v>2018</v>
       </c>
       <c r="L117" s="35">
@@ -18794,7 +18630,7 @@
       <c r="N117" s="36">
         <v>43252</v>
       </c>
-      <c r="O117" s="36">
+      <c r="O117" s="48">
         <v>2018</v>
       </c>
       <c r="P117" s="35">
@@ -18824,7 +18660,7 @@
       <c r="E118" s="36">
         <v>43209</v>
       </c>
-      <c r="F118" s="36">
+      <c r="F118" s="48">
         <v>2018</v>
       </c>
       <c r="G118" s="35" t="s">
@@ -18839,7 +18675,7 @@
       <c r="J118" s="36">
         <v>43245</v>
       </c>
-      <c r="K118" s="36">
+      <c r="K118" s="48">
         <v>2018</v>
       </c>
       <c r="L118" s="35">
@@ -18851,7 +18687,7 @@
       <c r="N118" s="36">
         <v>43252</v>
       </c>
-      <c r="O118" s="36">
+      <c r="O118" s="48">
         <v>2018</v>
       </c>
       <c r="P118" s="35">
@@ -18881,7 +18717,7 @@
       <c r="E119" s="36">
         <v>43223</v>
       </c>
-      <c r="F119" s="36">
+      <c r="F119" s="48">
         <v>2018</v>
       </c>
       <c r="G119" s="35" t="s">
@@ -18896,7 +18732,7 @@
       <c r="J119" s="36">
         <v>43249</v>
       </c>
-      <c r="K119" s="36">
+      <c r="K119" s="48">
         <v>2018</v>
       </c>
       <c r="L119" s="35">
@@ -18908,7 +18744,7 @@
       <c r="N119" s="36">
         <v>43249</v>
       </c>
-      <c r="O119" s="36">
+      <c r="O119" s="48">
         <v>2018</v>
       </c>
       <c r="P119" s="35">
@@ -18938,7 +18774,7 @@
       <c r="E120" s="36">
         <v>43231</v>
       </c>
-      <c r="F120" s="36">
+      <c r="F120" s="48">
         <v>2018</v>
       </c>
       <c r="G120" s="35" t="s">
@@ -18953,7 +18789,7 @@
       <c r="J120" s="36">
         <v>43250</v>
       </c>
-      <c r="K120" s="36">
+      <c r="K120" s="48">
         <v>2018</v>
       </c>
       <c r="L120" s="35">
@@ -18965,7 +18801,7 @@
       <c r="N120" s="36">
         <v>43252</v>
       </c>
-      <c r="O120" s="36">
+      <c r="O120" s="48">
         <v>2018</v>
       </c>
       <c r="P120" s="35">
@@ -18995,7 +18831,7 @@
       <c r="E121" s="36">
         <v>43216</v>
       </c>
-      <c r="F121" s="36">
+      <c r="F121" s="48">
         <v>2018</v>
       </c>
       <c r="G121" s="35" t="s">
@@ -19010,7 +18846,7 @@
       <c r="J121" s="36">
         <v>43252</v>
       </c>
-      <c r="K121" s="36">
+      <c r="K121" s="48">
         <v>2018</v>
       </c>
       <c r="L121" s="35">
@@ -19022,7 +18858,7 @@
       <c r="N121" s="36">
         <v>43269</v>
       </c>
-      <c r="O121" s="36">
+      <c r="O121" s="48">
         <v>2018</v>
       </c>
       <c r="P121" s="35">
@@ -19052,7 +18888,7 @@
       <c r="E122" s="36">
         <v>42773</v>
       </c>
-      <c r="F122" s="36">
+      <c r="F122" s="48">
         <v>2017</v>
       </c>
       <c r="G122" s="35" t="s">
@@ -19067,7 +18903,7 @@
       <c r="J122" s="36">
         <v>43252</v>
       </c>
-      <c r="K122" s="36">
+      <c r="K122" s="48">
         <v>2018</v>
       </c>
       <c r="L122" s="35">
@@ -19079,7 +18915,7 @@
       <c r="N122" s="36">
         <v>43257</v>
       </c>
-      <c r="O122" s="36">
+      <c r="O122" s="48">
         <v>2018</v>
       </c>
       <c r="P122" s="35">
@@ -19109,7 +18945,7 @@
       <c r="E123" s="36">
         <v>42356</v>
       </c>
-      <c r="F123" s="36">
+      <c r="F123" s="48">
         <v>2015</v>
       </c>
       <c r="G123" s="35" t="s">
@@ -19124,7 +18960,7 @@
       <c r="J123" s="36">
         <v>43252</v>
       </c>
-      <c r="K123" s="36">
+      <c r="K123" s="48">
         <v>2018</v>
       </c>
       <c r="L123" s="35">
@@ -19136,7 +18972,7 @@
       <c r="N123" s="36">
         <v>43259</v>
       </c>
-      <c r="O123" s="36">
+      <c r="O123" s="48">
         <v>2018</v>
       </c>
       <c r="P123" s="35">
@@ -19166,7 +19002,7 @@
       <c r="E124" s="36">
         <v>42915</v>
       </c>
-      <c r="F124" s="36">
+      <c r="F124" s="48">
         <v>2017</v>
       </c>
       <c r="G124" s="35" t="s">
@@ -19181,7 +19017,7 @@
       <c r="J124" s="36">
         <v>43256</v>
       </c>
-      <c r="K124" s="36">
+      <c r="K124" s="48">
         <v>2018</v>
       </c>
       <c r="L124" s="35">
@@ -19193,7 +19029,7 @@
       <c r="N124" s="36">
         <v>43350</v>
       </c>
-      <c r="O124" s="36">
+      <c r="O124" s="48">
         <v>2018</v>
       </c>
       <c r="P124" s="35">
@@ -19223,7 +19059,7 @@
       <c r="E125" s="36">
         <v>43244</v>
       </c>
-      <c r="F125" s="36">
+      <c r="F125" s="48">
         <v>2018</v>
       </c>
       <c r="G125" s="35" t="s">
@@ -19238,7 +19074,7 @@
       <c r="J125" s="36">
         <v>43263</v>
       </c>
-      <c r="K125" s="36">
+      <c r="K125" s="48">
         <v>2018</v>
       </c>
       <c r="L125" s="35">
@@ -19250,7 +19086,7 @@
       <c r="N125" s="36">
         <v>43273</v>
       </c>
-      <c r="O125" s="36">
+      <c r="O125" s="48">
         <v>2018</v>
       </c>
       <c r="P125" s="35">
@@ -19280,7 +19116,7 @@
       <c r="E126" s="36">
         <v>43249</v>
       </c>
-      <c r="F126" s="36">
+      <c r="F126" s="48">
         <v>2018</v>
       </c>
       <c r="G126" s="35" t="s">
@@ -19295,7 +19131,7 @@
       <c r="J126" s="36">
         <v>43263</v>
       </c>
-      <c r="K126" s="36">
+      <c r="K126" s="48">
         <v>2018</v>
       </c>
       <c r="L126" s="35">
@@ -19307,7 +19143,7 @@
       <c r="N126" s="36">
         <v>43277</v>
       </c>
-      <c r="O126" s="36">
+      <c r="O126" s="48">
         <v>2018</v>
       </c>
       <c r="P126" s="35">
@@ -19337,7 +19173,7 @@
       <c r="E127" s="36">
         <v>43035</v>
       </c>
-      <c r="F127" s="36">
+      <c r="F127" s="48">
         <v>2017</v>
       </c>
       <c r="G127" s="35" t="s">
@@ -19352,7 +19188,7 @@
       <c r="J127" s="36">
         <v>43264</v>
       </c>
-      <c r="K127" s="36">
+      <c r="K127" s="48">
         <v>2018</v>
       </c>
       <c r="L127" s="35">
@@ -19364,7 +19200,7 @@
       <c r="N127" s="36">
         <v>43398</v>
       </c>
-      <c r="O127" s="36">
+      <c r="O127" s="48">
         <v>2018</v>
       </c>
       <c r="P127" s="35">
@@ -19394,7 +19230,7 @@
       <c r="E128" s="36">
         <v>43249</v>
       </c>
-      <c r="F128" s="36">
+      <c r="F128" s="48">
         <v>2018</v>
       </c>
       <c r="G128" s="35" t="s">
@@ -19409,7 +19245,7 @@
       <c r="J128" s="36">
         <v>43266</v>
       </c>
-      <c r="K128" s="36">
+      <c r="K128" s="48">
         <v>2018</v>
       </c>
       <c r="L128" s="35">
@@ -19421,7 +19257,7 @@
       <c r="N128" s="36">
         <v>43277</v>
       </c>
-      <c r="O128" s="36">
+      <c r="O128" s="48">
         <v>2018</v>
       </c>
       <c r="P128" s="35">
@@ -19451,7 +19287,7 @@
       <c r="E129" s="36">
         <v>43034</v>
       </c>
-      <c r="F129" s="36">
+      <c r="F129" s="48">
         <v>2017</v>
       </c>
       <c r="G129" s="35" t="s">
@@ -19466,7 +19302,7 @@
       <c r="J129" s="36">
         <v>43266</v>
       </c>
-      <c r="K129" s="36">
+      <c r="K129" s="48">
         <v>2018</v>
       </c>
       <c r="L129" s="35">
@@ -19478,7 +19314,7 @@
       <c r="N129" s="36">
         <v>43273</v>
       </c>
-      <c r="O129" s="36">
+      <c r="O129" s="48">
         <v>2018</v>
       </c>
       <c r="P129" s="35">
@@ -19508,7 +19344,7 @@
       <c r="E130" s="36">
         <v>42837</v>
       </c>
-      <c r="F130" s="36">
+      <c r="F130" s="48">
         <v>2017</v>
       </c>
       <c r="G130" s="35" t="s">
@@ -19523,7 +19359,7 @@
       <c r="J130" s="36">
         <v>43270</v>
       </c>
-      <c r="K130" s="36">
+      <c r="K130" s="48">
         <v>2018</v>
       </c>
       <c r="L130" s="35">
@@ -19535,7 +19371,7 @@
       <c r="N130" s="36">
         <v>43354</v>
       </c>
-      <c r="O130" s="36">
+      <c r="O130" s="48">
         <v>2018</v>
       </c>
       <c r="P130" s="35">
@@ -19565,7 +19401,7 @@
       <c r="E131" s="36">
         <v>43080</v>
       </c>
-      <c r="F131" s="36">
+      <c r="F131" s="48">
         <v>2017</v>
       </c>
       <c r="G131" s="35" t="s">
@@ -19580,7 +19416,7 @@
       <c r="J131" s="36">
         <v>43276</v>
       </c>
-      <c r="K131" s="36">
+      <c r="K131" s="48">
         <v>2018</v>
       </c>
       <c r="L131" s="35">
@@ -19592,7 +19428,7 @@
       <c r="N131" s="36">
         <v>43283</v>
       </c>
-      <c r="O131" s="36">
+      <c r="O131" s="48">
         <v>2018</v>
       </c>
       <c r="P131" s="35">
@@ -19622,7 +19458,7 @@
       <c r="E132" s="36">
         <v>42720</v>
       </c>
-      <c r="F132" s="36">
+      <c r="F132" s="48">
         <v>2016</v>
       </c>
       <c r="G132" s="35" t="s">
@@ -19637,7 +19473,7 @@
       <c r="J132" s="36">
         <v>43276</v>
       </c>
-      <c r="K132" s="36">
+      <c r="K132" s="48">
         <v>2018</v>
       </c>
       <c r="L132" s="35">
@@ -19649,7 +19485,7 @@
       <c r="N132" s="36">
         <v>43376</v>
       </c>
-      <c r="O132" s="36">
+      <c r="O132" s="48">
         <v>2018</v>
       </c>
       <c r="P132" s="35">
@@ -19679,7 +19515,7 @@
       <c r="E133" s="36">
         <v>42809</v>
       </c>
-      <c r="F133" s="36">
+      <c r="F133" s="48">
         <v>2017</v>
       </c>
       <c r="G133" s="35" t="s">
@@ -19694,7 +19530,7 @@
       <c r="J133" s="36">
         <v>43279</v>
       </c>
-      <c r="K133" s="36">
+      <c r="K133" s="48">
         <v>2018</v>
       </c>
       <c r="L133" s="35">
@@ -19706,7 +19542,7 @@
       <c r="N133" s="36">
         <v>43278</v>
       </c>
-      <c r="O133" s="36">
+      <c r="O133" s="48">
         <v>2018</v>
       </c>
       <c r="P133" s="35">
@@ -19736,7 +19572,7 @@
       <c r="E134" s="36">
         <v>43147</v>
       </c>
-      <c r="F134" s="36">
+      <c r="F134" s="48">
         <v>2018</v>
       </c>
       <c r="G134" s="35" t="s">
@@ -19751,7 +19587,7 @@
       <c r="J134" s="36">
         <v>43286</v>
       </c>
-      <c r="K134" s="36">
+      <c r="K134" s="48">
         <v>2018</v>
       </c>
       <c r="L134" s="35">
@@ -19763,7 +19599,7 @@
       <c r="N134" s="36">
         <v>43357</v>
       </c>
-      <c r="O134" s="36">
+      <c r="O134" s="48">
         <v>2018</v>
       </c>
       <c r="P134" s="35">
@@ -19793,7 +19629,7 @@
       <c r="E135" s="36">
         <v>42958</v>
       </c>
-      <c r="F135" s="36">
+      <c r="F135" s="48">
         <v>2017</v>
       </c>
       <c r="G135" s="35" t="s">
@@ -19808,7 +19644,7 @@
       <c r="J135" s="36">
         <v>43306</v>
       </c>
-      <c r="K135" s="36">
+      <c r="K135" s="48">
         <v>2018</v>
       </c>
       <c r="L135" s="35">
@@ -19820,7 +19656,7 @@
       <c r="N135" s="36">
         <v>43305</v>
       </c>
-      <c r="O135" s="36">
+      <c r="O135" s="48">
         <v>2018</v>
       </c>
       <c r="P135" s="35">
@@ -19850,7 +19686,7 @@
       <c r="E136" s="36">
         <v>42661</v>
       </c>
-      <c r="F136" s="36">
+      <c r="F136" s="48">
         <v>2016</v>
       </c>
       <c r="G136" s="35" t="s">
@@ -19865,7 +19701,7 @@
       <c r="J136" s="36">
         <v>43311</v>
       </c>
-      <c r="K136" s="36">
+      <c r="K136" s="48">
         <v>2018</v>
       </c>
       <c r="L136" s="35">
@@ -19877,7 +19713,7 @@
       <c r="N136" s="36">
         <v>43347</v>
       </c>
-      <c r="O136" s="36">
+      <c r="O136" s="48">
         <v>2018</v>
       </c>
       <c r="P136" s="35">
@@ -19907,7 +19743,7 @@
       <c r="E137" s="36">
         <v>42691</v>
       </c>
-      <c r="F137" s="36">
+      <c r="F137" s="48">
         <v>2016</v>
       </c>
       <c r="G137" s="35" t="s">
@@ -19922,7 +19758,7 @@
       <c r="J137" s="36">
         <v>43311</v>
       </c>
-      <c r="K137" s="36">
+      <c r="K137" s="48">
         <v>2018</v>
       </c>
       <c r="L137" s="35">
@@ -19934,7 +19770,7 @@
       <c r="N137" s="36">
         <v>43361</v>
       </c>
-      <c r="O137" s="36">
+      <c r="O137" s="48">
         <v>2018</v>
       </c>
       <c r="P137" s="35">
@@ -19964,7 +19800,7 @@
       <c r="E138" s="36">
         <v>43007</v>
       </c>
-      <c r="F138" s="36">
+      <c r="F138" s="48">
         <v>2017</v>
       </c>
       <c r="G138" s="35" t="s">
@@ -19979,7 +19815,7 @@
       <c r="J138" s="36">
         <v>43312</v>
       </c>
-      <c r="K138" s="36">
+      <c r="K138" s="48">
         <v>2018</v>
       </c>
       <c r="L138" s="35">
@@ -19991,7 +19827,7 @@
       <c r="N138" s="36">
         <v>43749</v>
       </c>
-      <c r="O138" s="36">
+      <c r="O138" s="48">
         <v>2018</v>
       </c>
       <c r="P138" s="35">
@@ -20021,7 +19857,7 @@
       <c r="E139" s="36">
         <v>42661</v>
       </c>
-      <c r="F139" s="36">
+      <c r="F139" s="48">
         <v>2016</v>
       </c>
       <c r="G139" s="35" t="s">
@@ -20036,7 +19872,7 @@
       <c r="J139" s="36">
         <v>43313</v>
       </c>
-      <c r="K139" s="36">
+      <c r="K139" s="48">
         <v>2018</v>
       </c>
       <c r="L139" s="35">
@@ -20048,7 +19884,7 @@
       <c r="N139" s="36">
         <v>43313</v>
       </c>
-      <c r="O139" s="36">
+      <c r="O139" s="48">
         <v>2018</v>
       </c>
       <c r="P139" s="35">
@@ -20078,7 +19914,7 @@
       <c r="E140" s="36">
         <v>42642</v>
       </c>
-      <c r="F140" s="36">
+      <c r="F140" s="48">
         <v>2016</v>
       </c>
       <c r="G140" s="35" t="s">
@@ -20093,7 +19929,7 @@
       <c r="J140" s="36">
         <v>43320</v>
       </c>
-      <c r="K140" s="36">
+      <c r="K140" s="48">
         <v>2018</v>
       </c>
       <c r="L140" s="35">
@@ -20105,7 +19941,7 @@
       <c r="N140" s="36">
         <v>43392</v>
       </c>
-      <c r="O140" s="36">
+      <c r="O140" s="48">
         <v>2018</v>
       </c>
       <c r="P140" s="35">
@@ -20135,7 +19971,7 @@
       <c r="E141" s="36">
         <v>42704</v>
       </c>
-      <c r="F141" s="36">
+      <c r="F141" s="48">
         <v>2016</v>
       </c>
       <c r="G141" s="35" t="s">
@@ -20150,7 +19986,7 @@
       <c r="J141" s="36">
         <v>43325</v>
       </c>
-      <c r="K141" s="36">
+      <c r="K141" s="48">
         <v>2018</v>
       </c>
       <c r="L141" s="35">
@@ -20162,7 +19998,7 @@
       <c r="N141" s="36">
         <v>43404</v>
       </c>
-      <c r="O141" s="36">
+      <c r="O141" s="48">
         <v>2018</v>
       </c>
       <c r="P141" s="35">
@@ -20192,7 +20028,7 @@
       <c r="E142" s="36">
         <v>42824</v>
       </c>
-      <c r="F142" s="36">
+      <c r="F142" s="48">
         <v>2017</v>
       </c>
       <c r="G142" s="35" t="s">
@@ -20207,7 +20043,7 @@
       <c r="J142" s="36">
         <v>43325</v>
       </c>
-      <c r="K142" s="36">
+      <c r="K142" s="48">
         <v>2018</v>
       </c>
       <c r="L142" s="35">
@@ -20219,7 +20055,7 @@
       <c r="N142" s="36">
         <v>43351</v>
       </c>
-      <c r="O142" s="36">
+      <c r="O142" s="48">
         <v>2018</v>
       </c>
       <c r="P142" s="35">
@@ -20249,7 +20085,7 @@
       <c r="E143" s="36">
         <v>42773</v>
       </c>
-      <c r="F143" s="36">
+      <c r="F143" s="48">
         <v>2017</v>
       </c>
       <c r="G143" s="35" t="s">
@@ -20264,7 +20100,7 @@
       <c r="J143" s="36">
         <v>43326</v>
       </c>
-      <c r="K143" s="36">
+      <c r="K143" s="48">
         <v>2018</v>
       </c>
       <c r="L143" s="35">
@@ -20276,7 +20112,7 @@
       <c r="N143" s="36">
         <v>43361</v>
       </c>
-      <c r="O143" s="36">
+      <c r="O143" s="48">
         <v>2018</v>
       </c>
       <c r="P143" s="35">
@@ -20306,7 +20142,7 @@
       <c r="E144" s="36">
         <v>43054</v>
       </c>
-      <c r="F144" s="36">
+      <c r="F144" s="48">
         <v>2017</v>
       </c>
       <c r="G144" s="35" t="s">
@@ -20321,7 +20157,7 @@
       <c r="J144" s="36">
         <v>43335</v>
       </c>
-      <c r="K144" s="36">
+      <c r="K144" s="48">
         <v>2018</v>
       </c>
       <c r="L144" s="35">
@@ -20333,7 +20169,7 @@
       <c r="N144" s="36">
         <v>43357</v>
       </c>
-      <c r="O144" s="36">
+      <c r="O144" s="48">
         <v>2018</v>
       </c>
       <c r="P144" s="35">
@@ -20363,7 +20199,7 @@
       <c r="E145" s="36">
         <v>43054</v>
       </c>
-      <c r="F145" s="36">
+      <c r="F145" s="48">
         <v>2017</v>
       </c>
       <c r="G145" s="35" t="s">
@@ -20378,7 +20214,7 @@
       <c r="J145" s="36">
         <v>43339</v>
       </c>
-      <c r="K145" s="36">
+      <c r="K145" s="48">
         <v>2018</v>
       </c>
       <c r="L145" s="35">
@@ -20390,7 +20226,7 @@
       <c r="N145" s="36">
         <v>43361</v>
       </c>
-      <c r="O145" s="36">
+      <c r="O145" s="48">
         <v>2018</v>
       </c>
       <c r="P145" s="35">
@@ -20420,7 +20256,7 @@
       <c r="E146" s="36">
         <v>43060</v>
       </c>
-      <c r="F146" s="36">
+      <c r="F146" s="48">
         <v>2017</v>
       </c>
       <c r="G146" s="35" t="s">
@@ -20435,7 +20271,7 @@
       <c r="J146" s="36">
         <v>43347</v>
       </c>
-      <c r="K146" s="36">
+      <c r="K146" s="48">
         <v>2018</v>
       </c>
       <c r="L146" s="35">
@@ -20447,7 +20283,7 @@
       <c r="N146" s="36">
         <v>43398</v>
       </c>
-      <c r="O146" s="36">
+      <c r="O146" s="48">
         <v>2018</v>
       </c>
       <c r="P146" s="35">
@@ -20477,7 +20313,7 @@
       <c r="E147" s="36">
         <v>42661</v>
       </c>
-      <c r="F147" s="36">
+      <c r="F147" s="48">
         <v>2016</v>
       </c>
       <c r="G147" s="35" t="s">
@@ -20492,7 +20328,7 @@
       <c r="J147" s="36">
         <v>43347</v>
       </c>
-      <c r="K147" s="36">
+      <c r="K147" s="48">
         <v>2018</v>
       </c>
       <c r="L147" s="35">
@@ -20504,7 +20340,7 @@
       <c r="N147" s="36">
         <v>43383</v>
       </c>
-      <c r="O147" s="36">
+      <c r="O147" s="48">
         <v>2018</v>
       </c>
       <c r="P147" s="35">
@@ -20534,7 +20370,7 @@
       <c r="E148" s="36">
         <v>43193</v>
       </c>
-      <c r="F148" s="36">
+      <c r="F148" s="48">
         <v>2018</v>
       </c>
       <c r="G148" s="35" t="s">
@@ -20549,7 +20385,7 @@
       <c r="J148" s="36">
         <v>43348</v>
       </c>
-      <c r="K148" s="36">
+      <c r="K148" s="48">
         <v>2018</v>
       </c>
       <c r="L148" s="35">
@@ -20561,7 +20397,7 @@
       <c r="N148" s="36">
         <v>43432</v>
       </c>
-      <c r="O148" s="36">
+      <c r="O148" s="48">
         <v>2018</v>
       </c>
       <c r="P148" s="35">
@@ -20591,7 +20427,7 @@
       <c r="E149" s="36">
         <v>43187</v>
       </c>
-      <c r="F149" s="36">
+      <c r="F149" s="48">
         <v>2018</v>
       </c>
       <c r="G149" s="35" t="s">
@@ -20606,7 +20442,7 @@
       <c r="J149" s="36">
         <v>43350</v>
       </c>
-      <c r="K149" s="36">
+      <c r="K149" s="48">
         <v>2018</v>
       </c>
       <c r="L149" s="35">
@@ -20618,7 +20454,7 @@
       <c r="N149" s="36">
         <v>43383</v>
       </c>
-      <c r="O149" s="36">
+      <c r="O149" s="48">
         <v>2018</v>
       </c>
       <c r="P149" s="35">
@@ -20648,7 +20484,7 @@
       <c r="E150" s="36">
         <v>43308</v>
       </c>
-      <c r="F150" s="36">
+      <c r="F150" s="48">
         <v>2018</v>
       </c>
       <c r="G150" s="35" t="s">
@@ -20663,7 +20499,7 @@
       <c r="J150" s="36">
         <v>43357</v>
       </c>
-      <c r="K150" s="36">
+      <c r="K150" s="48">
         <v>2018</v>
       </c>
       <c r="L150" s="35">
@@ -20675,7 +20511,7 @@
       <c r="N150" s="36">
         <v>43377</v>
       </c>
-      <c r="O150" s="36">
+      <c r="O150" s="48">
         <v>2018</v>
       </c>
       <c r="P150" s="35">
@@ -20705,7 +20541,7 @@
       <c r="E151" s="36">
         <v>43209</v>
       </c>
-      <c r="F151" s="36">
+      <c r="F151" s="48">
         <v>2018</v>
       </c>
       <c r="G151" s="35" t="s">
@@ -20720,7 +20556,7 @@
       <c r="J151" s="36">
         <v>43360</v>
       </c>
-      <c r="K151" s="36">
+      <c r="K151" s="48">
         <v>2018</v>
       </c>
       <c r="L151" s="35">
@@ -20732,7 +20568,7 @@
       <c r="N151" s="36">
         <v>43382</v>
       </c>
-      <c r="O151" s="36">
+      <c r="O151" s="48">
         <v>2018</v>
       </c>
       <c r="P151" s="35">
@@ -20762,7 +20598,7 @@
       <c r="E152" s="36">
         <v>43027</v>
       </c>
-      <c r="F152" s="36">
+      <c r="F152" s="48">
         <v>2017</v>
       </c>
       <c r="G152" s="35" t="s">
@@ -20777,7 +20613,7 @@
       <c r="J152" s="36">
         <v>43363</v>
       </c>
-      <c r="K152" s="36">
+      <c r="K152" s="48">
         <v>2018</v>
       </c>
       <c r="L152" s="35">
@@ -20789,7 +20625,7 @@
       <c r="N152" s="36">
         <v>43388</v>
       </c>
-      <c r="O152" s="36">
+      <c r="O152" s="48">
         <v>2018</v>
       </c>
       <c r="P152" s="35">
@@ -20819,7 +20655,7 @@
       <c r="E153" s="36">
         <v>43105</v>
       </c>
-      <c r="F153" s="36">
+      <c r="F153" s="48">
         <v>2018</v>
       </c>
       <c r="G153" s="35" t="s">
@@ -20834,7 +20670,7 @@
       <c r="J153" s="36">
         <v>43363</v>
       </c>
-      <c r="K153" s="36">
+      <c r="K153" s="48">
         <v>2018</v>
       </c>
       <c r="L153" s="35">
@@ -20846,7 +20682,7 @@
       <c r="N153" s="36">
         <v>43368</v>
       </c>
-      <c r="O153" s="36">
+      <c r="O153" s="48">
         <v>2018</v>
       </c>
       <c r="P153" s="35">
@@ -20876,7 +20712,7 @@
       <c r="E154" s="36">
         <v>43007</v>
       </c>
-      <c r="F154" s="36">
+      <c r="F154" s="48">
         <v>2017</v>
       </c>
       <c r="G154" s="35" t="s">
@@ -20891,7 +20727,7 @@
       <c r="J154" s="36">
         <v>43363</v>
       </c>
-      <c r="K154" s="36">
+      <c r="K154" s="48">
         <v>2018</v>
       </c>
       <c r="L154" s="35">
@@ -20903,7 +20739,7 @@
       <c r="N154" s="36">
         <v>43518</v>
       </c>
-      <c r="O154" s="36">
+      <c r="O154" s="48">
         <v>2018</v>
       </c>
       <c r="P154" s="35">
@@ -20933,7 +20769,7 @@
       <c r="E155" s="36">
         <v>42453</v>
       </c>
-      <c r="F155" s="36">
+      <c r="F155" s="48">
         <v>2016</v>
       </c>
       <c r="G155" s="35" t="s">
@@ -20948,7 +20784,7 @@
       <c r="J155" s="36">
         <v>43368</v>
       </c>
-      <c r="K155" s="36">
+      <c r="K155" s="48">
         <v>2018</v>
       </c>
       <c r="L155" s="35">
@@ -20960,7 +20796,7 @@
       <c r="N155" s="36">
         <v>43384</v>
       </c>
-      <c r="O155" s="36">
+      <c r="O155" s="48">
         <v>2018</v>
       </c>
       <c r="P155" s="35">
@@ -20990,7 +20826,7 @@
       <c r="E156" s="36">
         <v>43339</v>
       </c>
-      <c r="F156" s="36">
+      <c r="F156" s="48">
         <v>2018</v>
       </c>
       <c r="G156" s="35" t="s">
@@ -21005,7 +20841,7 @@
       <c r="J156" s="36">
         <v>43377</v>
       </c>
-      <c r="K156" s="36">
+      <c r="K156" s="48">
         <v>2018</v>
       </c>
       <c r="L156" s="35">
@@ -21015,7 +20851,7 @@
         <v>43377</v>
       </c>
       <c r="N156" s="36"/>
-      <c r="O156" s="36">
+      <c r="O156" s="48">
         <v>2018</v>
       </c>
       <c r="P156" s="35"/>
@@ -21043,7 +20879,7 @@
       <c r="E157" s="36">
         <v>43196</v>
       </c>
-      <c r="F157" s="36">
+      <c r="F157" s="48">
         <v>2018</v>
       </c>
       <c r="G157" s="35" t="s">
@@ -21058,7 +20894,7 @@
       <c r="J157" s="36">
         <v>43377</v>
       </c>
-      <c r="K157" s="36">
+      <c r="K157" s="48">
         <v>2018</v>
       </c>
       <c r="L157" s="35">
@@ -21070,7 +20906,7 @@
       <c r="N157" s="36">
         <v>43418</v>
       </c>
-      <c r="O157" s="36">
+      <c r="O157" s="48">
         <v>2018</v>
       </c>
       <c r="P157" s="35">
@@ -21100,7 +20936,7 @@
       <c r="E158" s="36">
         <v>42773</v>
       </c>
-      <c r="F158" s="36">
+      <c r="F158" s="48">
         <v>2017</v>
       </c>
       <c r="G158" s="35" t="s">
@@ -21115,7 +20951,7 @@
       <c r="J158" s="36">
         <v>43382</v>
       </c>
-      <c r="K158" s="36">
+      <c r="K158" s="48">
         <v>2018</v>
       </c>
       <c r="L158" s="35">
@@ -21127,7 +20963,7 @@
       <c r="N158" s="36">
         <v>43468</v>
       </c>
-      <c r="O158" s="36">
+      <c r="O158" s="48">
         <v>2018</v>
       </c>
       <c r="P158" s="35">
@@ -21157,7 +20993,7 @@
       <c r="E159" s="36">
         <v>42837</v>
       </c>
-      <c r="F159" s="36">
+      <c r="F159" s="48">
         <v>2017</v>
       </c>
       <c r="G159" s="35" t="s">
@@ -21172,7 +21008,7 @@
       <c r="J159" s="36">
         <v>43383</v>
       </c>
-      <c r="K159" s="36">
+      <c r="K159" s="48">
         <v>2018</v>
       </c>
       <c r="L159" s="35">
@@ -21184,7 +21020,7 @@
       <c r="N159" s="36">
         <v>43427</v>
       </c>
-      <c r="O159" s="36">
+      <c r="O159" s="48">
         <v>2018</v>
       </c>
       <c r="P159" s="35">
@@ -21214,7 +21050,7 @@
       <c r="E160" s="36">
         <v>43250</v>
       </c>
-      <c r="F160" s="36">
+      <c r="F160" s="48">
         <v>2018</v>
       </c>
       <c r="G160" s="35" t="s">
@@ -21229,7 +21065,7 @@
       <c r="J160" s="36">
         <v>43383</v>
       </c>
-      <c r="K160" s="36">
+      <c r="K160" s="48">
         <v>2018</v>
       </c>
       <c r="L160" s="35">
@@ -21241,7 +21077,7 @@
       <c r="N160" s="36">
         <v>43384</v>
       </c>
-      <c r="O160" s="36">
+      <c r="O160" s="48">
         <v>2018</v>
       </c>
       <c r="P160" s="35">
@@ -21271,7 +21107,7 @@
       <c r="E161" s="36">
         <v>43060</v>
       </c>
-      <c r="F161" s="36">
+      <c r="F161" s="48">
         <v>2017</v>
       </c>
       <c r="G161" s="35" t="s">
@@ -21286,7 +21122,7 @@
       <c r="J161" s="36">
         <v>43384</v>
       </c>
-      <c r="K161" s="36">
+      <c r="K161" s="48">
         <v>2018</v>
       </c>
       <c r="L161" s="35">
@@ -21298,7 +21134,7 @@
       <c r="N161" s="36">
         <v>43384</v>
       </c>
-      <c r="O161" s="36">
+      <c r="O161" s="48">
         <v>2018</v>
       </c>
       <c r="P161" s="35">
@@ -21328,7 +21164,7 @@
       <c r="E162" s="36">
         <v>42720</v>
       </c>
-      <c r="F162" s="36">
+      <c r="F162" s="48">
         <v>2016</v>
       </c>
       <c r="G162" s="35" t="s">
@@ -21343,7 +21179,7 @@
       <c r="J162" s="36">
         <v>43385</v>
       </c>
-      <c r="K162" s="36">
+      <c r="K162" s="48">
         <v>2018</v>
       </c>
       <c r="L162" s="35">
@@ -21355,7 +21191,7 @@
       <c r="N162" s="36">
         <v>43410</v>
       </c>
-      <c r="O162" s="36">
+      <c r="O162" s="48">
         <v>2018</v>
       </c>
       <c r="P162" s="35">
@@ -21385,7 +21221,7 @@
       <c r="E163" s="36">
         <v>43034</v>
       </c>
-      <c r="F163" s="36">
+      <c r="F163" s="48">
         <v>2017</v>
       </c>
       <c r="G163" s="35" t="s">
@@ -21400,7 +21236,7 @@
       <c r="J163" s="36">
         <v>43389</v>
       </c>
-      <c r="K163" s="36">
+      <c r="K163" s="48">
         <v>2018</v>
       </c>
       <c r="L163" s="35">
@@ -21412,7 +21248,7 @@
       <c r="N163" s="36">
         <v>43420</v>
       </c>
-      <c r="O163" s="36">
+      <c r="O163" s="48">
         <v>2018</v>
       </c>
       <c r="P163" s="35">
@@ -21442,7 +21278,7 @@
       <c r="E164" s="36">
         <v>43364</v>
       </c>
-      <c r="F164" s="36">
+      <c r="F164" s="48">
         <v>2018</v>
       </c>
       <c r="G164" s="35" t="s">
@@ -21457,7 +21293,7 @@
       <c r="J164" s="36">
         <v>43390</v>
       </c>
-      <c r="K164" s="36">
+      <c r="K164" s="48">
         <v>2018</v>
       </c>
       <c r="L164" s="35">
@@ -21469,7 +21305,7 @@
       <c r="N164" s="36">
         <v>43391</v>
       </c>
-      <c r="O164" s="36">
+      <c r="O164" s="48">
         <v>2018</v>
       </c>
       <c r="P164" s="35">
@@ -21499,7 +21335,7 @@
       <c r="E165" s="36">
         <v>42829</v>
       </c>
-      <c r="F165" s="36">
+      <c r="F165" s="48">
         <v>2017</v>
       </c>
       <c r="G165" s="35" t="s">
@@ -21514,7 +21350,7 @@
       <c r="J165" s="36">
         <v>43391</v>
       </c>
-      <c r="K165" s="36">
+      <c r="K165" s="48">
         <v>2018</v>
       </c>
       <c r="L165" s="35">
@@ -21526,7 +21362,7 @@
       <c r="N165" s="36">
         <v>43412</v>
       </c>
-      <c r="O165" s="36">
+      <c r="O165" s="48">
         <v>2018</v>
       </c>
       <c r="P165" s="35">
@@ -21556,7 +21392,7 @@
       <c r="E166" s="36">
         <v>42528</v>
       </c>
-      <c r="F166" s="36">
+      <c r="F166" s="48">
         <v>2016</v>
       </c>
       <c r="G166" s="35" t="s">
@@ -21571,7 +21407,7 @@
       <c r="J166" s="36">
         <v>43391</v>
       </c>
-      <c r="K166" s="36">
+      <c r="K166" s="48">
         <v>2018</v>
       </c>
       <c r="L166" s="35">
@@ -21583,7 +21419,7 @@
       <c r="N166" s="36">
         <v>43412</v>
       </c>
-      <c r="O166" s="36">
+      <c r="O166" s="48">
         <v>2018</v>
       </c>
       <c r="P166" s="35">
@@ -21613,7 +21449,7 @@
       <c r="E167" s="36">
         <v>43308</v>
       </c>
-      <c r="F167" s="36">
+      <c r="F167" s="48">
         <v>2018</v>
       </c>
       <c r="G167" s="35" t="s">
@@ -21628,7 +21464,7 @@
       <c r="J167" s="36">
         <v>43391</v>
       </c>
-      <c r="K167" s="36">
+      <c r="K167" s="48">
         <v>2018</v>
       </c>
       <c r="L167" s="35">
@@ -21640,7 +21476,7 @@
       <c r="N167" s="36">
         <v>43404</v>
       </c>
-      <c r="O167" s="36">
+      <c r="O167" s="48">
         <v>2018</v>
       </c>
       <c r="P167" s="35">
@@ -21670,7 +21506,7 @@
       <c r="E168" s="36">
         <v>43006</v>
       </c>
-      <c r="F168" s="36">
+      <c r="F168" s="48">
         <v>2017</v>
       </c>
       <c r="G168" s="35" t="s">
@@ -21685,7 +21521,7 @@
       <c r="J168" s="36">
         <v>43395</v>
       </c>
-      <c r="K168" s="36">
+      <c r="K168" s="48">
         <v>2018</v>
       </c>
       <c r="L168" s="35">
@@ -21697,7 +21533,7 @@
       <c r="N168" s="36">
         <v>43426</v>
       </c>
-      <c r="O168" s="36">
+      <c r="O168" s="48">
         <v>2018</v>
       </c>
       <c r="P168" s="35">
@@ -21727,7 +21563,7 @@
       <c r="E169" s="36">
         <v>43126</v>
       </c>
-      <c r="F169" s="36">
+      <c r="F169" s="48">
         <v>2018</v>
       </c>
       <c r="G169" s="35" t="s">
@@ -21742,7 +21578,7 @@
       <c r="J169" s="36">
         <v>43396</v>
       </c>
-      <c r="K169" s="36">
+      <c r="K169" s="48">
         <v>2018</v>
       </c>
       <c r="L169" s="35">
@@ -21754,7 +21590,7 @@
       <c r="N169" s="36">
         <v>43530</v>
       </c>
-      <c r="O169" s="36">
+      <c r="O169" s="48">
         <v>2018</v>
       </c>
       <c r="P169" s="35">
@@ -21784,7 +21620,7 @@
       <c r="E170" s="36">
         <v>42556</v>
       </c>
-      <c r="F170" s="36">
+      <c r="F170" s="48">
         <v>2016</v>
       </c>
       <c r="G170" s="35" t="s">
@@ -21799,7 +21635,7 @@
       <c r="J170" s="36">
         <v>43398</v>
       </c>
-      <c r="K170" s="36">
+      <c r="K170" s="48">
         <v>2018</v>
       </c>
       <c r="L170" s="35">
@@ -21811,7 +21647,7 @@
       <c r="N170" s="36">
         <v>43432</v>
       </c>
-      <c r="O170" s="36">
+      <c r="O170" s="48">
         <v>2018</v>
       </c>
       <c r="P170" s="35">
@@ -21841,7 +21677,7 @@
       <c r="E171" s="36">
         <v>43209</v>
       </c>
-      <c r="F171" s="36">
+      <c r="F171" s="48">
         <v>2018</v>
       </c>
       <c r="G171" s="35" t="s">
@@ -21856,7 +21692,7 @@
       <c r="J171" s="36">
         <v>43399</v>
       </c>
-      <c r="K171" s="36">
+      <c r="K171" s="48">
         <v>2018</v>
       </c>
       <c r="L171" s="35">
@@ -21868,7 +21704,7 @@
       <c r="N171" s="36">
         <v>43415</v>
       </c>
-      <c r="O171" s="36">
+      <c r="O171" s="48">
         <v>2018</v>
       </c>
       <c r="P171" s="35">
@@ -21898,7 +21734,7 @@
       <c r="E172" s="36">
         <v>42247</v>
       </c>
-      <c r="F172" s="36">
+      <c r="F172" s="48">
         <v>2015</v>
       </c>
       <c r="G172" s="35" t="s">
@@ -21913,7 +21749,7 @@
       <c r="J172" s="36">
         <v>43399</v>
       </c>
-      <c r="K172" s="36">
+      <c r="K172" s="48">
         <v>2018</v>
       </c>
       <c r="L172" s="35">
@@ -21925,7 +21761,7 @@
       <c r="N172" s="36">
         <v>43422</v>
       </c>
-      <c r="O172" s="36">
+      <c r="O172" s="48">
         <v>2018</v>
       </c>
       <c r="P172" s="35">
@@ -21955,7 +21791,7 @@
       <c r="E173" s="36">
         <v>43187</v>
       </c>
-      <c r="F173" s="36">
+      <c r="F173" s="48">
         <v>2018</v>
       </c>
       <c r="G173" s="35" t="s">
@@ -21970,7 +21806,7 @@
       <c r="J173" s="36">
         <v>43403</v>
       </c>
-      <c r="K173" s="36">
+      <c r="K173" s="48">
         <v>2018</v>
       </c>
       <c r="L173" s="35">
@@ -21982,7 +21818,7 @@
       <c r="N173" s="36">
         <v>43413</v>
       </c>
-      <c r="O173" s="36">
+      <c r="O173" s="48">
         <v>2018</v>
       </c>
       <c r="P173" s="35">
@@ -22012,7 +21848,7 @@
       <c r="E174" s="36">
         <v>43364</v>
       </c>
-      <c r="F174" s="36">
+      <c r="F174" s="48">
         <v>2018</v>
       </c>
       <c r="G174" s="35" t="s">
@@ -22027,7 +21863,7 @@
       <c r="J174" s="36">
         <v>43405</v>
       </c>
-      <c r="K174" s="36">
+      <c r="K174" s="48">
         <v>2018</v>
       </c>
       <c r="L174" s="35">
@@ -22039,7 +21875,7 @@
       <c r="N174" s="36">
         <v>43405</v>
       </c>
-      <c r="O174" s="36">
+      <c r="O174" s="48">
         <v>2018</v>
       </c>
       <c r="P174" s="35">
@@ -22069,7 +21905,7 @@
       <c r="E175" s="36">
         <v>43231</v>
       </c>
-      <c r="F175" s="36">
+      <c r="F175" s="48">
         <v>2018</v>
       </c>
       <c r="G175" s="35" t="s">
@@ -22084,7 +21920,7 @@
       <c r="J175" s="36">
         <v>43427</v>
       </c>
-      <c r="K175" s="36">
+      <c r="K175" s="48">
         <v>2018</v>
       </c>
       <c r="L175" s="35">
@@ -22096,7 +21932,7 @@
       <c r="N175" s="36">
         <v>43542</v>
       </c>
-      <c r="O175" s="36">
+      <c r="O175" s="48">
         <v>2018</v>
       </c>
       <c r="P175" s="35">
@@ -22126,7 +21962,7 @@
       <c r="E176" s="36">
         <v>42453</v>
       </c>
-      <c r="F176" s="36">
+      <c r="F176" s="48">
         <v>2016</v>
       </c>
       <c r="G176" s="35" t="s">
@@ -22141,7 +21977,7 @@
       <c r="J176" s="36">
         <v>43430</v>
       </c>
-      <c r="K176" s="36">
+      <c r="K176" s="48">
         <v>2018</v>
       </c>
       <c r="L176" s="35">
@@ -22153,7 +21989,7 @@
       <c r="N176" s="36">
         <v>43454</v>
       </c>
-      <c r="O176" s="36">
+      <c r="O176" s="48">
         <v>2018</v>
       </c>
       <c r="P176" s="35">
@@ -22183,7 +22019,7 @@
       <c r="E177" s="36">
         <v>42661</v>
       </c>
-      <c r="F177" s="36">
+      <c r="F177" s="48">
         <v>2016</v>
       </c>
       <c r="G177" s="35" t="s">
@@ -22198,7 +22034,7 @@
       <c r="J177" s="36">
         <v>43430</v>
       </c>
-      <c r="K177" s="36">
+      <c r="K177" s="48">
         <v>2018</v>
       </c>
       <c r="L177" s="35">
@@ -22210,7 +22046,7 @@
       <c r="N177" s="36">
         <v>43445</v>
       </c>
-      <c r="O177" s="36">
+      <c r="O177" s="48">
         <v>2018</v>
       </c>
       <c r="P177" s="35">
@@ -22240,7 +22076,7 @@
       <c r="E178" s="36">
         <v>43027</v>
       </c>
-      <c r="F178" s="36">
+      <c r="F178" s="48">
         <v>2017</v>
       </c>
       <c r="G178" s="35" t="s">
@@ -22255,7 +22091,7 @@
       <c r="J178" s="36">
         <v>43431</v>
       </c>
-      <c r="K178" s="36">
+      <c r="K178" s="48">
         <v>2018</v>
       </c>
       <c r="L178" s="35">
@@ -22267,7 +22103,7 @@
       <c r="N178" s="36">
         <v>43493</v>
       </c>
-      <c r="O178" s="36">
+      <c r="O178" s="48">
         <v>2018</v>
       </c>
       <c r="P178" s="35">
@@ -22297,7 +22133,7 @@
       <c r="E179" s="36">
         <v>43034</v>
       </c>
-      <c r="F179" s="36">
+      <c r="F179" s="48">
         <v>2017</v>
       </c>
       <c r="G179" s="35" t="s">
@@ -22312,7 +22148,7 @@
       <c r="J179" s="36">
         <v>43431</v>
       </c>
-      <c r="K179" s="36">
+      <c r="K179" s="48">
         <v>2018</v>
       </c>
       <c r="L179" s="35">
@@ -22324,7 +22160,7 @@
       <c r="N179" s="36">
         <v>43448</v>
       </c>
-      <c r="O179" s="36">
+      <c r="O179" s="48">
         <v>2018</v>
       </c>
       <c r="P179" s="35">
@@ -22354,7 +22190,7 @@
       <c r="E180" s="36">
         <v>42824</v>
       </c>
-      <c r="F180" s="36">
+      <c r="F180" s="48">
         <v>2017</v>
       </c>
       <c r="G180" s="35" t="s">
@@ -22369,7 +22205,7 @@
       <c r="J180" s="36">
         <v>43431</v>
       </c>
-      <c r="K180" s="36">
+      <c r="K180" s="48">
         <v>2018</v>
       </c>
       <c r="L180" s="35">
@@ -22381,7 +22217,7 @@
       <c r="N180" s="36">
         <v>43480</v>
       </c>
-      <c r="O180" s="36">
+      <c r="O180" s="48">
         <v>2018</v>
       </c>
       <c r="P180" s="35">
@@ -22411,7 +22247,7 @@
       <c r="E181" s="36">
         <v>43034</v>
       </c>
-      <c r="F181" s="36">
+      <c r="F181" s="48">
         <v>2017</v>
       </c>
       <c r="G181" s="35" t="s">
@@ -22426,7 +22262,7 @@
       <c r="J181" s="36">
         <v>43438</v>
       </c>
-      <c r="K181" s="36">
+      <c r="K181" s="48">
         <v>2018</v>
       </c>
       <c r="L181" s="35">
@@ -22438,7 +22274,7 @@
       <c r="N181" s="36">
         <v>43642</v>
       </c>
-      <c r="O181" s="36">
+      <c r="O181" s="48">
         <v>2018</v>
       </c>
       <c r="P181" s="35">
@@ -22468,7 +22304,7 @@
       <c r="E182" s="36">
         <v>42341</v>
       </c>
-      <c r="F182" s="36">
+      <c r="F182" s="48">
         <v>2015</v>
       </c>
       <c r="G182" s="35" t="s">
@@ -22483,7 +22319,7 @@
       <c r="J182" s="36">
         <v>43444</v>
       </c>
-      <c r="K182" s="36">
+      <c r="K182" s="48">
         <v>2018</v>
       </c>
       <c r="L182" s="35">
@@ -22495,7 +22331,7 @@
       <c r="N182" s="36">
         <v>43515</v>
       </c>
-      <c r="O182" s="36">
+      <c r="O182" s="48">
         <v>2018</v>
       </c>
       <c r="P182" s="35">
@@ -22525,7 +22361,7 @@
       <c r="E183" s="36">
         <v>42920</v>
       </c>
-      <c r="F183" s="36">
+      <c r="F183" s="48">
         <v>2017</v>
       </c>
       <c r="G183" s="35" t="s">
@@ -22540,7 +22376,7 @@
       <c r="J183" s="36">
         <v>43445</v>
       </c>
-      <c r="K183" s="36">
+      <c r="K183" s="48">
         <v>2018</v>
       </c>
       <c r="L183" s="35">
@@ -22552,7 +22388,7 @@
       <c r="N183" s="36">
         <v>43542</v>
       </c>
-      <c r="O183" s="36">
+      <c r="O183" s="48">
         <v>2018</v>
       </c>
       <c r="P183" s="35">
@@ -22582,7 +22418,7 @@
       <c r="E184" s="36">
         <v>42704</v>
       </c>
-      <c r="F184" s="36">
+      <c r="F184" s="48">
         <v>2016</v>
       </c>
       <c r="G184" s="35" t="s">
@@ -22597,7 +22433,7 @@
       <c r="J184" s="36">
         <v>43447</v>
       </c>
-      <c r="K184" s="36">
+      <c r="K184" s="48">
         <v>2018</v>
       </c>
       <c r="L184" s="35">
@@ -22609,7 +22445,7 @@
       <c r="N184" s="36">
         <v>43462</v>
       </c>
-      <c r="O184" s="36">
+      <c r="O184" s="48">
         <v>2018</v>
       </c>
       <c r="P184" s="35">
@@ -22639,7 +22475,7 @@
       <c r="E185" s="36">
         <v>42489</v>
       </c>
-      <c r="F185" s="36">
+      <c r="F185" s="48">
         <v>2016</v>
       </c>
       <c r="G185" s="35" t="s">
@@ -22654,7 +22490,7 @@
       <c r="J185" s="36">
         <v>43462</v>
       </c>
-      <c r="K185" s="36">
+      <c r="K185" s="48">
         <v>2018</v>
       </c>
       <c r="L185" s="35">
@@ -22666,7 +22502,7 @@
       <c r="N185" s="36">
         <v>43474</v>
       </c>
-      <c r="O185" s="36">
+      <c r="O185" s="48">
         <v>2018</v>
       </c>
       <c r="P185" s="35">
@@ -22696,7 +22532,7 @@
       <c r="E186" s="36">
         <v>42556</v>
       </c>
-      <c r="F186" s="36">
+      <c r="F186" s="48">
         <v>2016</v>
       </c>
       <c r="G186" s="35" t="s">
@@ -22711,7 +22547,7 @@
       <c r="J186" s="36">
         <v>43462</v>
       </c>
-      <c r="K186" s="36">
+      <c r="K186" s="48">
         <v>2018</v>
       </c>
       <c r="L186" s="35">
@@ -22723,7 +22559,7 @@
       <c r="N186" s="36">
         <v>43560</v>
       </c>
-      <c r="O186" s="36">
+      <c r="O186" s="48">
         <v>2018</v>
       </c>
       <c r="P186" s="35">
@@ -22753,7 +22589,7 @@
       <c r="E187" s="36">
         <v>43147</v>
       </c>
-      <c r="F187" s="36">
+      <c r="F187" s="48">
         <v>2018</v>
       </c>
       <c r="G187" s="35" t="s">
@@ -22768,7 +22604,7 @@
       <c r="J187" s="36">
         <v>43463</v>
       </c>
-      <c r="K187" s="36">
+      <c r="K187" s="48">
         <v>2018</v>
       </c>
       <c r="L187" s="35">
@@ -22780,7 +22616,7 @@
       <c r="N187" s="36">
         <v>43609</v>
       </c>
-      <c r="O187" s="36">
+      <c r="O187" s="48">
         <v>2018</v>
       </c>
       <c r="P187" s="35">
@@ -22810,7 +22646,7 @@
       <c r="E188" s="36">
         <v>42712</v>
       </c>
-      <c r="F188" s="36">
+      <c r="F188" s="48">
         <v>2016</v>
       </c>
       <c r="G188" s="35" t="s">
@@ -22825,7 +22661,7 @@
       <c r="J188" s="36">
         <v>43463</v>
       </c>
-      <c r="K188" s="36">
+      <c r="K188" s="48">
         <v>2018</v>
       </c>
       <c r="L188" s="35">
@@ -22837,7 +22673,7 @@
       <c r="N188" s="36">
         <v>43454</v>
       </c>
-      <c r="O188" s="36">
+      <c r="O188" s="48">
         <v>2018</v>
       </c>
       <c r="P188" s="35">
@@ -22867,7 +22703,7 @@
       <c r="E189" s="36">
         <v>42765</v>
       </c>
-      <c r="F189" s="36">
+      <c r="F189" s="48">
         <v>2017</v>
       </c>
       <c r="G189" s="35" t="s">
@@ -22882,7 +22718,7 @@
       <c r="J189" s="36">
         <v>43468</v>
       </c>
-      <c r="K189" s="36">
+      <c r="K189" s="48">
         <v>2019</v>
       </c>
       <c r="L189" s="35">
@@ -22894,7 +22730,7 @@
       <c r="N189" s="36">
         <v>43535</v>
       </c>
-      <c r="O189" s="36">
+      <c r="O189" s="48">
         <v>2019</v>
       </c>
       <c r="P189" s="35">
@@ -22924,7 +22760,7 @@
       <c r="E190" s="36">
         <v>43054</v>
       </c>
-      <c r="F190" s="36">
+      <c r="F190" s="48">
         <v>2017</v>
       </c>
       <c r="G190" s="35" t="s">
@@ -22939,7 +22775,7 @@
       <c r="J190" s="36">
         <v>43474</v>
       </c>
-      <c r="K190" s="36">
+      <c r="K190" s="48">
         <v>2019</v>
       </c>
       <c r="L190" s="35">
@@ -22951,7 +22787,7 @@
       <c r="N190" s="36">
         <v>43515</v>
       </c>
-      <c r="O190" s="36">
+      <c r="O190" s="48">
         <v>2019</v>
       </c>
       <c r="P190" s="35">
@@ -22981,7 +22817,7 @@
       <c r="E191" s="36">
         <v>42824</v>
       </c>
-      <c r="F191" s="36">
+      <c r="F191" s="48">
         <v>2017</v>
       </c>
       <c r="G191" s="35" t="s">
@@ -22996,7 +22832,7 @@
       <c r="J191" s="36">
         <v>43474</v>
       </c>
-      <c r="K191" s="36">
+      <c r="K191" s="48">
         <v>2019</v>
       </c>
       <c r="L191" s="35">
@@ -23008,7 +22844,7 @@
       <c r="N191" s="36">
         <v>43480</v>
       </c>
-      <c r="O191" s="36">
+      <c r="O191" s="48">
         <v>2019</v>
       </c>
       <c r="P191" s="35">
@@ -23038,7 +22874,7 @@
       <c r="E192" s="36">
         <v>43396</v>
       </c>
-      <c r="F192" s="36">
+      <c r="F192" s="48">
         <v>2018</v>
       </c>
       <c r="G192" s="35" t="s">
@@ -23053,7 +22889,7 @@
       <c r="J192" s="36">
         <v>43480</v>
       </c>
-      <c r="K192" s="36">
+      <c r="K192" s="48">
         <v>2019</v>
       </c>
       <c r="L192" s="35">
@@ -23065,7 +22901,7 @@
       <c r="N192" s="36">
         <v>43676</v>
       </c>
-      <c r="O192" s="36">
+      <c r="O192" s="48">
         <v>2019</v>
       </c>
       <c r="P192" s="35">
@@ -23095,7 +22931,7 @@
       <c r="E193" s="36">
         <v>42368</v>
       </c>
-      <c r="F193" s="36">
+      <c r="F193" s="48">
         <v>2015</v>
       </c>
       <c r="G193" s="35" t="s">
@@ -23110,7 +22946,7 @@
       <c r="J193" s="36">
         <v>43480</v>
       </c>
-      <c r="K193" s="36">
+      <c r="K193" s="48">
         <v>2019</v>
       </c>
       <c r="L193" s="35">
@@ -23122,7 +22958,7 @@
       <c r="N193" s="36">
         <v>43521</v>
       </c>
-      <c r="O193" s="36">
+      <c r="O193" s="48">
         <v>2019</v>
       </c>
       <c r="P193" s="35">
@@ -23152,7 +22988,7 @@
       <c r="E194" s="36">
         <v>42958</v>
       </c>
-      <c r="F194" s="36">
+      <c r="F194" s="48">
         <v>2017</v>
       </c>
       <c r="G194" s="35" t="s">
@@ -23167,7 +23003,7 @@
       <c r="J194" s="36">
         <v>43481</v>
       </c>
-      <c r="K194" s="36">
+      <c r="K194" s="48">
         <v>2019</v>
       </c>
       <c r="L194" s="35">
@@ -23179,7 +23015,7 @@
       <c r="N194" s="36">
         <v>43642</v>
       </c>
-      <c r="O194" s="36">
+      <c r="O194" s="48">
         <v>2019</v>
       </c>
       <c r="P194" s="35">
@@ -23209,7 +23045,7 @@
       <c r="E195" s="36">
         <v>42703</v>
       </c>
-      <c r="F195" s="36">
+      <c r="F195" s="48">
         <v>2016</v>
       </c>
       <c r="G195" s="35" t="s">
@@ -23224,7 +23060,7 @@
       <c r="J195" s="36">
         <v>43494</v>
       </c>
-      <c r="K195" s="36">
+      <c r="K195" s="48">
         <v>2019</v>
       </c>
       <c r="L195" s="35">
@@ -23236,7 +23072,7 @@
       <c r="N195" s="36">
         <v>43571</v>
       </c>
-      <c r="O195" s="36">
+      <c r="O195" s="48">
         <v>2019</v>
       </c>
       <c r="P195" s="35">
@@ -23266,7 +23102,7 @@
       <c r="E196" s="36">
         <v>43402</v>
       </c>
-      <c r="F196" s="36">
+      <c r="F196" s="48">
         <v>2018</v>
       </c>
       <c r="G196" s="35" t="s">
@@ -23281,7 +23117,7 @@
       <c r="J196" s="36">
         <v>43495</v>
       </c>
-      <c r="K196" s="36">
+      <c r="K196" s="48">
         <v>2019</v>
       </c>
       <c r="L196" s="35">
@@ -23293,7 +23129,7 @@
       <c r="N196" s="36">
         <v>43511</v>
       </c>
-      <c r="O196" s="36">
+      <c r="O196" s="48">
         <v>2019</v>
       </c>
       <c r="P196" s="35">
@@ -23323,7 +23159,7 @@
       <c r="E197" s="36">
         <v>43060</v>
       </c>
-      <c r="F197" s="36">
+      <c r="F197" s="48">
         <v>2017</v>
       </c>
       <c r="G197" s="35" t="s">
@@ -23338,7 +23174,7 @@
       <c r="J197" s="36">
         <v>43493</v>
       </c>
-      <c r="K197" s="36">
+      <c r="K197" s="48">
         <v>2019</v>
       </c>
       <c r="L197" s="35">
@@ -23350,7 +23186,7 @@
       <c r="N197" s="36">
         <v>43546</v>
       </c>
-      <c r="O197" s="36">
+      <c r="O197" s="48">
         <v>2019</v>
       </c>
       <c r="P197" s="35">
@@ -23380,7 +23216,7 @@
       <c r="E198" s="36">
         <v>42424</v>
       </c>
-      <c r="F198" s="36">
+      <c r="F198" s="48">
         <v>2016</v>
       </c>
       <c r="G198" s="35" t="s">
@@ -23395,7 +23231,7 @@
       <c r="J198" s="36">
         <v>43496</v>
       </c>
-      <c r="K198" s="36">
+      <c r="K198" s="48">
         <v>2019</v>
       </c>
       <c r="L198" s="35">
@@ -23407,7 +23243,7 @@
       <c r="N198" s="36">
         <v>43497</v>
       </c>
-      <c r="O198" s="36">
+      <c r="O198" s="48">
         <v>2019</v>
       </c>
       <c r="P198" s="35">
@@ -23437,7 +23273,7 @@
       <c r="E199" s="36">
         <v>43187</v>
       </c>
-      <c r="F199" s="36">
+      <c r="F199" s="48">
         <v>2018</v>
       </c>
       <c r="G199" s="35" t="s">
@@ -23452,7 +23288,7 @@
       <c r="J199" s="36">
         <v>43507</v>
       </c>
-      <c r="K199" s="36">
+      <c r="K199" s="48">
         <v>2019</v>
       </c>
       <c r="L199" s="35">
@@ -23464,7 +23300,7 @@
       <c r="N199" s="36">
         <v>43530</v>
       </c>
-      <c r="O199" s="36">
+      <c r="O199" s="48">
         <v>2019</v>
       </c>
       <c r="P199" s="35">
@@ -23494,7 +23330,7 @@
       <c r="E200" s="36">
         <v>43098</v>
       </c>
-      <c r="F200" s="36">
+      <c r="F200" s="48">
         <v>2017</v>
       </c>
       <c r="G200" s="35" t="s">
@@ -23509,7 +23345,7 @@
       <c r="J200" s="36">
         <v>43511</v>
       </c>
-      <c r="K200" s="36">
+      <c r="K200" s="48">
         <v>2019</v>
       </c>
       <c r="L200" s="35">
@@ -23521,7 +23357,7 @@
       <c r="N200" s="36">
         <v>43521</v>
       </c>
-      <c r="O200" s="36">
+      <c r="O200" s="48">
         <v>2019</v>
       </c>
       <c r="P200" s="35">
@@ -23551,7 +23387,7 @@
       <c r="E201" s="36">
         <v>43054</v>
       </c>
-      <c r="F201" s="36">
+      <c r="F201" s="48">
         <v>2017</v>
       </c>
       <c r="G201" s="35" t="s">
@@ -23566,7 +23402,7 @@
       <c r="J201" s="36">
         <v>43514</v>
       </c>
-      <c r="K201" s="36">
+      <c r="K201" s="48">
         <v>2019</v>
       </c>
       <c r="L201" s="35">
@@ -23578,7 +23414,7 @@
       <c r="N201" s="36">
         <v>43518</v>
       </c>
-      <c r="O201" s="36">
+      <c r="O201" s="48">
         <v>2019</v>
       </c>
       <c r="P201" s="35">
@@ -23608,7 +23444,7 @@
       <c r="E202" s="36">
         <v>43012</v>
       </c>
-      <c r="F202" s="36">
+      <c r="F202" s="48">
         <v>2017</v>
       </c>
       <c r="G202" s="35" t="s">
@@ -23623,7 +23459,7 @@
       <c r="J202" s="36">
         <v>43511</v>
       </c>
-      <c r="K202" s="36">
+      <c r="K202" s="48">
         <v>2019</v>
       </c>
       <c r="L202" s="35">
@@ -23635,7 +23471,7 @@
       <c r="N202" s="36">
         <v>43623</v>
       </c>
-      <c r="O202" s="36">
+      <c r="O202" s="48">
         <v>2019</v>
       </c>
       <c r="P202" s="35">
@@ -23665,7 +23501,7 @@
       <c r="E203" s="36">
         <v>42661</v>
       </c>
-      <c r="F203" s="36">
+      <c r="F203" s="48">
         <v>2016</v>
       </c>
       <c r="G203" s="35" t="s">
@@ -23680,7 +23516,7 @@
       <c r="J203" s="36">
         <v>43516</v>
       </c>
-      <c r="K203" s="36">
+      <c r="K203" s="48">
         <v>2019</v>
       </c>
       <c r="L203" s="35">
@@ -23692,7 +23528,7 @@
       <c r="N203" s="36">
         <v>43516</v>
       </c>
-      <c r="O203" s="36">
+      <c r="O203" s="48">
         <v>2019</v>
       </c>
       <c r="P203" s="35">
@@ -23722,7 +23558,7 @@
       <c r="E204" s="36">
         <v>42356</v>
       </c>
-      <c r="F204" s="36">
+      <c r="F204" s="48">
         <v>2015</v>
       </c>
       <c r="G204" s="35" t="s">
@@ -23737,7 +23573,7 @@
       <c r="J204" s="36">
         <v>43528</v>
       </c>
-      <c r="K204" s="36">
+      <c r="K204" s="48">
         <v>2019</v>
       </c>
       <c r="L204" s="35">
@@ -23749,7 +23585,7 @@
       <c r="N204" s="36">
         <v>43671</v>
       </c>
-      <c r="O204" s="36">
+      <c r="O204" s="48">
         <v>2019</v>
       </c>
       <c r="P204" s="35">
@@ -23779,7 +23615,7 @@
       <c r="E205" s="36">
         <v>43069</v>
       </c>
-      <c r="F205" s="36">
+      <c r="F205" s="48">
         <v>2017</v>
       </c>
       <c r="G205" s="35" t="s">
@@ -23794,7 +23630,7 @@
       <c r="J205" s="36">
         <v>43535</v>
       </c>
-      <c r="K205" s="36">
+      <c r="K205" s="48">
         <v>2019</v>
       </c>
       <c r="L205" s="35">
@@ -23806,7 +23642,7 @@
       <c r="N205" s="36">
         <v>43566</v>
       </c>
-      <c r="O205" s="36">
+      <c r="O205" s="48">
         <v>2019</v>
       </c>
       <c r="P205" s="35">
@@ -23836,7 +23672,7 @@
       <c r="E206" s="36">
         <v>43249</v>
       </c>
-      <c r="F206" s="36">
+      <c r="F206" s="48">
         <v>2018</v>
       </c>
       <c r="G206" s="35" t="s">
@@ -23851,7 +23687,7 @@
       <c r="J206" s="36">
         <v>43536</v>
       </c>
-      <c r="K206" s="36">
+      <c r="K206" s="48">
         <v>2019</v>
       </c>
       <c r="L206" s="35">
@@ -23863,7 +23699,7 @@
       <c r="N206" s="36">
         <v>43545</v>
       </c>
-      <c r="O206" s="36">
+      <c r="O206" s="48">
         <v>2019</v>
       </c>
       <c r="P206" s="35">
@@ -23893,7 +23729,7 @@
       <c r="E207" s="36">
         <v>42720</v>
       </c>
-      <c r="F207" s="36">
+      <c r="F207" s="48">
         <v>2016</v>
       </c>
       <c r="G207" s="35" t="s">
@@ -23908,7 +23744,7 @@
       <c r="J207" s="36">
         <v>43542</v>
       </c>
-      <c r="K207" s="36">
+      <c r="K207" s="48">
         <v>2019</v>
       </c>
       <c r="L207" s="35">
@@ -23920,7 +23756,7 @@
       <c r="N207" s="36">
         <v>43704</v>
       </c>
-      <c r="O207" s="36">
+      <c r="O207" s="48">
         <v>2019</v>
       </c>
       <c r="P207" s="35">
@@ -23950,7 +23786,7 @@
       <c r="E208" s="36">
         <v>42641</v>
       </c>
-      <c r="F208" s="36">
+      <c r="F208" s="48">
         <v>2016</v>
       </c>
       <c r="G208" s="35" t="s">
@@ -23965,7 +23801,7 @@
       <c r="J208" s="36">
         <v>43528</v>
       </c>
-      <c r="K208" s="36">
+      <c r="K208" s="48">
         <v>2019</v>
       </c>
       <c r="L208" s="35">
@@ -23977,7 +23813,7 @@
       <c r="N208" s="36">
         <v>43528</v>
       </c>
-      <c r="O208" s="36">
+      <c r="O208" s="48">
         <v>2019</v>
       </c>
       <c r="P208" s="35">
@@ -24007,7 +23843,7 @@
       <c r="E209" s="36">
         <v>43249</v>
       </c>
-      <c r="F209" s="36">
+      <c r="F209" s="48">
         <v>2018</v>
       </c>
       <c r="G209" s="35" t="s">
@@ -24022,7 +23858,7 @@
       <c r="J209" s="36">
         <v>43542</v>
       </c>
-      <c r="K209" s="36">
+      <c r="K209" s="48">
         <v>2019</v>
       </c>
       <c r="L209" s="35">
@@ -24034,7 +23870,7 @@
       <c r="N209" s="36">
         <v>43623</v>
       </c>
-      <c r="O209" s="36">
+      <c r="O209" s="48">
         <v>2019</v>
       </c>
       <c r="P209" s="35">
@@ -24064,7 +23900,7 @@
       <c r="E210" s="36">
         <v>43523</v>
       </c>
-      <c r="F210" s="36">
+      <c r="F210" s="48">
         <v>2019</v>
       </c>
       <c r="G210" s="35" t="s">
@@ -24079,7 +23915,7 @@
       <c r="J210" s="36">
         <v>43531</v>
       </c>
-      <c r="K210" s="36">
+      <c r="K210" s="48">
         <v>2019</v>
       </c>
       <c r="L210" s="35">
@@ -24091,7 +23927,7 @@
       <c r="N210" s="36">
         <v>43535</v>
       </c>
-      <c r="O210" s="36">
+      <c r="O210" s="48">
         <v>2019</v>
       </c>
       <c r="P210" s="35">
@@ -24121,7 +23957,7 @@
       <c r="E211" s="36">
         <v>42947</v>
       </c>
-      <c r="F211" s="36">
+      <c r="F211" s="48">
         <v>2017</v>
       </c>
       <c r="G211" s="35" t="s">
@@ -24136,7 +23972,7 @@
       <c r="J211" s="36">
         <v>43524</v>
       </c>
-      <c r="K211" s="36">
+      <c r="K211" s="48">
         <v>2019</v>
       </c>
       <c r="L211" s="35">
@@ -24146,7 +23982,7 @@
         <v>43524</v>
       </c>
       <c r="N211" s="36"/>
-      <c r="O211" s="36">
+      <c r="O211" s="48">
         <v>2019</v>
       </c>
       <c r="P211" s="35"/>
@@ -24174,7 +24010,7 @@
       <c r="E212" s="36">
         <v>42947</v>
       </c>
-      <c r="F212" s="36">
+      <c r="F212" s="48">
         <v>2017</v>
       </c>
       <c r="G212" s="35" t="s">
@@ -24189,7 +24025,7 @@
       <c r="J212" s="36">
         <v>43530</v>
       </c>
-      <c r="K212" s="36">
+      <c r="K212" s="48">
         <v>2019</v>
       </c>
       <c r="L212" s="35">
@@ -24199,7 +24035,7 @@
         <v>43530</v>
       </c>
       <c r="N212" s="36"/>
-      <c r="O212" s="36">
+      <c r="O212" s="48">
         <v>2019</v>
       </c>
       <c r="P212" s="35"/>
@@ -24227,7 +24063,7 @@
       <c r="E213" s="36">
         <v>42661</v>
       </c>
-      <c r="F213" s="36">
+      <c r="F213" s="48">
         <v>2016</v>
       </c>
       <c r="G213" s="35" t="s">
@@ -24242,7 +24078,7 @@
       <c r="J213" s="36">
         <v>43547</v>
       </c>
-      <c r="K213" s="36">
+      <c r="K213" s="48">
         <v>2019</v>
       </c>
       <c r="L213" s="35">
@@ -24254,7 +24090,7 @@
       <c r="N213" s="36">
         <v>43628</v>
       </c>
-      <c r="O213" s="36">
+      <c r="O213" s="48">
         <v>2019</v>
       </c>
       <c r="P213" s="35">
@@ -24284,7 +24120,7 @@
       <c r="E214" s="36">
         <v>43043</v>
       </c>
-      <c r="F214" s="36">
+      <c r="F214" s="48">
         <v>2017</v>
       </c>
       <c r="G214" s="35" t="s">
@@ -24299,7 +24135,7 @@
       <c r="J214" s="36">
         <v>43552</v>
       </c>
-      <c r="K214" s="36">
+      <c r="K214" s="48">
         <v>2019</v>
       </c>
       <c r="L214" s="35">
@@ -24311,7 +24147,7 @@
       <c r="N214" s="36">
         <v>43553</v>
       </c>
-      <c r="O214" s="36">
+      <c r="O214" s="48">
         <v>2019</v>
       </c>
       <c r="P214" s="35">
@@ -24341,7 +24177,7 @@
       <c r="E215" s="36">
         <v>43544</v>
       </c>
-      <c r="F215" s="36">
+      <c r="F215" s="48">
         <v>2019</v>
       </c>
       <c r="G215" s="35" t="s">
@@ -24356,7 +24192,7 @@
       <c r="J215" s="36">
         <v>43553</v>
       </c>
-      <c r="K215" s="36">
+      <c r="K215" s="48">
         <v>2019</v>
       </c>
       <c r="L215" s="35">
@@ -24368,7 +24204,7 @@
       <c r="N215" s="36">
         <v>43602</v>
       </c>
-      <c r="O215" s="36">
+      <c r="O215" s="48">
         <v>2019</v>
       </c>
       <c r="P215" s="35">
@@ -24398,7 +24234,7 @@
       <c r="E216" s="36">
         <v>43266</v>
       </c>
-      <c r="F216" s="36">
+      <c r="F216" s="48">
         <v>2018</v>
       </c>
       <c r="G216" s="35" t="s">
@@ -24413,7 +24249,7 @@
       <c r="J216" s="36">
         <v>43559</v>
       </c>
-      <c r="K216" s="36">
+      <c r="K216" s="48">
         <v>2019</v>
       </c>
       <c r="L216" s="35">
@@ -24425,7 +24261,7 @@
       <c r="N216" s="36">
         <v>43628</v>
       </c>
-      <c r="O216" s="36">
+      <c r="O216" s="48">
         <v>2019</v>
       </c>
       <c r="P216" s="35">
@@ -24455,7 +24291,7 @@
       <c r="E217" s="36">
         <v>43055</v>
       </c>
-      <c r="F217" s="36">
+      <c r="F217" s="48">
         <v>2017</v>
       </c>
       <c r="G217" s="35" t="s">
@@ -24470,7 +24306,7 @@
       <c r="J217" s="36">
         <v>43563</v>
       </c>
-      <c r="K217" s="36">
+      <c r="K217" s="48">
         <v>2019</v>
       </c>
       <c r="L217" s="35">
@@ -24482,7 +24318,7 @@
       <c r="N217" s="36">
         <v>43801</v>
       </c>
-      <c r="O217" s="36">
+      <c r="O217" s="48">
         <v>2019</v>
       </c>
       <c r="P217" s="35">
@@ -24512,7 +24348,7 @@
       <c r="E218" s="36">
         <v>43339</v>
       </c>
-      <c r="F218" s="36">
+      <c r="F218" s="48">
         <v>2018</v>
       </c>
       <c r="G218" s="35" t="s">
@@ -24527,7 +24363,7 @@
       <c r="J218" s="36">
         <v>43553</v>
       </c>
-      <c r="K218" s="36">
+      <c r="K218" s="48">
         <v>2019</v>
       </c>
       <c r="L218" s="35">
@@ -24537,7 +24373,7 @@
         <v>43553</v>
       </c>
       <c r="N218" s="36"/>
-      <c r="O218" s="36">
+      <c r="O218" s="48">
         <v>2019</v>
       </c>
       <c r="P218" s="35"/>
@@ -24565,7 +24401,7 @@
       <c r="E219" s="36">
         <v>43511</v>
       </c>
-      <c r="F219" s="36">
+      <c r="F219" s="48">
         <v>2019</v>
       </c>
       <c r="G219" s="35" t="s">
@@ -24580,7 +24416,7 @@
       <c r="J219" s="36">
         <v>43558</v>
       </c>
-      <c r="K219" s="36">
+      <c r="K219" s="48">
         <v>2019</v>
       </c>
       <c r="L219" s="35">
@@ -24592,7 +24428,7 @@
       <c r="N219" s="36">
         <v>43685</v>
       </c>
-      <c r="O219" s="36">
+      <c r="O219" s="48">
         <v>2019</v>
       </c>
       <c r="P219" s="35">
@@ -24622,7 +24458,7 @@
       <c r="E220" s="36">
         <v>42765</v>
       </c>
-      <c r="F220" s="36">
+      <c r="F220" s="48">
         <v>2017</v>
       </c>
       <c r="G220" s="35" t="s">
@@ -24637,7 +24473,7 @@
       <c r="J220" s="36">
         <v>43559</v>
       </c>
-      <c r="K220" s="36">
+      <c r="K220" s="48">
         <v>2019</v>
       </c>
       <c r="L220" s="35">
@@ -24649,7 +24485,7 @@
       <c r="N220" s="36">
         <v>43600</v>
       </c>
-      <c r="O220" s="36">
+      <c r="O220" s="48">
         <v>2019</v>
       </c>
       <c r="P220" s="35">
@@ -24679,7 +24515,7 @@
       <c r="E221" s="36">
         <v>43374</v>
       </c>
-      <c r="F221" s="36">
+      <c r="F221" s="48">
         <v>2018</v>
       </c>
       <c r="G221" s="35" t="s">
@@ -24694,7 +24530,7 @@
       <c r="J221" s="36">
         <v>43565</v>
       </c>
-      <c r="K221" s="36">
+      <c r="K221" s="48">
         <v>2019</v>
       </c>
       <c r="L221" s="35">
@@ -24706,7 +24542,7 @@
       <c r="N221" s="36">
         <v>43600</v>
       </c>
-      <c r="O221" s="36">
+      <c r="O221" s="48">
         <v>2019</v>
       </c>
       <c r="P221" s="35">
@@ -24736,7 +24572,7 @@
       <c r="E222" s="36">
         <v>43546</v>
       </c>
-      <c r="F222" s="36">
+      <c r="F222" s="48">
         <v>2019</v>
       </c>
       <c r="G222" s="35" t="s">
@@ -24751,7 +24587,7 @@
       <c r="J222" s="36">
         <v>43567</v>
       </c>
-      <c r="K222" s="36">
+      <c r="K222" s="48">
         <v>2019</v>
       </c>
       <c r="L222" s="35">
@@ -24763,7 +24599,7 @@
       <c r="N222" s="36">
         <v>43602</v>
       </c>
-      <c r="O222" s="36">
+      <c r="O222" s="48">
         <v>2019</v>
       </c>
       <c r="P222" s="35">
@@ -24793,7 +24629,7 @@
       <c r="E223" s="36">
         <v>43098</v>
       </c>
-      <c r="F223" s="36">
+      <c r="F223" s="48">
         <v>2017</v>
       </c>
       <c r="G223" s="35" t="s">
@@ -24808,7 +24644,7 @@
       <c r="J223" s="36">
         <v>43572</v>
       </c>
-      <c r="K223" s="36">
+      <c r="K223" s="48">
         <v>2019</v>
       </c>
       <c r="L223" s="35">
@@ -24820,7 +24656,7 @@
       <c r="N223" s="36">
         <v>43602</v>
       </c>
-      <c r="O223" s="36">
+      <c r="O223" s="48">
         <v>2019</v>
       </c>
       <c r="P223" s="35">
@@ -24850,7 +24686,7 @@
       <c r="E224" s="36">
         <v>43108</v>
       </c>
-      <c r="F224" s="36">
+      <c r="F224" s="48">
         <v>2018</v>
       </c>
       <c r="G224" s="35" t="s">
@@ -24865,7 +24701,7 @@
       <c r="J224" s="36">
         <v>43591</v>
       </c>
-      <c r="K224" s="36">
+      <c r="K224" s="48">
         <v>2019</v>
       </c>
       <c r="L224" s="35">
@@ -24877,7 +24713,7 @@
       <c r="N224" s="36">
         <v>43608</v>
       </c>
-      <c r="O224" s="36">
+      <c r="O224" s="48">
         <v>2019</v>
       </c>
       <c r="P224" s="35">
@@ -24907,7 +24743,7 @@
       <c r="E225" s="36">
         <v>43399</v>
       </c>
-      <c r="F225" s="36">
+      <c r="F225" s="48">
         <v>2018</v>
       </c>
       <c r="G225" s="35" t="s">
@@ -24922,7 +24758,7 @@
       <c r="J225" s="36">
         <v>43599</v>
       </c>
-      <c r="K225" s="36">
+      <c r="K225" s="48">
         <v>2019</v>
       </c>
       <c r="L225" s="35">
@@ -24934,7 +24770,7 @@
       <c r="N225" s="36">
         <v>43600</v>
       </c>
-      <c r="O225" s="36">
+      <c r="O225" s="48">
         <v>2019</v>
       </c>
       <c r="P225" s="35">
@@ -24964,7 +24800,7 @@
       <c r="E226" s="36">
         <v>42556</v>
       </c>
-      <c r="F226" s="36">
+      <c r="F226" s="48">
         <v>2016</v>
       </c>
       <c r="G226" s="35" t="s">
@@ -24979,7 +24815,7 @@
       <c r="J226" s="36">
         <v>43608</v>
       </c>
-      <c r="K226" s="36">
+      <c r="K226" s="48">
         <v>2019</v>
       </c>
       <c r="L226" s="35">
@@ -24991,7 +24827,7 @@
       <c r="N226" s="36">
         <v>43608</v>
       </c>
-      <c r="O226" s="36">
+      <c r="O226" s="48">
         <v>2019</v>
       </c>
       <c r="P226" s="35">
@@ -25021,7 +24857,7 @@
       <c r="E227" s="36">
         <v>43511</v>
       </c>
-      <c r="F227" s="36">
+      <c r="F227" s="48">
         <v>2019</v>
       </c>
       <c r="G227" s="35" t="s">
@@ -25036,7 +24872,7 @@
       <c r="J227" s="36">
         <v>43608</v>
       </c>
-      <c r="K227" s="36">
+      <c r="K227" s="48">
         <v>2019</v>
       </c>
       <c r="L227" s="35">
@@ -25048,7 +24884,7 @@
       <c r="N227" s="36">
         <v>43675</v>
       </c>
-      <c r="O227" s="36">
+      <c r="O227" s="48">
         <v>2019</v>
       </c>
       <c r="P227" s="35">
@@ -25078,7 +24914,7 @@
       <c r="E228" s="36">
         <v>43402</v>
       </c>
-      <c r="F228" s="36">
+      <c r="F228" s="48">
         <v>2018</v>
       </c>
       <c r="G228" s="35" t="s">
@@ -25093,7 +24929,7 @@
       <c r="J228" s="36">
         <v>43601</v>
       </c>
-      <c r="K228" s="36">
+      <c r="K228" s="48">
         <v>2019</v>
       </c>
       <c r="L228" s="35">
@@ -25105,7 +24941,7 @@
       <c r="N228" s="36">
         <v>43646</v>
       </c>
-      <c r="O228" s="36">
+      <c r="O228" s="48">
         <v>2019</v>
       </c>
       <c r="P228" s="35">
@@ -25135,7 +24971,7 @@
       <c r="E229" s="36">
         <v>42703</v>
       </c>
-      <c r="F229" s="36">
+      <c r="F229" s="48">
         <v>2016</v>
       </c>
       <c r="G229" s="35" t="s">
@@ -25150,7 +24986,7 @@
       <c r="J229" s="36">
         <v>43609</v>
       </c>
-      <c r="K229" s="36">
+      <c r="K229" s="48">
         <v>2019</v>
       </c>
       <c r="L229" s="35">
@@ -25162,7 +24998,7 @@
       <c r="N229" s="36">
         <v>43683</v>
       </c>
-      <c r="O229" s="36">
+      <c r="O229" s="48">
         <v>2019</v>
       </c>
       <c r="P229" s="35">
@@ -25192,7 +25028,7 @@
       <c r="E230" s="36">
         <v>43147</v>
       </c>
-      <c r="F230" s="36">
+      <c r="F230" s="48">
         <v>2018</v>
       </c>
       <c r="G230" s="35" t="s">
@@ -25207,7 +25043,7 @@
       <c r="J230" s="36">
         <v>43612</v>
       </c>
-      <c r="K230" s="36">
+      <c r="K230" s="48">
         <v>2019</v>
       </c>
       <c r="L230" s="35">
@@ -25219,7 +25055,7 @@
       <c r="N230" s="36">
         <v>43632</v>
       </c>
-      <c r="O230" s="36">
+      <c r="O230" s="48">
         <v>2019</v>
       </c>
       <c r="P230" s="35">
@@ -25249,7 +25085,7 @@
       <c r="E231" s="36">
         <v>43034</v>
       </c>
-      <c r="F231" s="36">
+      <c r="F231" s="48">
         <v>2017</v>
       </c>
       <c r="G231" s="35" t="s">
@@ -25264,7 +25100,7 @@
       <c r="J231" s="36">
         <v>43609</v>
       </c>
-      <c r="K231" s="36">
+      <c r="K231" s="48">
         <v>2019</v>
       </c>
       <c r="L231" s="35">
@@ -25276,7 +25112,7 @@
       <c r="N231" s="36">
         <v>43642</v>
       </c>
-      <c r="O231" s="36">
+      <c r="O231" s="48">
         <v>2019</v>
       </c>
       <c r="P231" s="35">
@@ -25306,7 +25142,7 @@
       <c r="E232" s="36">
         <v>42661</v>
       </c>
-      <c r="F232" s="36">
+      <c r="F232" s="48">
         <v>2016</v>
       </c>
       <c r="G232" s="35" t="s">
@@ -25321,7 +25157,7 @@
       <c r="J232" s="36">
         <v>43612</v>
       </c>
-      <c r="K232" s="36">
+      <c r="K232" s="48">
         <v>2019</v>
       </c>
       <c r="L232" s="35">
@@ -25333,7 +25169,7 @@
       <c r="N232" s="36">
         <v>43628</v>
       </c>
-      <c r="O232" s="36">
+      <c r="O232" s="48">
         <v>2019</v>
       </c>
       <c r="P232" s="35">
@@ -25363,7 +25199,7 @@
       <c r="E233" s="36">
         <v>43346</v>
       </c>
-      <c r="F233" s="36">
+      <c r="F233" s="48">
         <v>2018</v>
       </c>
       <c r="G233" s="35" t="s">
@@ -25378,7 +25214,7 @@
       <c r="J233" s="36">
         <v>43608</v>
       </c>
-      <c r="K233" s="36">
+      <c r="K233" s="48">
         <v>2019</v>
       </c>
       <c r="L233" s="35">
@@ -25390,7 +25226,7 @@
       <c r="N233" s="36">
         <v>43626</v>
       </c>
-      <c r="O233" s="36">
+      <c r="O233" s="48">
         <v>2019</v>
       </c>
       <c r="P233" s="35">
@@ -25420,7 +25256,7 @@
       <c r="E234" s="36">
         <v>43404</v>
       </c>
-      <c r="F234" s="36">
+      <c r="F234" s="48">
         <v>2018</v>
       </c>
       <c r="G234" s="35" t="s">
@@ -25435,7 +25271,7 @@
       <c r="J234" s="36">
         <v>43612</v>
       </c>
-      <c r="K234" s="36">
+      <c r="K234" s="48">
         <v>2019</v>
       </c>
       <c r="L234" s="35">
@@ -25447,7 +25283,7 @@
       <c r="N234" s="36">
         <v>43627</v>
       </c>
-      <c r="O234" s="36">
+      <c r="O234" s="48">
         <v>2019</v>
       </c>
       <c r="P234" s="35">
@@ -25477,7 +25313,7 @@
       <c r="E235" s="36">
         <v>43025</v>
       </c>
-      <c r="F235" s="36">
+      <c r="F235" s="48">
         <v>2017</v>
       </c>
       <c r="G235" s="35" t="s">
@@ -25492,7 +25328,7 @@
       <c r="J235" s="36">
         <v>43606</v>
       </c>
-      <c r="K235" s="36">
+      <c r="K235" s="48">
         <v>2019</v>
       </c>
       <c r="L235" s="35">
@@ -25504,7 +25340,7 @@
       <c r="N235" s="36">
         <v>43649</v>
       </c>
-      <c r="O235" s="36">
+      <c r="O235" s="48">
         <v>2019</v>
       </c>
       <c r="P235" s="35">
@@ -25534,7 +25370,7 @@
       <c r="E236" s="36">
         <v>43456</v>
       </c>
-      <c r="F236" s="36">
+      <c r="F236" s="48">
         <v>2018</v>
       </c>
       <c r="G236" s="35" t="s">
@@ -25549,7 +25385,7 @@
       <c r="J236" s="36">
         <v>43601</v>
       </c>
-      <c r="K236" s="36">
+      <c r="K236" s="48">
         <v>2019</v>
       </c>
       <c r="L236" s="35">
@@ -25561,7 +25397,7 @@
       <c r="N236" s="36">
         <v>43605</v>
       </c>
-      <c r="O236" s="36">
+      <c r="O236" s="48">
         <v>2019</v>
       </c>
       <c r="P236" s="35">
@@ -25591,7 +25427,7 @@
       <c r="E237" s="36">
         <v>43043</v>
       </c>
-      <c r="F237" s="36">
+      <c r="F237" s="48">
         <v>2017</v>
       </c>
       <c r="G237" s="35" t="s">
@@ -25606,7 +25442,7 @@
       <c r="J237" s="36">
         <v>43614</v>
       </c>
-      <c r="K237" s="36">
+      <c r="K237" s="48">
         <v>2019</v>
       </c>
       <c r="L237" s="35">
@@ -25618,7 +25454,7 @@
       <c r="N237" s="36">
         <v>43628</v>
       </c>
-      <c r="O237" s="36">
+      <c r="O237" s="48">
         <v>2019</v>
       </c>
       <c r="P237" s="35">
@@ -25648,7 +25484,7 @@
       <c r="E238" s="36">
         <v>43588</v>
       </c>
-      <c r="F238" s="36">
+      <c r="F238" s="48">
         <v>2019</v>
       </c>
       <c r="G238" s="35" t="s">
@@ -25663,7 +25499,7 @@
       <c r="J238" s="36">
         <v>43621</v>
       </c>
-      <c r="K238" s="36">
+      <c r="K238" s="48">
         <v>2019</v>
       </c>
       <c r="L238" s="35">
@@ -25675,7 +25511,7 @@
       <c r="N238" s="36">
         <v>43633</v>
       </c>
-      <c r="O238" s="36">
+      <c r="O238" s="48">
         <v>2019</v>
       </c>
       <c r="P238" s="35">
@@ -25705,7 +25541,7 @@
       <c r="E239" s="36">
         <v>43203</v>
       </c>
-      <c r="F239" s="36">
+      <c r="F239" s="48">
         <v>2018</v>
       </c>
       <c r="G239" s="35" t="s">
@@ -25720,7 +25556,7 @@
       <c r="J239" s="36">
         <v>43629</v>
       </c>
-      <c r="K239" s="36">
+      <c r="K239" s="48">
         <v>2019</v>
       </c>
       <c r="L239" s="35">
@@ -25732,7 +25568,7 @@
       <c r="N239" s="36">
         <v>43648</v>
       </c>
-      <c r="O239" s="36">
+      <c r="O239" s="48">
         <v>2019</v>
       </c>
       <c r="P239" s="35">
@@ -25762,7 +25598,7 @@
       <c r="E240" s="36">
         <v>42930</v>
       </c>
-      <c r="F240" s="36">
+      <c r="F240" s="48">
         <v>2017</v>
       </c>
       <c r="G240" s="35" t="s">
@@ -25777,7 +25613,7 @@
       <c r="J240" s="36">
         <v>43629</v>
       </c>
-      <c r="K240" s="36">
+      <c r="K240" s="48">
         <v>2019</v>
       </c>
       <c r="L240" s="35">
@@ -25789,7 +25625,7 @@
       <c r="N240" s="36">
         <v>43739</v>
       </c>
-      <c r="O240" s="36">
+      <c r="O240" s="48">
         <v>2019</v>
       </c>
       <c r="P240" s="35">
@@ -25819,7 +25655,7 @@
       <c r="E241" s="36">
         <v>43147</v>
       </c>
-      <c r="F241" s="36">
+      <c r="F241" s="48">
         <v>2018</v>
       </c>
       <c r="G241" s="35" t="s">
@@ -25834,7 +25670,7 @@
       <c r="J241" s="36">
         <v>43634</v>
       </c>
-      <c r="K241" s="36">
+      <c r="K241" s="48">
         <v>2019</v>
       </c>
       <c r="L241" s="35">
@@ -25846,7 +25682,7 @@
       <c r="N241" s="36">
         <v>43637</v>
       </c>
-      <c r="O241" s="36">
+      <c r="O241" s="48">
         <v>2019</v>
       </c>
       <c r="P241" s="35">
@@ -25876,7 +25712,7 @@
       <c r="E242" s="36">
         <v>43070</v>
       </c>
-      <c r="F242" s="36">
+      <c r="F242" s="48">
         <v>2017</v>
       </c>
       <c r="G242" s="35" t="s">
@@ -25891,7 +25727,7 @@
       <c r="J242" s="36">
         <v>43637.467754780089</v>
       </c>
-      <c r="K242" s="36">
+      <c r="K242" s="48">
         <v>2019</v>
       </c>
       <c r="L242" s="35">
@@ -25903,7 +25739,7 @@
       <c r="N242" s="36">
         <v>43662</v>
       </c>
-      <c r="O242" s="36">
+      <c r="O242" s="48">
         <v>2019</v>
       </c>
       <c r="P242" s="35">
@@ -25933,7 +25769,7 @@
       <c r="E243" s="36">
         <v>43570</v>
       </c>
-      <c r="F243" s="36">
+      <c r="F243" s="48">
         <v>2019</v>
       </c>
       <c r="G243" s="35" t="s">
@@ -25948,7 +25784,7 @@
       <c r="J243" s="36">
         <v>43642.466876469909</v>
       </c>
-      <c r="K243" s="36">
+      <c r="K243" s="48">
         <v>2019</v>
       </c>
       <c r="L243" s="35">
@@ -25960,7 +25796,7 @@
       <c r="N243" s="36">
         <v>43644</v>
       </c>
-      <c r="O243" s="36">
+      <c r="O243" s="48">
         <v>2019</v>
       </c>
       <c r="P243" s="35">
@@ -25990,7 +25826,7 @@
       <c r="E244" s="36">
         <v>43640</v>
       </c>
-      <c r="F244" s="36">
+      <c r="F244" s="48">
         <v>2019</v>
       </c>
       <c r="G244" s="35" t="s">
@@ -26005,7 +25841,7 @@
       <c r="J244" s="36">
         <v>43643.466572372687</v>
       </c>
-      <c r="K244" s="36">
+      <c r="K244" s="48">
         <v>2019</v>
       </c>
       <c r="L244" s="35">
@@ -26017,7 +25853,7 @@
       <c r="N244" s="36">
         <v>43650</v>
       </c>
-      <c r="O244" s="36">
+      <c r="O244" s="48">
         <v>2019</v>
       </c>
       <c r="P244" s="35">
@@ -26047,7 +25883,7 @@
       <c r="E245" s="36">
         <v>43481</v>
       </c>
-      <c r="F245" s="36">
+      <c r="F245" s="48">
         <v>2019</v>
       </c>
       <c r="G245" s="35" t="s">
@@ -26062,7 +25898,7 @@
       <c r="J245" s="36">
         <v>43650.600522997687</v>
       </c>
-      <c r="K245" s="36">
+      <c r="K245" s="48">
         <v>2019</v>
       </c>
       <c r="L245" s="35">
@@ -26074,7 +25910,7 @@
       <c r="N245" s="36">
         <v>43666</v>
       </c>
-      <c r="O245" s="36">
+      <c r="O245" s="48">
         <v>2019</v>
       </c>
       <c r="P245" s="35">
@@ -26104,7 +25940,7 @@
       <c r="E246" s="36">
         <v>43154</v>
       </c>
-      <c r="F246" s="36">
+      <c r="F246" s="48">
         <v>2018</v>
       </c>
       <c r="G246" s="35" t="s">
@@ -26119,7 +25955,7 @@
       <c r="J246" s="36">
         <v>43651.348148958336</v>
       </c>
-      <c r="K246" s="36">
+      <c r="K246" s="48">
         <v>2019</v>
       </c>
       <c r="L246" s="35">
@@ -26131,7 +25967,7 @@
       <c r="N246" s="36">
         <v>43668</v>
       </c>
-      <c r="O246" s="36">
+      <c r="O246" s="48">
         <v>2019</v>
       </c>
       <c r="P246" s="35">
@@ -26161,7 +25997,7 @@
       <c r="E247" s="36">
         <v>43223</v>
       </c>
-      <c r="F247" s="36">
+      <c r="F247" s="48">
         <v>2018</v>
       </c>
       <c r="G247" s="35" t="s">
@@ -26176,7 +26012,7 @@
       <c r="J247" s="36">
         <v>43655.494156400462</v>
       </c>
-      <c r="K247" s="36">
+      <c r="K247" s="48">
         <v>2019</v>
       </c>
       <c r="L247" s="35">
@@ -26188,7 +26024,7 @@
       <c r="N247" s="36">
         <v>43679</v>
       </c>
-      <c r="O247" s="36">
+      <c r="O247" s="48">
         <v>2019</v>
       </c>
       <c r="P247" s="35">
@@ -26218,7 +26054,7 @@
       <c r="E248" s="36">
         <v>43357</v>
       </c>
-      <c r="F248" s="36">
+      <c r="F248" s="48">
         <v>2018</v>
       </c>
       <c r="G248" s="35" t="s">
@@ -26233,7 +26069,7 @@
       <c r="J248" s="36">
         <v>43656.344862233796</v>
       </c>
-      <c r="K248" s="36">
+      <c r="K248" s="48">
         <v>2019</v>
       </c>
       <c r="L248" s="35">
@@ -26245,7 +26081,7 @@
       <c r="N248" s="36">
         <v>43690</v>
       </c>
-      <c r="O248" s="36">
+      <c r="O248" s="48">
         <v>2019</v>
       </c>
       <c r="P248" s="35">
@@ -26275,7 +26111,7 @@
       <c r="E249" s="36">
         <v>43640</v>
       </c>
-      <c r="F249" s="36">
+      <c r="F249" s="48">
         <v>2019</v>
       </c>
       <c r="G249" s="35" t="s">
@@ -26290,7 +26126,7 @@
       <c r="J249" s="36">
         <v>43656.622387847223</v>
       </c>
-      <c r="K249" s="36">
+      <c r="K249" s="48">
         <v>2019</v>
       </c>
       <c r="L249" s="35">
@@ -26302,7 +26138,7 @@
       <c r="N249" s="36">
         <v>43678</v>
       </c>
-      <c r="O249" s="36">
+      <c r="O249" s="48">
         <v>2019</v>
       </c>
       <c r="P249" s="35">
@@ -26332,7 +26168,7 @@
       <c r="E250" s="36">
         <v>43223</v>
       </c>
-      <c r="F250" s="36">
+      <c r="F250" s="48">
         <v>2018</v>
       </c>
       <c r="G250" s="35" t="s">
@@ -26347,7 +26183,7 @@
       <c r="J250" s="36">
         <v>43657.695413506946</v>
       </c>
-      <c r="K250" s="36">
+      <c r="K250" s="48">
         <v>2019</v>
       </c>
       <c r="L250" s="35">
@@ -26359,7 +26195,7 @@
       <c r="N250" s="36">
         <v>43657</v>
       </c>
-      <c r="O250" s="36">
+      <c r="O250" s="48">
         <v>2019</v>
       </c>
       <c r="P250" s="35">
@@ -26389,7 +26225,7 @@
       <c r="E251" s="36">
         <v>43374</v>
       </c>
-      <c r="F251" s="36">
+      <c r="F251" s="48">
         <v>2018</v>
       </c>
       <c r="G251" s="35" t="s">
@@ -26404,7 +26240,7 @@
       <c r="J251" s="36">
         <v>43661.366680520834</v>
       </c>
-      <c r="K251" s="36">
+      <c r="K251" s="48">
         <v>2019</v>
       </c>
       <c r="L251" s="35">
@@ -26416,7 +26252,7 @@
       <c r="N251" s="36">
         <v>43661</v>
       </c>
-      <c r="O251" s="36">
+      <c r="O251" s="48">
         <v>2019</v>
       </c>
       <c r="P251" s="35">
@@ -26446,7 +26282,7 @@
       <c r="E252" s="36">
         <v>43647</v>
       </c>
-      <c r="F252" s="36">
+      <c r="F252" s="48">
         <v>2019</v>
       </c>
       <c r="G252" s="35" t="s">
@@ -26461,7 +26297,7 @@
       <c r="J252" s="36">
         <v>43677.440210300927</v>
       </c>
-      <c r="K252" s="36">
+      <c r="K252" s="48">
         <v>2019</v>
       </c>
       <c r="L252" s="35">
@@ -26473,7 +26309,7 @@
       <c r="N252" s="36">
         <v>43812</v>
       </c>
-      <c r="O252" s="36">
+      <c r="O252" s="48">
         <v>2019</v>
       </c>
       <c r="P252" s="35">
@@ -26503,7 +26339,7 @@
       <c r="E253" s="36">
         <v>43203</v>
       </c>
-      <c r="F253" s="36">
+      <c r="F253" s="48">
         <v>2018</v>
       </c>
       <c r="G253" s="35" t="s">
@@ -26518,7 +26354,7 @@
       <c r="J253" s="36">
         <v>43677.464584606481</v>
       </c>
-      <c r="K253" s="36">
+      <c r="K253" s="48">
         <v>2019</v>
       </c>
       <c r="L253" s="35">
@@ -26530,7 +26366,7 @@
       <c r="N253" s="36">
         <v>43710</v>
       </c>
-      <c r="O253" s="36">
+      <c r="O253" s="48">
         <v>2019</v>
       </c>
       <c r="P253" s="35">
@@ -26560,7 +26396,7 @@
       <c r="E254" s="36">
         <v>43566</v>
       </c>
-      <c r="F254" s="36">
+      <c r="F254" s="48">
         <v>2019</v>
       </c>
       <c r="G254" s="35" t="s">
@@ -26575,7 +26411,7 @@
       <c r="J254" s="36">
         <v>43677.488426770833</v>
       </c>
-      <c r="K254" s="36">
+      <c r="K254" s="48">
         <v>2019</v>
       </c>
       <c r="L254" s="35">
@@ -26587,7 +26423,7 @@
       <c r="N254" s="36">
         <v>43692</v>
       </c>
-      <c r="O254" s="36">
+      <c r="O254" s="48">
         <v>2019</v>
       </c>
       <c r="P254" s="35">
@@ -26617,7 +26453,7 @@
       <c r="E255" s="36">
         <v>43560</v>
       </c>
-      <c r="F255" s="36">
+      <c r="F255" s="48">
         <v>2019</v>
       </c>
       <c r="G255" s="35" t="s">
@@ -26632,7 +26468,7 @@
       <c r="J255" s="36">
         <v>43677.512447835645</v>
       </c>
-      <c r="K255" s="36">
+      <c r="K255" s="48">
         <v>2019</v>
       </c>
       <c r="L255" s="35">
@@ -26644,7 +26480,7 @@
       <c r="N255" s="36">
         <v>43724</v>
       </c>
-      <c r="O255" s="36">
+      <c r="O255" s="48">
         <v>2019</v>
       </c>
       <c r="P255" s="35">
@@ -26674,7 +26510,7 @@
       <c r="E256" s="36">
         <v>43357</v>
       </c>
-      <c r="F256" s="36">
+      <c r="F256" s="48">
         <v>2018</v>
       </c>
       <c r="G256" s="35" t="s">
@@ -26689,7 +26525,7 @@
       <c r="J256" s="36">
         <v>43677.619115474539</v>
       </c>
-      <c r="K256" s="36">
+      <c r="K256" s="48">
         <v>2019</v>
       </c>
       <c r="L256" s="35">
@@ -26701,7 +26537,7 @@
       <c r="N256" s="36">
         <v>43690</v>
       </c>
-      <c r="O256" s="36">
+      <c r="O256" s="48">
         <v>2019</v>
       </c>
       <c r="P256" s="35">
@@ -26731,7 +26567,7 @@
       <c r="E257" s="36">
         <v>43577</v>
       </c>
-      <c r="F257" s="36">
+      <c r="F257" s="48">
         <v>2019</v>
       </c>
       <c r="G257" s="35" t="s">
@@ -26746,7 +26582,7 @@
       <c r="J257" s="36">
         <v>43677.631443784725</v>
       </c>
-      <c r="K257" s="36">
+      <c r="K257" s="48">
         <v>2019</v>
       </c>
       <c r="L257" s="35">
@@ -26758,7 +26594,7 @@
       <c r="N257" s="36">
         <v>43847</v>
       </c>
-      <c r="O257" s="36">
+      <c r="O257" s="48">
         <v>2019</v>
       </c>
       <c r="P257" s="35">
@@ -26788,7 +26624,7 @@
       <c r="E258" s="36">
         <v>43357</v>
       </c>
-      <c r="F258" s="36">
+      <c r="F258" s="48">
         <v>2018</v>
       </c>
       <c r="G258" s="35" t="s">
@@ -26803,7 +26639,7 @@
       <c r="J258" s="36">
         <v>43677.63828402778</v>
       </c>
-      <c r="K258" s="36">
+      <c r="K258" s="48">
         <v>2019</v>
       </c>
       <c r="L258" s="35">
@@ -26815,7 +26651,7 @@
       <c r="N258" s="36">
         <v>43690</v>
       </c>
-      <c r="O258" s="36">
+      <c r="O258" s="48">
         <v>2019</v>
       </c>
       <c r="P258" s="35">
@@ -26845,7 +26681,7 @@
       <c r="E259" s="36">
         <v>43223</v>
       </c>
-      <c r="F259" s="36">
+      <c r="F259" s="48">
         <v>2018</v>
       </c>
       <c r="G259" s="35" t="s">
@@ -26860,7 +26696,7 @@
       <c r="J259" s="36">
         <v>43677.646606168979</v>
       </c>
-      <c r="K259" s="36">
+      <c r="K259" s="48">
         <v>2019</v>
       </c>
       <c r="L259" s="35">
@@ -26872,7 +26708,7 @@
       <c r="N259" s="36">
         <v>43679</v>
       </c>
-      <c r="O259" s="36">
+      <c r="O259" s="48">
         <v>2019</v>
       </c>
       <c r="P259" s="35">
@@ -26902,7 +26738,7 @@
       <c r="E260" s="36">
         <v>43374</v>
       </c>
-      <c r="F260" s="36">
+      <c r="F260" s="48">
         <v>2018</v>
       </c>
       <c r="G260" s="35" t="s">
@@ -26917,7 +26753,7 @@
       <c r="J260" s="36">
         <v>43677.668260300925</v>
       </c>
-      <c r="K260" s="36">
+      <c r="K260" s="48">
         <v>2019</v>
       </c>
       <c r="L260" s="35">
@@ -26927,7 +26763,7 @@
         <v>43675</v>
       </c>
       <c r="N260" s="36"/>
-      <c r="O260" s="36">
+      <c r="O260" s="48">
         <v>2019</v>
       </c>
       <c r="P260" s="35"/>
@@ -26955,7 +26791,7 @@
       <c r="E261" s="36">
         <v>43404</v>
       </c>
-      <c r="F261" s="36">
+      <c r="F261" s="48">
         <v>2018</v>
       </c>
       <c r="G261" s="35" t="s">
@@ -26970,7 +26806,7 @@
       <c r="J261" s="36">
         <v>43677.680978206015</v>
       </c>
-      <c r="K261" s="36">
+      <c r="K261" s="48">
         <v>2019</v>
       </c>
       <c r="L261" s="35">
@@ -26982,7 +26818,7 @@
       <c r="N261" s="36">
         <v>43685</v>
       </c>
-      <c r="O261" s="36">
+      <c r="O261" s="48">
         <v>2019</v>
       </c>
       <c r="P261" s="35">
@@ -27012,7 +26848,7 @@
       <c r="E262" s="36">
         <v>43647</v>
       </c>
-      <c r="F262" s="36">
+      <c r="F262" s="48">
         <v>2019</v>
       </c>
       <c r="G262" s="35" t="s">
@@ -27027,7 +26863,7 @@
       <c r="J262" s="36">
         <v>43678.356337349534</v>
       </c>
-      <c r="K262" s="36">
+      <c r="K262" s="48">
         <v>2019</v>
       </c>
       <c r="L262" s="35">
@@ -27039,7 +26875,7 @@
       <c r="N262" s="36">
         <v>43672</v>
       </c>
-      <c r="O262" s="36">
+      <c r="O262" s="48">
         <v>2019</v>
       </c>
       <c r="P262" s="35">
@@ -27069,7 +26905,7 @@
       <c r="E263" s="36">
         <v>43559</v>
       </c>
-      <c r="F263" s="36">
+      <c r="F263" s="48">
         <v>2019</v>
       </c>
       <c r="G263" s="35" t="s">
@@ -27084,7 +26920,7 @@
       <c r="J263" s="36">
         <v>43678.364360763888</v>
       </c>
-      <c r="K263" s="36">
+      <c r="K263" s="48">
         <v>2019</v>
       </c>
       <c r="L263" s="35">
@@ -27096,7 +26932,7 @@
       <c r="N263" s="36">
         <v>43671</v>
       </c>
-      <c r="O263" s="36">
+      <c r="O263" s="48">
         <v>2019</v>
       </c>
       <c r="P263" s="35">
@@ -27126,7 +26962,7 @@
       <c r="E264" s="36">
         <v>43357</v>
       </c>
-      <c r="F264" s="36">
+      <c r="F264" s="48">
         <v>2018</v>
       </c>
       <c r="G264" s="35" t="s">
@@ -27141,7 +26977,7 @@
       <c r="J264" s="36">
         <v>43678.367846990739</v>
       </c>
-      <c r="K264" s="36">
+      <c r="K264" s="48">
         <v>2019</v>
       </c>
       <c r="L264" s="35">
@@ -27153,7 +26989,7 @@
       <c r="N264" s="36">
         <v>43690</v>
       </c>
-      <c r="O264" s="36">
+      <c r="O264" s="48">
         <v>2019</v>
       </c>
       <c r="P264" s="35">
@@ -27183,7 +27019,7 @@
       <c r="E265" s="36">
         <v>43223</v>
       </c>
-      <c r="F265" s="36">
+      <c r="F265" s="48">
         <v>2018</v>
       </c>
       <c r="G265" s="35" t="s">
@@ -27198,7 +27034,7 @@
       <c r="J265" s="36">
         <v>43678.389580787036</v>
       </c>
-      <c r="K265" s="36">
+      <c r="K265" s="48">
         <v>2019</v>
       </c>
       <c r="L265" s="35">
@@ -27210,7 +27046,7 @@
       <c r="N265" s="36">
         <v>43671</v>
       </c>
-      <c r="O265" s="36">
+      <c r="O265" s="48">
         <v>2019</v>
       </c>
       <c r="P265" s="35">
@@ -27240,7 +27076,7 @@
       <c r="E266" s="36">
         <v>43227</v>
       </c>
-      <c r="F266" s="36">
+      <c r="F266" s="48">
         <v>2018</v>
       </c>
       <c r="G266" s="35" t="s">
@@ -27255,7 +27091,7 @@
       <c r="J266" s="36">
         <v>43678.392584374997</v>
       </c>
-      <c r="K266" s="36">
+      <c r="K266" s="48">
         <v>2019</v>
       </c>
       <c r="L266" s="35">
@@ -27267,7 +27103,7 @@
       <c r="N266" s="36">
         <v>43679</v>
       </c>
-      <c r="O266" s="36">
+      <c r="O266" s="48">
         <v>2019</v>
       </c>
       <c r="P266" s="35">
@@ -27297,7 +27133,7 @@
       <c r="E267" s="36">
         <v>43223</v>
       </c>
-      <c r="F267" s="36">
+      <c r="F267" s="48">
         <v>2018</v>
       </c>
       <c r="G267" s="35" t="s">
@@ -27312,7 +27148,7 @@
       <c r="J267" s="36">
         <v>43678.396273530096</v>
       </c>
-      <c r="K267" s="36">
+      <c r="K267" s="48">
         <v>2019</v>
       </c>
       <c r="L267" s="35">
@@ -27324,7 +27160,7 @@
       <c r="N267" s="36">
         <v>43668</v>
       </c>
-      <c r="O267" s="36">
+      <c r="O267" s="48">
         <v>2019</v>
       </c>
       <c r="P267" s="35">
@@ -27354,7 +27190,7 @@
       <c r="E268" s="36">
         <v>43021</v>
       </c>
-      <c r="F268" s="36">
+      <c r="F268" s="48">
         <v>2017</v>
       </c>
       <c r="G268" s="35" t="s">
@@ -27369,7 +27205,7 @@
       <c r="J268" s="36">
         <v>43678.4043116088</v>
       </c>
-      <c r="K268" s="36">
+      <c r="K268" s="48">
         <v>2019</v>
       </c>
       <c r="L268" s="35">
@@ -27381,7 +27217,7 @@
       <c r="N268" s="36">
         <v>43768</v>
       </c>
-      <c r="O268" s="36">
+      <c r="O268" s="48">
         <v>2019</v>
       </c>
       <c r="P268" s="35">
@@ -27411,7 +27247,7 @@
       <c r="E269" s="36">
         <v>43069</v>
       </c>
-      <c r="F269" s="36">
+      <c r="F269" s="48">
         <v>2017</v>
       </c>
       <c r="G269" s="35" t="s">
@@ -27426,7 +27262,7 @@
       <c r="J269" s="36">
         <v>43682.402912962963</v>
       </c>
-      <c r="K269" s="36">
+      <c r="K269" s="48">
         <v>2019</v>
       </c>
       <c r="L269" s="35">
@@ -27438,7 +27274,7 @@
       <c r="N269" s="36">
         <v>43710</v>
       </c>
-      <c r="O269" s="36">
+      <c r="O269" s="48">
         <v>2019</v>
       </c>
       <c r="P269" s="35">
@@ -27468,7 +27304,7 @@
       <c r="E270" s="36">
         <v>43203</v>
       </c>
-      <c r="F270" s="36">
+      <c r="F270" s="48">
         <v>2018</v>
       </c>
       <c r="G270" s="35" t="s">
@@ -27483,7 +27319,7 @@
       <c r="J270" s="36">
         <v>43684.702746840281</v>
       </c>
-      <c r="K270" s="36">
+      <c r="K270" s="48">
         <v>2019</v>
       </c>
       <c r="L270" s="35">
@@ -27495,7 +27331,7 @@
       <c r="N270" s="36">
         <v>43700</v>
       </c>
-      <c r="O270" s="36">
+      <c r="O270" s="48">
         <v>2019</v>
       </c>
       <c r="P270" s="35">
@@ -27525,7 +27361,7 @@
       <c r="E271" s="36">
         <v>43559</v>
       </c>
-      <c r="F271" s="36">
+      <c r="F271" s="48">
         <v>2019</v>
       </c>
       <c r="G271" s="35" t="s">
@@ -27540,7 +27376,7 @@
       <c r="J271" s="36">
         <v>43685.676032372685</v>
       </c>
-      <c r="K271" s="36">
+      <c r="K271" s="48">
         <v>2019</v>
       </c>
       <c r="L271" s="35">
@@ -27552,7 +27388,7 @@
       <c r="N271" s="36">
         <v>43711</v>
       </c>
-      <c r="O271" s="36">
+      <c r="O271" s="48">
         <v>2019</v>
       </c>
       <c r="P271" s="35">
@@ -27582,7 +27418,7 @@
       <c r="E272" s="36">
         <v>42811</v>
       </c>
-      <c r="F272" s="36">
+      <c r="F272" s="48">
         <v>2017</v>
       </c>
       <c r="G272" s="35" t="s">
@@ -27597,7 +27433,7 @@
       <c r="J272" s="36">
         <v>43686.4074897338</v>
       </c>
-      <c r="K272" s="36">
+      <c r="K272" s="48">
         <v>2019</v>
       </c>
       <c r="L272" s="35">
@@ -27609,7 +27445,7 @@
       <c r="N272" s="36">
         <v>43703</v>
       </c>
-      <c r="O272" s="36">
+      <c r="O272" s="48">
         <v>2019</v>
       </c>
       <c r="P272" s="35">
@@ -27639,7 +27475,7 @@
       <c r="E273" s="36">
         <v>43034</v>
       </c>
-      <c r="F273" s="36">
+      <c r="F273" s="48">
         <v>2017</v>
       </c>
       <c r="G273" s="35" t="s">
@@ -27654,7 +27490,7 @@
       <c r="J273" s="36">
         <v>43689.45007673611</v>
       </c>
-      <c r="K273" s="36">
+      <c r="K273" s="48">
         <v>2019</v>
       </c>
       <c r="L273" s="35">
@@ -27666,7 +27502,7 @@
       <c r="N273" s="36">
         <v>43698</v>
       </c>
-      <c r="O273" s="36">
+      <c r="O273" s="48">
         <v>2019</v>
       </c>
       <c r="P273" s="35">
@@ -27696,7 +27532,7 @@
       <c r="E274" s="36">
         <v>43227</v>
       </c>
-      <c r="F274" s="36">
+      <c r="F274" s="48">
         <v>2018</v>
       </c>
       <c r="G274" s="35" t="s">
@@ -27711,7 +27547,7 @@
       <c r="J274" s="36">
         <v>43690.483297303239</v>
       </c>
-      <c r="K274" s="36">
+      <c r="K274" s="48">
         <v>2019</v>
       </c>
       <c r="L274" s="35">
@@ -27723,7 +27559,7 @@
       <c r="N274" s="36">
         <v>43679</v>
       </c>
-      <c r="O274" s="36">
+      <c r="O274" s="48">
         <v>2019</v>
       </c>
       <c r="P274" s="35">
@@ -27753,7 +27589,7 @@
       <c r="E275" s="36">
         <v>43227</v>
       </c>
-      <c r="F275" s="36">
+      <c r="F275" s="48">
         <v>2018</v>
       </c>
       <c r="G275" s="35" t="s">
@@ -27768,7 +27604,7 @@
       <c r="J275" s="36">
         <v>43690.484526701388</v>
       </c>
-      <c r="K275" s="36">
+      <c r="K275" s="48">
         <v>2019</v>
       </c>
       <c r="L275" s="35">
@@ -27780,7 +27616,7 @@
       <c r="N275" s="36">
         <v>43679</v>
       </c>
-      <c r="O275" s="36">
+      <c r="O275" s="48">
         <v>2019</v>
       </c>
       <c r="P275" s="35">
@@ -27810,7 +27646,7 @@
       <c r="E276" s="36">
         <v>43203</v>
       </c>
-      <c r="F276" s="36">
+      <c r="F276" s="48">
         <v>2018</v>
       </c>
       <c r="G276" s="35" t="s">
@@ -27825,7 +27661,7 @@
       <c r="J276" s="36">
         <v>43705.579214467594</v>
       </c>
-      <c r="K276" s="36">
+      <c r="K276" s="48">
         <v>2019</v>
       </c>
       <c r="L276" s="35">
@@ -27837,7 +27673,7 @@
       <c r="N276" s="36">
         <v>43721</v>
       </c>
-      <c r="O276" s="36">
+      <c r="O276" s="48">
         <v>2019</v>
       </c>
       <c r="P276" s="35">
@@ -27867,7 +27703,7 @@
       <c r="E277" s="36">
         <v>43566</v>
       </c>
-      <c r="F277" s="36">
+      <c r="F277" s="48">
         <v>2019</v>
       </c>
       <c r="G277" s="35" t="s">
@@ -27882,7 +27718,7 @@
       <c r="J277" s="36">
         <v>43705.610378240737</v>
       </c>
-      <c r="K277" s="36">
+      <c r="K277" s="48">
         <v>2019</v>
       </c>
       <c r="L277" s="35">
@@ -27894,7 +27730,7 @@
       <c r="N277" s="36">
         <v>43712</v>
       </c>
-      <c r="O277" s="36">
+      <c r="O277" s="48">
         <v>2019</v>
       </c>
       <c r="P277" s="35">
@@ -27924,7 +27760,7 @@
       <c r="E278" s="36">
         <v>43007</v>
       </c>
-      <c r="F278" s="36">
+      <c r="F278" s="48">
         <v>2017</v>
       </c>
       <c r="G278" s="35" t="s">
@@ -27939,7 +27775,7 @@
       <c r="J278" s="36">
         <v>43713.465145833332</v>
       </c>
-      <c r="K278" s="36">
+      <c r="K278" s="48">
         <v>2019</v>
       </c>
       <c r="L278" s="35">
@@ -27951,7 +27787,7 @@
       <c r="N278" s="36">
         <v>43768</v>
       </c>
-      <c r="O278" s="36">
+      <c r="O278" s="48">
         <v>2019</v>
       </c>
       <c r="P278" s="35">
@@ -27981,7 +27817,7 @@
       <c r="E279" s="36">
         <v>43369</v>
       </c>
-      <c r="F279" s="36">
+      <c r="F279" s="48">
         <v>2018</v>
       </c>
       <c r="G279" s="35" t="s">
@@ -27996,7 +27832,7 @@
       <c r="J279" s="36">
         <v>43713.5386778588</v>
       </c>
-      <c r="K279" s="36">
+      <c r="K279" s="48">
         <v>2019</v>
       </c>
       <c r="L279" s="35">
@@ -28006,7 +27842,7 @@
         <v>43712</v>
       </c>
       <c r="N279" s="36"/>
-      <c r="O279" s="36">
+      <c r="O279" s="48">
         <v>2019</v>
       </c>
       <c r="P279" s="35"/>
@@ -28034,7 +27870,7 @@
       <c r="E280" s="36">
         <v>43227</v>
       </c>
-      <c r="F280" s="36">
+      <c r="F280" s="48">
         <v>2018</v>
       </c>
       <c r="G280" s="35" t="s">
@@ -28049,7 +27885,7 @@
       <c r="J280" s="36">
         <v>43718.338823692131</v>
       </c>
-      <c r="K280" s="36">
+      <c r="K280" s="48">
         <v>2019</v>
       </c>
       <c r="L280" s="35">
@@ -28061,7 +27897,7 @@
       <c r="N280" s="36">
         <v>43735</v>
       </c>
-      <c r="O280" s="36">
+      <c r="O280" s="48">
         <v>2019</v>
       </c>
       <c r="P280" s="35">
@@ -28091,7 +27927,7 @@
       <c r="E281" s="36">
         <v>43566</v>
       </c>
-      <c r="F281" s="36">
+      <c r="F281" s="48">
         <v>2019</v>
       </c>
       <c r="G281" s="35" t="s">
@@ -28106,7 +27942,7 @@
       <c r="J281" s="36">
         <v>43718.34909236111</v>
       </c>
-      <c r="K281" s="36">
+      <c r="K281" s="48">
         <v>2019</v>
       </c>
       <c r="L281" s="35">
@@ -28118,7 +27954,7 @@
       <c r="N281" s="36">
         <v>43718</v>
       </c>
-      <c r="O281" s="36">
+      <c r="O281" s="48">
         <v>2019</v>
       </c>
       <c r="P281" s="35">
@@ -28148,7 +27984,7 @@
       <c r="E282" s="36">
         <v>43668</v>
       </c>
-      <c r="F282" s="36">
+      <c r="F282" s="48">
         <v>2019</v>
       </c>
       <c r="G282" s="35" t="s">
@@ -28163,7 +27999,7 @@
       <c r="J282" s="36">
         <v>43727.626389814817</v>
       </c>
-      <c r="K282" s="36">
+      <c r="K282" s="48">
         <v>2019</v>
       </c>
       <c r="L282" s="35">
@@ -28175,7 +28011,7 @@
       <c r="N282" s="36">
         <v>43727</v>
       </c>
-      <c r="O282" s="36">
+      <c r="O282" s="48">
         <v>2019</v>
       </c>
       <c r="P282" s="35">
@@ -28205,7 +28041,7 @@
       <c r="E283" s="36">
         <v>43559</v>
       </c>
-      <c r="F283" s="36">
+      <c r="F283" s="48">
         <v>2019</v>
       </c>
       <c r="G283" s="35" t="s">
@@ -28220,7 +28056,7 @@
       <c r="J283" s="36">
         <v>43731.382320138888</v>
       </c>
-      <c r="K283" s="36">
+      <c r="K283" s="48">
         <v>2019</v>
       </c>
       <c r="L283" s="35">
@@ -28232,7 +28068,7 @@
       <c r="N283" s="36">
         <v>43768</v>
       </c>
-      <c r="O283" s="36">
+      <c r="O283" s="48">
         <v>2019</v>
       </c>
       <c r="P283" s="35">
@@ -28262,7 +28098,7 @@
       <c r="E284" s="36">
         <v>43705</v>
       </c>
-      <c r="F284" s="36">
+      <c r="F284" s="48">
         <v>2019</v>
       </c>
       <c r="G284" s="35" t="s">
@@ -28277,7 +28113,7 @@
       <c r="J284" s="36">
         <v>43731.386821562497</v>
       </c>
-      <c r="K284" s="36">
+      <c r="K284" s="48">
         <v>2019</v>
       </c>
       <c r="L284" s="35">
@@ -28289,7 +28125,7 @@
       <c r="N284" s="36">
         <v>43812</v>
       </c>
-      <c r="O284" s="36">
+      <c r="O284" s="48">
         <v>2019</v>
       </c>
       <c r="P284" s="35">
@@ -28319,7 +28155,7 @@
       <c r="E285" s="36">
         <v>43640</v>
       </c>
-      <c r="F285" s="36">
+      <c r="F285" s="48">
         <v>2019</v>
       </c>
       <c r="G285" s="35" t="s">
@@ -28334,7 +28170,7 @@
       <c r="J285" s="36">
         <v>43733.381035532409</v>
       </c>
-      <c r="K285" s="36">
+      <c r="K285" s="48">
         <v>2019</v>
       </c>
       <c r="L285" s="35">
@@ -28346,7 +28182,7 @@
       <c r="N285" s="36">
         <v>43739</v>
       </c>
-      <c r="O285" s="36">
+      <c r="O285" s="48">
         <v>2019</v>
       </c>
       <c r="P285" s="35">
@@ -28376,7 +28212,7 @@
       <c r="E286" s="36">
         <v>42958</v>
       </c>
-      <c r="F286" s="36">
+      <c r="F286" s="48">
         <v>2017</v>
       </c>
       <c r="G286" s="35" t="s">
@@ -28391,7 +28227,7 @@
       <c r="J286" s="36">
         <v>43734.501672303239</v>
       </c>
-      <c r="K286" s="36">
+      <c r="K286" s="48">
         <v>2019</v>
       </c>
       <c r="L286" s="35">
@@ -28403,7 +28239,7 @@
       <c r="N286" s="36">
         <v>43812</v>
       </c>
-      <c r="O286" s="36">
+      <c r="O286" s="48">
         <v>2019</v>
       </c>
       <c r="P286" s="35">
@@ -28433,7 +28269,7 @@
       <c r="E287" s="36">
         <v>43705</v>
       </c>
-      <c r="F287" s="36">
+      <c r="F287" s="48">
         <v>2019</v>
       </c>
       <c r="G287" s="35" t="s">
@@ -28448,7 +28284,7 @@
       <c r="J287" s="36">
         <v>43738.6098255787</v>
       </c>
-      <c r="K287" s="36">
+      <c r="K287" s="48">
         <v>2019</v>
       </c>
       <c r="L287" s="35">
@@ -28460,7 +28296,7 @@
       <c r="N287" s="36">
         <v>43754</v>
       </c>
-      <c r="O287" s="36">
+      <c r="O287" s="48">
         <v>2019</v>
       </c>
       <c r="P287" s="35">
@@ -28490,7 +28326,7 @@
       <c r="E288" s="36">
         <v>43521</v>
       </c>
-      <c r="F288" s="36">
+      <c r="F288" s="48">
         <v>2019</v>
       </c>
       <c r="G288" s="35" t="s">
@@ -28505,7 +28341,7 @@
       <c r="J288" s="36">
         <v>43738.632375925925</v>
       </c>
-      <c r="K288" s="36">
+      <c r="K288" s="48">
         <v>2019</v>
       </c>
       <c r="L288" s="35">
@@ -28517,7 +28353,7 @@
       <c r="N288" s="36">
         <v>43480</v>
       </c>
-      <c r="O288" s="36">
+      <c r="O288" s="48">
         <v>2019</v>
       </c>
       <c r="P288" s="35">
@@ -28547,7 +28383,7 @@
       <c r="E289" s="36">
         <v>43404</v>
       </c>
-      <c r="F289" s="36">
+      <c r="F289" s="48">
         <v>2018</v>
       </c>
       <c r="G289" s="35" t="s">
@@ -28562,7 +28398,7 @@
       <c r="J289" s="36">
         <v>43740.680519525464</v>
       </c>
-      <c r="K289" s="36">
+      <c r="K289" s="48">
         <v>2019</v>
       </c>
       <c r="L289" s="35">
@@ -28574,7 +28410,7 @@
       <c r="N289" s="36">
         <v>43780</v>
       </c>
-      <c r="O289" s="36">
+      <c r="O289" s="48">
         <v>2019</v>
       </c>
       <c r="P289" s="35">
@@ -28604,7 +28440,7 @@
       <c r="E290" s="36">
         <v>43244</v>
       </c>
-      <c r="F290" s="36">
+      <c r="F290" s="48">
         <v>2018</v>
       </c>
       <c r="G290" s="35" t="s">
@@ -28619,7 +28455,7 @@
       <c r="J290" s="36">
         <v>43741.555665011576</v>
       </c>
-      <c r="K290" s="36">
+      <c r="K290" s="48">
         <v>2019</v>
       </c>
       <c r="L290" s="35">
@@ -28631,7 +28467,7 @@
       <c r="N290" s="36">
         <v>43749</v>
       </c>
-      <c r="O290" s="36">
+      <c r="O290" s="48">
         <v>2019</v>
       </c>
       <c r="P290" s="35">
@@ -28661,7 +28497,7 @@
       <c r="E291" s="36">
         <v>43080</v>
       </c>
-      <c r="F291" s="36">
+      <c r="F291" s="48">
         <v>2017</v>
       </c>
       <c r="G291" s="35" t="s">
@@ -28676,7 +28512,7 @@
       <c r="J291" s="36">
         <v>43749.438953275465</v>
       </c>
-      <c r="K291" s="36">
+      <c r="K291" s="48">
         <v>2019</v>
       </c>
       <c r="L291" s="35">
@@ -28686,7 +28522,7 @@
         <v>43749</v>
       </c>
       <c r="N291" s="36"/>
-      <c r="O291" s="36">
+      <c r="O291" s="48">
         <v>2019</v>
       </c>
       <c r="P291" s="35"/>
@@ -28714,7 +28550,7 @@
       <c r="E292" s="36">
         <v>43157</v>
       </c>
-      <c r="F292" s="36">
+      <c r="F292" s="48">
         <v>2018</v>
       </c>
       <c r="G292" s="35" t="s">
@@ -28729,7 +28565,7 @@
       <c r="J292" s="36">
         <v>43752.669238576389</v>
       </c>
-      <c r="K292" s="36">
+      <c r="K292" s="48">
         <v>2019</v>
       </c>
       <c r="L292" s="35">
@@ -28741,7 +28577,7 @@
       <c r="N292" s="36">
         <v>43771</v>
       </c>
-      <c r="O292" s="36">
+      <c r="O292" s="48">
         <v>2019</v>
       </c>
       <c r="P292" s="35">
@@ -28771,7 +28607,7 @@
       <c r="E293" s="36">
         <v>43069</v>
       </c>
-      <c r="F293" s="36">
+      <c r="F293" s="48">
         <v>2017</v>
       </c>
       <c r="G293" s="35" t="s">
@@ -28786,7 +28622,7 @@
       <c r="J293" s="36">
         <v>43756.491469907407</v>
       </c>
-      <c r="K293" s="36">
+      <c r="K293" s="48">
         <v>2019</v>
       </c>
       <c r="L293" s="35">
@@ -28798,7 +28634,7 @@
       <c r="N293" s="36">
         <v>43765</v>
       </c>
-      <c r="O293" s="36">
+      <c r="O293" s="48">
         <v>2019</v>
       </c>
       <c r="P293" s="35">
@@ -28828,7 +28664,7 @@
       <c r="E294" s="36">
         <v>43705</v>
       </c>
-      <c r="F294" s="36">
+      <c r="F294" s="48">
         <v>2019</v>
       </c>
       <c r="G294" s="35" t="s">
@@ -28843,7 +28679,7 @@
       <c r="J294" s="36">
         <v>43759.430301157408</v>
       </c>
-      <c r="K294" s="36">
+      <c r="K294" s="48">
         <v>2019</v>
       </c>
       <c r="L294" s="35">
@@ -28855,7 +28691,7 @@
       <c r="N294" s="36">
         <v>43791</v>
       </c>
-      <c r="O294" s="36">
+      <c r="O294" s="48">
         <v>2019</v>
       </c>
       <c r="P294" s="35">
@@ -28885,7 +28721,7 @@
       <c r="E295" s="36">
         <v>43069</v>
       </c>
-      <c r="F295" s="36">
+      <c r="F295" s="48">
         <v>2017</v>
       </c>
       <c r="G295" s="35" t="s">
@@ -28900,7 +28736,7 @@
       <c r="J295" s="36">
         <v>43767.597721215279</v>
       </c>
-      <c r="K295" s="36">
+      <c r="K295" s="48">
         <v>2019</v>
       </c>
       <c r="L295" s="35">
@@ -28912,7 +28748,7 @@
       <c r="N295" s="36">
         <v>43794</v>
       </c>
-      <c r="O295" s="36">
+      <c r="O295" s="48">
         <v>2019</v>
       </c>
       <c r="P295" s="35">
@@ -28942,7 +28778,7 @@
       <c r="E296" s="36">
         <v>42916</v>
       </c>
-      <c r="F296" s="36">
+      <c r="F296" s="48">
         <v>2017</v>
       </c>
       <c r="G296" s="35" t="s">
@@ -28957,7 +28793,7 @@
       <c r="J296" s="36">
         <v>43774.448054085646</v>
       </c>
-      <c r="K296" s="36">
+      <c r="K296" s="48">
         <v>2019</v>
       </c>
       <c r="L296" s="35">
@@ -28967,7 +28803,7 @@
         <v>43770</v>
       </c>
       <c r="N296" s="36"/>
-      <c r="O296" s="36">
+      <c r="O296" s="48">
         <v>2019</v>
       </c>
       <c r="P296" s="35"/>
@@ -28995,7 +28831,7 @@
       <c r="E297" s="36">
         <v>42961</v>
       </c>
-      <c r="F297" s="36">
+      <c r="F297" s="48">
         <v>2017</v>
       </c>
       <c r="G297" s="35" t="s">
@@ -29010,7 +28846,7 @@
       <c r="J297" s="36">
         <v>43774.469257638892</v>
       </c>
-      <c r="K297" s="36">
+      <c r="K297" s="48">
         <v>2019</v>
       </c>
       <c r="L297" s="35">
@@ -29022,7 +28858,7 @@
       <c r="N297" s="36">
         <v>43780</v>
       </c>
-      <c r="O297" s="36">
+      <c r="O297" s="48">
         <v>2019</v>
       </c>
       <c r="P297" s="35">
@@ -29052,7 +28888,7 @@
       <c r="E298" s="36">
         <v>43741</v>
       </c>
-      <c r="F298" s="36">
+      <c r="F298" s="48">
         <v>2019</v>
       </c>
       <c r="G298" s="35" t="s">
@@ -29067,7 +28903,7 @@
       <c r="J298" s="36">
         <v>43775.654520520831</v>
       </c>
-      <c r="K298" s="36">
+      <c r="K298" s="48">
         <v>2019</v>
       </c>
       <c r="L298" s="35">
@@ -29079,7 +28915,7 @@
       <c r="N298" s="36">
         <v>43789</v>
       </c>
-      <c r="O298" s="36">
+      <c r="O298" s="48">
         <v>2019</v>
       </c>
       <c r="P298" s="35">
@@ -29109,7 +28945,7 @@
       <c r="E299" s="36">
         <v>43767</v>
       </c>
-      <c r="F299" s="36">
+      <c r="F299" s="48">
         <v>2019</v>
       </c>
       <c r="G299" s="35" t="s">
@@ -29124,7 +28960,7 @@
       <c r="J299" s="36">
         <v>43780.551957523145</v>
       </c>
-      <c r="K299" s="36">
+      <c r="K299" s="48">
         <v>2019</v>
       </c>
       <c r="L299" s="35">
@@ -29136,7 +28972,7 @@
       <c r="N299" s="36">
         <v>43812</v>
       </c>
-      <c r="O299" s="36">
+      <c r="O299" s="48">
         <v>2019</v>
       </c>
       <c r="P299" s="35">
@@ -29166,7 +29002,7 @@
       <c r="E300" s="36">
         <v>42985</v>
       </c>
-      <c r="F300" s="36">
+      <c r="F300" s="48">
         <v>2017</v>
       </c>
       <c r="G300" s="35" t="s">
@@ -29181,7 +29017,7 @@
       <c r="J300" s="36">
         <v>43781.415364201392</v>
       </c>
-      <c r="K300" s="36">
+      <c r="K300" s="48">
         <v>2019</v>
       </c>
       <c r="L300" s="35">
@@ -29193,7 +29029,7 @@
       <c r="N300" s="36">
         <v>43794</v>
       </c>
-      <c r="O300" s="36">
+      <c r="O300" s="48">
         <v>2019</v>
       </c>
       <c r="P300" s="35">
@@ -29223,7 +29059,7 @@
       <c r="E301" s="36">
         <v>43347</v>
       </c>
-      <c r="F301" s="36">
+      <c r="F301" s="48">
         <v>2018</v>
       </c>
       <c r="G301" s="35" t="s">
@@ -29238,7 +29074,7 @@
       <c r="J301" s="36">
         <v>43785.488133298612</v>
       </c>
-      <c r="K301" s="36">
+      <c r="K301" s="48">
         <v>2019</v>
       </c>
       <c r="L301" s="35">
@@ -29250,7 +29086,7 @@
       <c r="N301" s="36">
         <v>43810</v>
       </c>
-      <c r="O301" s="36">
+      <c r="O301" s="48">
         <v>2019</v>
       </c>
       <c r="P301" s="35">
@@ -29280,7 +29116,7 @@
       <c r="E302" s="36">
         <v>43770</v>
       </c>
-      <c r="F302" s="36">
+      <c r="F302" s="48">
         <v>2019</v>
       </c>
       <c r="G302" s="35" t="s">
@@ -29295,7 +29131,7 @@
       <c r="J302" s="36">
         <v>43787.608852974539</v>
       </c>
-      <c r="K302" s="36">
+      <c r="K302" s="48">
         <v>2019</v>
       </c>
       <c r="L302" s="35">
@@ -29305,7 +29141,7 @@
         <v>43787</v>
       </c>
       <c r="N302" s="36"/>
-      <c r="O302" s="36">
+      <c r="O302" s="48">
         <v>2019</v>
       </c>
       <c r="P302" s="35"/>
@@ -29333,7 +29169,7 @@
       <c r="E303" s="36">
         <v>43647</v>
       </c>
-      <c r="F303" s="36">
+      <c r="F303" s="48">
         <v>2019</v>
       </c>
       <c r="G303" s="35" t="s">
@@ -29348,7 +29184,7 @@
       <c r="J303" s="36">
         <v>43789.684548113422</v>
       </c>
-      <c r="K303" s="36">
+      <c r="K303" s="48">
         <v>2019</v>
       </c>
       <c r="L303" s="35">
@@ -29360,7 +29196,7 @@
       <c r="N303" s="36">
         <v>43801</v>
       </c>
-      <c r="O303" s="36">
+      <c r="O303" s="48">
         <v>2019</v>
       </c>
       <c r="P303" s="35">
@@ -29390,7 +29226,7 @@
       <c r="E304" s="36">
         <v>42752</v>
       </c>
-      <c r="F304" s="36">
+      <c r="F304" s="48">
         <v>2017</v>
       </c>
       <c r="G304" s="35" t="s">
@@ -29405,7 +29241,7 @@
       <c r="J304" s="36">
         <v>43791.372128553237</v>
       </c>
-      <c r="K304" s="36">
+      <c r="K304" s="48">
         <v>2019</v>
       </c>
       <c r="L304" s="35">
@@ -29415,7 +29251,7 @@
         <v>43790</v>
       </c>
       <c r="N304" s="36"/>
-      <c r="O304" s="36">
+      <c r="O304" s="48">
         <v>2019</v>
       </c>
       <c r="P304" s="35"/>
@@ -29443,7 +29279,7 @@
       <c r="E305" s="36">
         <v>42775</v>
       </c>
-      <c r="F305" s="36">
+      <c r="F305" s="48">
         <v>2017</v>
       </c>
       <c r="G305" s="35" t="s">
@@ -29458,7 +29294,7 @@
       <c r="J305" s="36">
         <v>43791.493195104165</v>
       </c>
-      <c r="K305" s="36">
+      <c r="K305" s="48">
         <v>2019</v>
       </c>
       <c r="L305" s="35">
@@ -29470,7 +29306,7 @@
       <c r="N305" s="36">
         <v>43817</v>
       </c>
-      <c r="O305" s="36">
+      <c r="O305" s="48">
         <v>2019</v>
       </c>
       <c r="P305" s="35">
@@ -29500,7 +29336,7 @@
       <c r="E306" s="36">
         <v>43761</v>
       </c>
-      <c r="F306" s="36">
+      <c r="F306" s="48">
         <v>2019</v>
       </c>
       <c r="G306" s="35" t="s">
@@ -29515,7 +29351,7 @@
       <c r="J306" s="36">
         <v>43794.592859456017</v>
       </c>
-      <c r="K306" s="36">
+      <c r="K306" s="48">
         <v>2019</v>
       </c>
       <c r="L306" s="35">
@@ -29527,7 +29363,7 @@
       <c r="N306" s="36">
         <v>43815</v>
       </c>
-      <c r="O306" s="36">
+      <c r="O306" s="48">
         <v>2019</v>
       </c>
       <c r="P306" s="35">
@@ -29557,7 +29393,7 @@
       <c r="E307" s="36">
         <v>42958</v>
       </c>
-      <c r="F307" s="36">
+      <c r="F307" s="48">
         <v>2017</v>
       </c>
       <c r="G307" s="35" t="s">
@@ -29572,7 +29408,7 @@
       <c r="J307" s="36">
         <v>43794.602351238427</v>
       </c>
-      <c r="K307" s="36">
+      <c r="K307" s="48">
         <v>2019</v>
       </c>
       <c r="L307" s="35">
@@ -29584,7 +29420,7 @@
       <c r="N307" s="36">
         <v>43812</v>
       </c>
-      <c r="O307" s="36">
+      <c r="O307" s="48">
         <v>2019</v>
       </c>
       <c r="P307" s="35">
@@ -29614,7 +29450,7 @@
       <c r="E308" s="36">
         <v>43718</v>
       </c>
-      <c r="F308" s="36">
+      <c r="F308" s="48">
         <v>2019</v>
       </c>
       <c r="G308" s="35" t="s">
@@ -29629,7 +29465,7 @@
       <c r="J308" s="36">
         <v>43795.511479976849</v>
       </c>
-      <c r="K308" s="36">
+      <c r="K308" s="48">
         <v>2019</v>
       </c>
       <c r="L308" s="35">
@@ -29641,7 +29477,7 @@
       <c r="N308" s="36">
         <v>43822</v>
       </c>
-      <c r="O308" s="36">
+      <c r="O308" s="48">
         <v>2019</v>
       </c>
       <c r="P308" s="35">
@@ -29671,7 +29507,7 @@
       <c r="E309" s="36">
         <v>42797</v>
       </c>
-      <c r="F309" s="36">
+      <c r="F309" s="48">
         <v>2017</v>
       </c>
       <c r="G309" s="35" t="s">
@@ -29686,7 +29522,7 @@
       <c r="J309" s="36">
         <v>43795.571655636573</v>
       </c>
-      <c r="K309" s="36">
+      <c r="K309" s="48">
         <v>2019</v>
       </c>
       <c r="L309" s="35">
@@ -29698,7 +29534,7 @@
       <c r="N309" s="36">
         <v>43847</v>
       </c>
-      <c r="O309" s="36">
+      <c r="O309" s="48">
         <v>2019</v>
       </c>
       <c r="P309" s="35">
@@ -29728,7 +29564,7 @@
       <c r="E310" s="36">
         <v>43733</v>
       </c>
-      <c r="F310" s="36">
+      <c r="F310" s="48">
         <v>2019</v>
       </c>
       <c r="G310" s="35" t="s">
@@ -29743,7 +29579,7 @@
       <c r="J310" s="36">
         <v>43802.703513043984</v>
       </c>
-      <c r="K310" s="36">
+      <c r="K310" s="48">
         <v>2019</v>
       </c>
       <c r="L310" s="35">
@@ -29755,7 +29591,7 @@
       <c r="N310" s="36">
         <v>43468</v>
       </c>
-      <c r="O310" s="36">
+      <c r="O310" s="48">
         <v>2019</v>
       </c>
       <c r="P310" s="35">
@@ -29785,7 +29621,7 @@
       <c r="E311" s="36">
         <v>43523</v>
       </c>
-      <c r="F311" s="36">
+      <c r="F311" s="48">
         <v>2019</v>
       </c>
       <c r="G311" s="35" t="s">
@@ -29800,7 +29636,7 @@
       <c r="J311" s="36">
         <v>43803.61268445602</v>
       </c>
-      <c r="K311" s="36">
+      <c r="K311" s="48">
         <v>2019</v>
       </c>
       <c r="L311" s="35">
@@ -29810,7 +29646,7 @@
         <v>43803</v>
       </c>
       <c r="N311" s="36"/>
-      <c r="O311" s="36">
+      <c r="O311" s="48">
         <v>2019</v>
       </c>
       <c r="P311" s="35"/>
@@ -29838,7 +29674,7 @@
       <c r="E312" s="36">
         <v>43357</v>
       </c>
-      <c r="F312" s="36">
+      <c r="F312" s="48">
         <v>2018</v>
       </c>
       <c r="G312" s="35" t="s">
@@ -29853,7 +29689,7 @@
       <c r="J312" s="36">
         <v>43810.372829629632</v>
       </c>
-      <c r="K312" s="36">
+      <c r="K312" s="48">
         <v>2019</v>
       </c>
       <c r="L312" s="35">
@@ -29865,7 +29701,7 @@
       <c r="N312" s="36">
         <v>43816</v>
       </c>
-      <c r="O312" s="36">
+      <c r="O312" s="48">
         <v>2019</v>
       </c>
       <c r="P312" s="35">
@@ -29895,7 +29731,7 @@
       <c r="E313" s="36">
         <v>43200</v>
       </c>
-      <c r="F313" s="36">
+      <c r="F313" s="48">
         <v>2018</v>
       </c>
       <c r="G313" s="35" t="s">
@@ -29910,7 +29746,7 @@
       <c r="J313" s="36">
         <v>43812.371666400461</v>
       </c>
-      <c r="K313" s="36">
+      <c r="K313" s="48">
         <v>2019</v>
       </c>
       <c r="L313" s="35">
@@ -29922,7 +29758,7 @@
       <c r="N313" s="36">
         <v>43812</v>
       </c>
-      <c r="O313" s="36">
+      <c r="O313" s="48">
         <v>2019</v>
       </c>
       <c r="P313" s="35">
@@ -29952,7 +29788,7 @@
       <c r="E314" s="36">
         <v>43647</v>
       </c>
-      <c r="F314" s="36">
+      <c r="F314" s="48">
         <v>2019</v>
       </c>
       <c r="G314" s="35" t="s">
@@ -29967,7 +29803,7 @@
       <c r="J314" s="36">
         <v>43815.594689270831</v>
       </c>
-      <c r="K314" s="36">
+      <c r="K314" s="48">
         <v>2019</v>
       </c>
       <c r="L314" s="35">
@@ -29979,7 +29815,7 @@
       <c r="N314" s="36">
         <v>43812</v>
       </c>
-      <c r="O314" s="36">
+      <c r="O314" s="48">
         <v>2019</v>
       </c>
       <c r="P314" s="35">
@@ -30009,7 +29845,7 @@
       <c r="E315" s="36">
         <v>43007</v>
       </c>
-      <c r="F315" s="36">
+      <c r="F315" s="48">
         <v>2017</v>
       </c>
       <c r="G315" s="35" t="s">
@@ -30024,7 +29860,7 @@
       <c r="J315" s="36">
         <v>43815.606348460649</v>
       </c>
-      <c r="K315" s="36">
+      <c r="K315" s="48">
         <v>2019</v>
       </c>
       <c r="L315" s="35">
@@ -30034,7 +29870,7 @@
         <v>43787</v>
       </c>
       <c r="N315" s="36"/>
-      <c r="O315" s="36">
+      <c r="O315" s="48">
         <v>2019</v>
       </c>
       <c r="P315" s="35"/>
@@ -30062,7 +29898,7 @@
       <c r="E316" s="36">
         <v>42916</v>
       </c>
-      <c r="F316" s="36">
+      <c r="F316" s="48">
         <v>2017</v>
       </c>
       <c r="G316" s="35" t="s">
@@ -30077,7 +29913,7 @@
       <c r="J316" s="36">
         <v>43815.610843020833</v>
       </c>
-      <c r="K316" s="36">
+      <c r="K316" s="48">
         <v>2019</v>
       </c>
       <c r="L316" s="35">
@@ -30087,7 +29923,7 @@
         <v>43799</v>
       </c>
       <c r="N316" s="36"/>
-      <c r="O316" s="36">
+      <c r="O316" s="48">
         <v>2019</v>
       </c>
       <c r="P316" s="35"/>
@@ -30115,7 +29951,7 @@
       <c r="E317" s="36">
         <v>43720</v>
       </c>
-      <c r="F317" s="36">
+      <c r="F317" s="48">
         <v>2019</v>
       </c>
       <c r="G317" s="35" t="s">
@@ -30130,7 +29966,7 @@
       <c r="J317" s="36">
         <v>43815.624423807873</v>
       </c>
-      <c r="K317" s="36">
+      <c r="K317" s="48">
         <v>2019</v>
       </c>
       <c r="L317" s="35">
@@ -30140,7 +29976,7 @@
         <v>43815</v>
       </c>
       <c r="N317" s="36"/>
-      <c r="O317" s="36">
+      <c r="O317" s="48">
         <v>2019</v>
       </c>
       <c r="P317" s="35"/>
@@ -30168,7 +30004,7 @@
       <c r="E318" s="36">
         <v>43789</v>
       </c>
-      <c r="F318" s="36">
+      <c r="F318" s="48">
         <v>2019</v>
       </c>
       <c r="G318" s="35" t="s">
@@ -30183,7 +30019,7 @@
       <c r="J318" s="36">
         <v>43816.473526504633</v>
       </c>
-      <c r="K318" s="36">
+      <c r="K318" s="48">
         <v>2019</v>
       </c>
       <c r="L318" s="35">
@@ -30195,7 +30031,7 @@
       <c r="N318" s="36">
         <v>43819</v>
       </c>
-      <c r="O318" s="36">
+      <c r="O318" s="48">
         <v>2019</v>
       </c>
       <c r="P318" s="35">
@@ -30225,7 +30061,7 @@
       <c r="E319" s="36">
         <v>43343</v>
       </c>
-      <c r="F319" s="36">
+      <c r="F319" s="48">
         <v>2018</v>
       </c>
       <c r="G319" s="35" t="s">
@@ -30240,7 +30076,7 @@
       <c r="J319" s="36">
         <v>43819.46505810185</v>
       </c>
-      <c r="K319" s="36">
+      <c r="K319" s="48">
         <v>2019</v>
       </c>
       <c r="L319" s="35">
@@ -30252,7 +30088,7 @@
       <c r="N319" s="36">
         <v>43845</v>
       </c>
-      <c r="O319" s="36">
+      <c r="O319" s="48">
         <v>2019</v>
       </c>
       <c r="P319" s="35">
@@ -30282,7 +30118,7 @@
       <c r="E320" s="36">
         <v>42916</v>
       </c>
-      <c r="F320" s="36">
+      <c r="F320" s="48">
         <v>2017</v>
       </c>
       <c r="G320" s="35" t="s">
@@ -30297,7 +30133,7 @@
       <c r="J320" s="36">
         <v>43819.481741435186</v>
       </c>
-      <c r="K320" s="36">
+      <c r="K320" s="48">
         <v>2019</v>
       </c>
       <c r="L320" s="35">
@@ -30307,7 +30143,7 @@
         <v>43819</v>
       </c>
       <c r="N320" s="36"/>
-      <c r="O320" s="36">
+      <c r="O320" s="48">
         <v>2019</v>
       </c>
       <c r="P320" s="35"/>
@@ -30335,7 +30171,7 @@
       <c r="E321" s="36">
         <v>43343</v>
       </c>
-      <c r="F321" s="36">
+      <c r="F321" s="48">
         <v>2018</v>
       </c>
       <c r="G321" s="35" t="s">
@@ -30350,7 +30186,7 @@
       <c r="J321" s="36">
         <v>43825.396503587966</v>
       </c>
-      <c r="K321" s="36">
+      <c r="K321" s="48">
         <v>2019</v>
       </c>
       <c r="L321" s="35">
@@ -30360,7 +30196,7 @@
         <v>43825</v>
       </c>
       <c r="N321" s="36"/>
-      <c r="O321" s="36">
+      <c r="O321" s="48">
         <v>2019</v>
       </c>
       <c r="P321" s="35"/>
@@ -30388,7 +30224,7 @@
       <c r="E322" s="36">
         <v>43357</v>
       </c>
-      <c r="F322" s="36">
+      <c r="F322" s="48">
         <v>2018</v>
       </c>
       <c r="G322" s="35" t="s">
@@ -30403,7 +30239,7 @@
       <c r="J322" s="36">
         <v>43826.458701736112</v>
       </c>
-      <c r="K322" s="36">
+      <c r="K322" s="48">
         <v>2019</v>
       </c>
       <c r="L322" s="35">
@@ -30413,7 +30249,7 @@
         <v>43826</v>
       </c>
       <c r="N322" s="36"/>
-      <c r="O322" s="36">
+      <c r="O322" s="48">
         <v>2019</v>
       </c>
       <c r="P322" s="35"/>
@@ -30441,7 +30277,7 @@
       <c r="E323" s="36">
         <v>43808</v>
       </c>
-      <c r="F323" s="36">
+      <c r="F323" s="48">
         <v>2019</v>
       </c>
       <c r="G323" s="35" t="s">
@@ -30456,7 +30292,7 @@
       <c r="J323" s="36">
         <v>43826.490759687498</v>
       </c>
-      <c r="K323" s="36">
+      <c r="K323" s="48">
         <v>2019</v>
       </c>
       <c r="L323" s="35">
@@ -30468,7 +30304,7 @@
       <c r="N323" s="36">
         <v>43826</v>
       </c>
-      <c r="O323" s="36">
+      <c r="O323" s="48">
         <v>2019</v>
       </c>
       <c r="P323" s="35">
@@ -30498,7 +30334,7 @@
       <c r="E324" s="36">
         <v>43343</v>
       </c>
-      <c r="F324" s="36">
+      <c r="F324" s="48">
         <v>2018</v>
       </c>
       <c r="G324" s="35" t="s">
@@ -30513,7 +30349,7 @@
       <c r="J324" s="36">
         <v>43844.348982060183</v>
       </c>
-      <c r="K324" s="36">
+      <c r="K324" s="48">
         <v>2020</v>
       </c>
       <c r="L324" s="35">
@@ -30523,7 +30359,7 @@
         <v>43843</v>
       </c>
       <c r="N324" s="36"/>
-      <c r="O324" s="36">
+      <c r="O324" s="48">
         <v>2020</v>
       </c>
       <c r="P324" s="35"/>
@@ -30551,7 +30387,7 @@
       <c r="E325" s="36">
         <v>42345</v>
       </c>
-      <c r="F325" s="36">
+      <c r="F325" s="48">
         <v>2015</v>
       </c>
       <c r="G325" s="35" t="s">
@@ -30566,7 +30402,7 @@
       <c r="J325" s="36">
         <v>43844.634975810186</v>
       </c>
-      <c r="K325" s="36">
+      <c r="K325" s="48">
         <v>2020</v>
       </c>
       <c r="L325" s="35">
@@ -30576,7 +30412,7 @@
         <v>43839</v>
       </c>
       <c r="N325" s="36"/>
-      <c r="O325" s="36">
+      <c r="O325" s="48">
         <v>2020</v>
       </c>
       <c r="P325" s="35"/>
@@ -30604,7 +30440,7 @@
       <c r="E326" s="36">
         <v>43790</v>
       </c>
-      <c r="F326" s="36">
+      <c r="F326" s="48">
         <v>2019</v>
       </c>
       <c r="G326" s="35" t="s">
@@ -30619,7 +30455,7 @@
       <c r="J326" s="36">
         <v>43844.655196608794</v>
       </c>
-      <c r="K326" s="36">
+      <c r="K326" s="48">
         <v>2020</v>
       </c>
       <c r="L326" s="35">
@@ -30629,7 +30465,7 @@
         <v>43838</v>
       </c>
       <c r="N326" s="36"/>
-      <c r="O326" s="36">
+      <c r="O326" s="48">
         <v>2020</v>
       </c>
       <c r="P326" s="35"/>
@@ -30657,7 +30493,7 @@
       <c r="E327" s="36">
         <v>43706</v>
       </c>
-      <c r="F327" s="36">
+      <c r="F327" s="48">
         <v>2019</v>
       </c>
       <c r="G327" s="35" t="s">
@@ -30672,7 +30508,7 @@
       <c r="J327" s="36">
         <v>43845.641348923615</v>
       </c>
-      <c r="K327" s="36">
+      <c r="K327" s="48">
         <v>2020</v>
       </c>
       <c r="L327" s="35">
@@ -30682,7 +30518,7 @@
         <v>43845</v>
       </c>
       <c r="N327" s="36"/>
-      <c r="O327" s="36">
+      <c r="O327" s="48">
         <v>2020</v>
       </c>
       <c r="P327" s="35"/>
@@ -30726,15 +30562,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>561</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="45" t="s">
         <v>560</v>
       </c>
-      <c r="E1" s="38"/>
+      <c r="E1" s="45"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -34772,27 +34608,27 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="13"/>
-    <col min="3" max="3" width="34.5703125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="37" customWidth="1"/>
     <col min="4" max="8" width="12.7109375" style="13" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="38" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="4" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C4" s="41"/>
+      <c r="C4" s="38"/>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
     </row>
     <row r="6" spans="3:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C6" s="15" t="s">
@@ -34806,28 +34642,28 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="3:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="44" t="s">
+    <row r="7" spans="3:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="43">
+      <c r="D7" s="40">
         <v>2017</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="40">
         <v>2018</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="40">
         <v>2019</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="40">
         <v>2020</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="41" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="42">
+      <c r="C8" s="39">
         <v>2014</v>
       </c>
       <c r="D8" s="17">
@@ -34841,7 +34677,7 @@
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="42">
+      <c r="C9" s="39">
         <v>2015</v>
       </c>
       <c r="D9" s="17">
@@ -34861,7 +34697,7 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="42">
+      <c r="C10" s="39">
         <v>2016</v>
       </c>
       <c r="D10" s="17">
@@ -34879,7 +34715,7 @@
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="42">
+      <c r="C11" s="39">
         <v>2017</v>
       </c>
       <c r="D11" s="17">
@@ -34897,7 +34733,7 @@
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="42">
+      <c r="C12" s="39">
         <v>2018</v>
       </c>
       <c r="D12" s="17"/>
@@ -34915,7 +34751,7 @@
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="42">
+      <c r="C13" s="39">
         <v>2019</v>
       </c>
       <c r="D13" s="17"/>
@@ -34931,22 +34767,22 @@
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="42" t="s">
         <v>567</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="43">
         <v>81</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="43">
         <v>105</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="43">
         <v>135</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="43">
         <v>4</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="43">
         <v>325</v>
       </c>
     </row>
